--- a/literature review/lit review.xlsx
+++ b/literature review/lit review.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>INDEX</t>
   </si>
@@ -19,10 +19,16 @@
     <t>AUTHORS</t>
   </si>
   <si>
+    <t>PUBISHER</t>
+  </si>
+  <si>
     <t>YEAR OF PUBLICATION</t>
   </si>
   <si>
-    <t>JOURNAL/CONFERENCE</t>
+    <t>TYPE (JOURNAL/CONFERENCE)</t>
+  </si>
+  <si>
+    <t>TITLE</t>
   </si>
   <si>
     <t>RESEARCH GAP</t>
@@ -34,24 +40,21 @@
     <t>OBJECTIVES</t>
   </si>
   <si>
-    <t>FINAL AIM</t>
-  </si>
-  <si>
     <t>SIGNATURE DIAGRAM</t>
   </si>
   <si>
-    <t>ALGORITHMS</t>
-  </si>
-  <si>
     <t>SENSORS</t>
   </si>
   <si>
-    <t>LANGUAGES</t>
+    <t>TECH STACK</t>
   </si>
   <si>
     <t>KPIS</t>
   </si>
   <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
     <t>WHATS NEXT</t>
   </si>
   <si>
@@ -61,13 +64,98 @@
     <t>001</t>
   </si>
   <si>
+    <t>Meenaxi M Raikara, Meena S Mb, Mohammed Moin Mullac</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Software Defined Internet of Things using lightweight protocol</t>
+  </si>
+  <si>
+    <t>1. Whether SDN technology can be employed to handle the massive growth in data volume because of the connected devices to the internet?                                                                                                                                                                              2. Whether the amount of data sent can be reduced per transmission to save power?                                                                                                                                                                                                                                                                                     Publish Subscribe communication model.                                                                                                                                                                                                                                                                                                                                                                           Lightweight protocol used for transmission of data.</t>
+  </si>
+  <si>
+    <t>• Integration of virtual network in SDN and real-time campus network for establishing connectivity between virtual and real-time network. The observations are that the results in the virtual network are similar as in real-time networks.                                                                                                                                                                                        •Perform integration of SDN and IoT for efficient utilization of network resources.                                                                                                                                                               • Publish subscriber communication model with lightweight protocol for efficient transmission in SDN IoT architecture.</t>
+  </si>
+  <si>
+    <t>Integrate SDN and IoT for efficient network resource utilization.       Use MQTT to reduce power consumption and improve real-time data transmission.                                                       Develop a testbed that connects virtual and real-world IoT networks to validate the proposed system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> compare the number of bytes used in packet transmission using “HTTP” and 
+“MQTT” protocol    </t>
+  </si>
+  <si>
+    <t>HTTP sends more  bytes per minute but MQTT consumes less power</t>
+  </si>
+  <si>
+    <t>The comparison of MQTT and CoAP the IoT protocols could be the future work.</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
+    <t>Henry Alexander Ignatious*, Hesham-El-Sayed, Manzoor Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An overview of sensors in Autonomous Vehicles </t>
+  </si>
+  <si>
+    <t>This study has analysed several sensor types based on their key characteristics such as mode of operation, data type collected, general specifications and also discusses the strengths and weakness associated with every category of the sensors. The study summarizes the general specifications of different sensors manufactured by leading vendors in the market.</t>
+  </si>
+  <si>
+    <t>compare and explain sensors used in AVs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiDAR Radar Cameras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame per second (FPS), Accuracy (Acc), Detecting Range (RNG), Vertical FoV(VFOV), Horizontal FoV (HFOV)Horizontal resolution (HR0, Vertical Resolution (VR), Wavelength(λ).    , Horizontal-field-of-view (HFOV), Vertical-field-of-view (VFOV), Frames per second (FPS), 
+Image Resolution in mega pixels (Img Res), Depth frames per second (FPS)  , Frequency(Freq), horizontal FoV(HFOV), 
+Vertical FoV(VFOV), Range Accuracy (Range Acc), Velocity Range(Vel Range), ROS (Robotic Operating System) </t>
+  </si>
+  <si>
     <t>003</t>
   </si>
   <si>
+    <t>Krishna Murthy Gurumurthya, Kara M. Kockelmanb,⁎</t>
+  </si>
+  <si>
+    <t>Modeling Americans’ autonomous vehicle preferences: A focus on dynamic ride-sharing, privacy &amp; long-distance mode choices</t>
+  </si>
+  <si>
+    <t>public acceptance of AVs and how opinion changes over time, ride-sharing preferences, ehtical and privacy concerns</t>
+  </si>
+  <si>
+    <t>Dynamic ride-sharing preferences among adults were assessed in detail. opinions on Avs and SAVs where surveyed, to see what americans think of them, how safe, how reliable and their WTP.</t>
+  </si>
+  <si>
+    <t>new research should servey and see what people think of AVs with no driver. be able to rate passengers in the ride-share with you, and screen riders backgrounds. also asking about what waiting time would they prefer/accept instead of forcing a predetermined time.</t>
+  </si>
+  <si>
     <t>004</t>
+  </si>
+  <si>
+    <t>M. Hari Narasimhan, A. L. Reinhard Kenson, and S. Vigneshwari</t>
+  </si>
+  <si>
+    <t>Smart Bus Management and Tracking System</t>
+  </si>
+  <si>
+    <t>when smart bus apps need maintenence or fail, it leads to mismanagement, this app developed is trying to avoid that by creating an admin. Previous studies focused on either live tracking (using IoT or GPS) or bus management, but not both together. Previous research uses IoT which needs constant maintenance, so these try to use GPS module in the phone to avoid extra hw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have managed to create a user-friendly architecture with a full-fledged user interface. an admin dashboard where they can see bus routes and assign drivers. a drive interface where he can share his location and send emergency alerts. a user interface where he can search for outes/buses and receive any relevant alerts. </t>
+  </si>
+  <si>
+    <t>create an app with an admin to handle assigning routes and manage drivers, make an app easy to use for users and drivers, use gps instead of  IoT.</t>
+  </si>
+  <si>
+    <t>Firebase for backend. andriod studio for andriod app.  It uses Google Maps API for
+ displaying the real-time location of the bus. Swift and XCode for ios app.</t>
   </si>
   <si>
     <t>005</t>
@@ -131,12 +219,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Roboto Mono"/>
     </font>
     <font>
       <color theme="1"/>
@@ -158,14 +252,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -177,7 +281,92 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4257675" cy="2733675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="676275" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4495800" cy="2809875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,21 +573,21 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.75"/>
-    <col customWidth="1" min="2" max="2" width="8.75"/>
-    <col customWidth="1" min="3" max="3" width="19.13"/>
-    <col customWidth="1" min="4" max="4" width="20.13"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="23.38"/>
-    <col customWidth="1" min="7" max="7" width="11.0"/>
-    <col customWidth="1" min="8" max="8" width="8.88"/>
-    <col customWidth="1" min="9" max="9" width="18.13"/>
-    <col customWidth="1" min="10" max="10" width="11.5"/>
-    <col customWidth="1" min="11" max="11" width="9.0"/>
-    <col customWidth="1" min="12" max="12" width="11.13"/>
-    <col customWidth="1" min="13" max="13" width="4.75"/>
-    <col customWidth="1" min="14" max="14" width="11.25"/>
-    <col customWidth="1" min="15" max="15" width="14.5"/>
+    <col customWidth="1" min="1" max="1" width="7.25"/>
+    <col customWidth="1" min="2" max="2" width="46.25"/>
+    <col customWidth="1" min="3" max="3" width="11.0"/>
+    <col customWidth="1" min="4" max="4" width="24.75"/>
+    <col customWidth="1" min="5" max="5" width="32.25"/>
+    <col customWidth="1" min="6" max="6" width="92.38"/>
+    <col customWidth="1" min="7" max="7" width="102.88"/>
+    <col customWidth="1" min="8" max="8" width="101.13"/>
+    <col customWidth="1" min="9" max="9" width="49.0"/>
+    <col customWidth="1" min="10" max="10" width="110.13"/>
+    <col customWidth="1" min="11" max="11" width="9.75"/>
+    <col customWidth="1" min="12" max="12" width="14.25"/>
+    <col customWidth="1" min="13" max="13" width="22.63"/>
+    <col customWidth="1" min="14" max="15" width="13.5"/>
+    <col customWidth="1" min="16" max="16" width="19.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,121 +636,4462 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" ht="215.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D4" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" ht="221.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="4">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="I26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="I27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="I28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="I29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="I30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="I31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="I32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="I33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="I34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="I35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="I36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="I37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="I38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="I39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="I40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="I41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="I42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="I43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="I44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45">
+      <c r="I45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="I46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47">
+      <c r="I47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48">
+      <c r="I48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49">
+      <c r="I49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50">
+      <c r="I50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51">
+      <c r="I51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="I52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53">
+      <c r="I53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54">
+      <c r="I54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55">
+      <c r="I55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56">
+      <c r="I56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57">
+      <c r="I57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="I58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="I59" s="5"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="I60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61">
+      <c r="I61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62">
+      <c r="I62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="I63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64">
+      <c r="I64" s="5"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65">
+      <c r="I65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66">
+      <c r="I66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67">
+      <c r="I67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68">
+      <c r="I68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69">
+      <c r="I69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70">
+      <c r="I70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71">
+      <c r="I71" s="5"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72">
+      <c r="I72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73">
+      <c r="I73" s="5"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74">
+      <c r="I74" s="5"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75">
+      <c r="I75" s="5"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76">
+      <c r="I76" s="5"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77">
+      <c r="I77" s="5"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78">
+      <c r="I78" s="5"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79">
+      <c r="I79" s="5"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80">
+      <c r="I80" s="5"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81">
+      <c r="I81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82">
+      <c r="I82" s="5"/>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="I83" s="5"/>
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84">
+      <c r="I84" s="5"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85">
+      <c r="I85" s="5"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86">
+      <c r="I86" s="5"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87">
+      <c r="I87" s="5"/>
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88">
+      <c r="I88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89">
+      <c r="I89" s="5"/>
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90">
+      <c r="I90" s="5"/>
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91">
+      <c r="I91" s="5"/>
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92">
+      <c r="I92" s="5"/>
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93">
+      <c r="I93" s="5"/>
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94">
+      <c r="I94" s="5"/>
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95">
+      <c r="I95" s="5"/>
+      <c r="K95" s="5"/>
+    </row>
+    <row r="96">
+      <c r="I96" s="5"/>
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97">
+      <c r="I97" s="5"/>
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98">
+      <c r="I98" s="5"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99">
+      <c r="I99" s="5"/>
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100">
+      <c r="I100" s="5"/>
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101">
+      <c r="I101" s="5"/>
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102">
+      <c r="I102" s="5"/>
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103">
+      <c r="I103" s="5"/>
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104">
+      <c r="I104" s="5"/>
+      <c r="K104" s="5"/>
+    </row>
+    <row r="105">
+      <c r="I105" s="5"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106">
+      <c r="I106" s="5"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107">
+      <c r="I107" s="5"/>
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108">
+      <c r="I108" s="5"/>
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109">
+      <c r="I109" s="5"/>
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110">
+      <c r="I110" s="5"/>
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111">
+      <c r="I111" s="5"/>
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112">
+      <c r="I112" s="5"/>
+      <c r="K112" s="5"/>
+    </row>
+    <row r="113">
+      <c r="I113" s="5"/>
+      <c r="K113" s="5"/>
+    </row>
+    <row r="114">
+      <c r="I114" s="5"/>
+      <c r="K114" s="5"/>
+    </row>
+    <row r="115">
+      <c r="I115" s="5"/>
+      <c r="K115" s="5"/>
+    </row>
+    <row r="116">
+      <c r="I116" s="5"/>
+      <c r="K116" s="5"/>
+    </row>
+    <row r="117">
+      <c r="I117" s="5"/>
+      <c r="K117" s="5"/>
+    </row>
+    <row r="118">
+      <c r="I118" s="5"/>
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119">
+      <c r="I119" s="5"/>
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120">
+      <c r="I120" s="5"/>
+      <c r="K120" s="5"/>
+    </row>
+    <row r="121">
+      <c r="I121" s="5"/>
+      <c r="K121" s="5"/>
+    </row>
+    <row r="122">
+      <c r="I122" s="5"/>
+      <c r="K122" s="5"/>
+    </row>
+    <row r="123">
+      <c r="I123" s="5"/>
+      <c r="K123" s="5"/>
+    </row>
+    <row r="124">
+      <c r="I124" s="5"/>
+      <c r="K124" s="5"/>
+    </row>
+    <row r="125">
+      <c r="I125" s="5"/>
+      <c r="K125" s="5"/>
+    </row>
+    <row r="126">
+      <c r="I126" s="5"/>
+      <c r="K126" s="5"/>
+    </row>
+    <row r="127">
+      <c r="I127" s="5"/>
+      <c r="K127" s="5"/>
+    </row>
+    <row r="128">
+      <c r="I128" s="5"/>
+      <c r="K128" s="5"/>
+    </row>
+    <row r="129">
+      <c r="I129" s="5"/>
+      <c r="K129" s="5"/>
+    </row>
+    <row r="130">
+      <c r="I130" s="5"/>
+      <c r="K130" s="5"/>
+    </row>
+    <row r="131">
+      <c r="I131" s="5"/>
+      <c r="K131" s="5"/>
+    </row>
+    <row r="132">
+      <c r="I132" s="5"/>
+      <c r="K132" s="5"/>
+    </row>
+    <row r="133">
+      <c r="I133" s="5"/>
+      <c r="K133" s="5"/>
+    </row>
+    <row r="134">
+      <c r="I134" s="5"/>
+      <c r="K134" s="5"/>
+    </row>
+    <row r="135">
+      <c r="I135" s="5"/>
+      <c r="K135" s="5"/>
+    </row>
+    <row r="136">
+      <c r="I136" s="5"/>
+      <c r="K136" s="5"/>
+    </row>
+    <row r="137">
+      <c r="I137" s="5"/>
+      <c r="K137" s="5"/>
+    </row>
+    <row r="138">
+      <c r="I138" s="5"/>
+      <c r="K138" s="5"/>
+    </row>
+    <row r="139">
+      <c r="I139" s="5"/>
+      <c r="K139" s="5"/>
+    </row>
+    <row r="140">
+      <c r="I140" s="5"/>
+      <c r="K140" s="5"/>
+    </row>
+    <row r="141">
+      <c r="I141" s="5"/>
+      <c r="K141" s="5"/>
+    </row>
+    <row r="142">
+      <c r="I142" s="5"/>
+      <c r="K142" s="5"/>
+    </row>
+    <row r="143">
+      <c r="I143" s="5"/>
+      <c r="K143" s="5"/>
+    </row>
+    <row r="144">
+      <c r="I144" s="5"/>
+      <c r="K144" s="5"/>
+    </row>
+    <row r="145">
+      <c r="I145" s="5"/>
+      <c r="K145" s="5"/>
+    </row>
+    <row r="146">
+      <c r="I146" s="5"/>
+      <c r="K146" s="5"/>
+    </row>
+    <row r="147">
+      <c r="I147" s="5"/>
+      <c r="K147" s="5"/>
+    </row>
+    <row r="148">
+      <c r="I148" s="5"/>
+      <c r="K148" s="5"/>
+    </row>
+    <row r="149">
+      <c r="I149" s="5"/>
+      <c r="K149" s="5"/>
+    </row>
+    <row r="150">
+      <c r="I150" s="5"/>
+      <c r="K150" s="5"/>
+    </row>
+    <row r="151">
+      <c r="I151" s="5"/>
+      <c r="K151" s="5"/>
+    </row>
+    <row r="152">
+      <c r="I152" s="5"/>
+      <c r="K152" s="5"/>
+    </row>
+    <row r="153">
+      <c r="I153" s="5"/>
+      <c r="K153" s="5"/>
+    </row>
+    <row r="154">
+      <c r="I154" s="5"/>
+      <c r="K154" s="5"/>
+    </row>
+    <row r="155">
+      <c r="I155" s="5"/>
+      <c r="K155" s="5"/>
+    </row>
+    <row r="156">
+      <c r="I156" s="5"/>
+      <c r="K156" s="5"/>
+    </row>
+    <row r="157">
+      <c r="I157" s="5"/>
+      <c r="K157" s="5"/>
+    </row>
+    <row r="158">
+      <c r="I158" s="5"/>
+      <c r="K158" s="5"/>
+    </row>
+    <row r="159">
+      <c r="I159" s="5"/>
+      <c r="K159" s="5"/>
+    </row>
+    <row r="160">
+      <c r="I160" s="5"/>
+      <c r="K160" s="5"/>
+    </row>
+    <row r="161">
+      <c r="I161" s="5"/>
+      <c r="K161" s="5"/>
+    </row>
+    <row r="162">
+      <c r="I162" s="5"/>
+      <c r="K162" s="5"/>
+    </row>
+    <row r="163">
+      <c r="I163" s="5"/>
+      <c r="K163" s="5"/>
+    </row>
+    <row r="164">
+      <c r="I164" s="5"/>
+      <c r="K164" s="5"/>
+    </row>
+    <row r="165">
+      <c r="I165" s="5"/>
+      <c r="K165" s="5"/>
+    </row>
+    <row r="166">
+      <c r="I166" s="5"/>
+      <c r="K166" s="5"/>
+    </row>
+    <row r="167">
+      <c r="I167" s="5"/>
+      <c r="K167" s="5"/>
+    </row>
+    <row r="168">
+      <c r="I168" s="5"/>
+      <c r="K168" s="5"/>
+    </row>
+    <row r="169">
+      <c r="I169" s="5"/>
+      <c r="K169" s="5"/>
+    </row>
+    <row r="170">
+      <c r="I170" s="5"/>
+      <c r="K170" s="5"/>
+    </row>
+    <row r="171">
+      <c r="I171" s="5"/>
+      <c r="K171" s="5"/>
+    </row>
+    <row r="172">
+      <c r="I172" s="5"/>
+      <c r="K172" s="5"/>
+    </row>
+    <row r="173">
+      <c r="I173" s="5"/>
+      <c r="K173" s="5"/>
+    </row>
+    <row r="174">
+      <c r="I174" s="5"/>
+      <c r="K174" s="5"/>
+    </row>
+    <row r="175">
+      <c r="I175" s="5"/>
+      <c r="K175" s="5"/>
+    </row>
+    <row r="176">
+      <c r="I176" s="5"/>
+      <c r="K176" s="5"/>
+    </row>
+    <row r="177">
+      <c r="I177" s="5"/>
+      <c r="K177" s="5"/>
+    </row>
+    <row r="178">
+      <c r="I178" s="5"/>
+      <c r="K178" s="5"/>
+    </row>
+    <row r="179">
+      <c r="I179" s="5"/>
+      <c r="K179" s="5"/>
+    </row>
+    <row r="180">
+      <c r="I180" s="5"/>
+      <c r="K180" s="5"/>
+    </row>
+    <row r="181">
+      <c r="I181" s="5"/>
+      <c r="K181" s="5"/>
+    </row>
+    <row r="182">
+      <c r="I182" s="5"/>
+      <c r="K182" s="5"/>
+    </row>
+    <row r="183">
+      <c r="I183" s="5"/>
+      <c r="K183" s="5"/>
+    </row>
+    <row r="184">
+      <c r="I184" s="5"/>
+      <c r="K184" s="5"/>
+    </row>
+    <row r="185">
+      <c r="I185" s="5"/>
+      <c r="K185" s="5"/>
+    </row>
+    <row r="186">
+      <c r="I186" s="5"/>
+      <c r="K186" s="5"/>
+    </row>
+    <row r="187">
+      <c r="I187" s="5"/>
+      <c r="K187" s="5"/>
+    </row>
+    <row r="188">
+      <c r="I188" s="5"/>
+      <c r="K188" s="5"/>
+    </row>
+    <row r="189">
+      <c r="I189" s="5"/>
+      <c r="K189" s="5"/>
+    </row>
+    <row r="190">
+      <c r="I190" s="5"/>
+      <c r="K190" s="5"/>
+    </row>
+    <row r="191">
+      <c r="I191" s="5"/>
+      <c r="K191" s="5"/>
+    </row>
+    <row r="192">
+      <c r="I192" s="5"/>
+      <c r="K192" s="5"/>
+    </row>
+    <row r="193">
+      <c r="I193" s="5"/>
+      <c r="K193" s="5"/>
+    </row>
+    <row r="194">
+      <c r="I194" s="5"/>
+      <c r="K194" s="5"/>
+    </row>
+    <row r="195">
+      <c r="I195" s="5"/>
+      <c r="K195" s="5"/>
+    </row>
+    <row r="196">
+      <c r="I196" s="5"/>
+      <c r="K196" s="5"/>
+    </row>
+    <row r="197">
+      <c r="I197" s="5"/>
+      <c r="K197" s="5"/>
+    </row>
+    <row r="198">
+      <c r="I198" s="5"/>
+      <c r="K198" s="5"/>
+    </row>
+    <row r="199">
+      <c r="I199" s="5"/>
+      <c r="K199" s="5"/>
+    </row>
+    <row r="200">
+      <c r="I200" s="5"/>
+      <c r="K200" s="5"/>
+    </row>
+    <row r="201">
+      <c r="I201" s="5"/>
+      <c r="K201" s="5"/>
+    </row>
+    <row r="202">
+      <c r="I202" s="5"/>
+      <c r="K202" s="5"/>
+    </row>
+    <row r="203">
+      <c r="I203" s="5"/>
+      <c r="K203" s="5"/>
+    </row>
+    <row r="204">
+      <c r="I204" s="5"/>
+      <c r="K204" s="5"/>
+    </row>
+    <row r="205">
+      <c r="I205" s="5"/>
+      <c r="K205" s="5"/>
+    </row>
+    <row r="206">
+      <c r="I206" s="5"/>
+      <c r="K206" s="5"/>
+    </row>
+    <row r="207">
+      <c r="I207" s="5"/>
+      <c r="K207" s="5"/>
+    </row>
+    <row r="208">
+      <c r="I208" s="5"/>
+      <c r="K208" s="5"/>
+    </row>
+    <row r="209">
+      <c r="I209" s="5"/>
+      <c r="K209" s="5"/>
+    </row>
+    <row r="210">
+      <c r="I210" s="5"/>
+      <c r="K210" s="5"/>
+    </row>
+    <row r="211">
+      <c r="I211" s="5"/>
+      <c r="K211" s="5"/>
+    </row>
+    <row r="212">
+      <c r="I212" s="5"/>
+      <c r="K212" s="5"/>
+    </row>
+    <row r="213">
+      <c r="I213" s="5"/>
+      <c r="K213" s="5"/>
+    </row>
+    <row r="214">
+      <c r="I214" s="5"/>
+      <c r="K214" s="5"/>
+    </row>
+    <row r="215">
+      <c r="I215" s="5"/>
+      <c r="K215" s="5"/>
+    </row>
+    <row r="216">
+      <c r="I216" s="5"/>
+      <c r="K216" s="5"/>
+    </row>
+    <row r="217">
+      <c r="I217" s="5"/>
+      <c r="K217" s="5"/>
+    </row>
+    <row r="218">
+      <c r="I218" s="5"/>
+      <c r="K218" s="5"/>
+    </row>
+    <row r="219">
+      <c r="I219" s="5"/>
+      <c r="K219" s="5"/>
+    </row>
+    <row r="220">
+      <c r="I220" s="5"/>
+      <c r="K220" s="5"/>
+    </row>
+    <row r="221">
+      <c r="I221" s="5"/>
+      <c r="K221" s="5"/>
+    </row>
+    <row r="222">
+      <c r="I222" s="5"/>
+      <c r="K222" s="5"/>
+    </row>
+    <row r="223">
+      <c r="I223" s="5"/>
+      <c r="K223" s="5"/>
+    </row>
+    <row r="224">
+      <c r="I224" s="5"/>
+      <c r="K224" s="5"/>
+    </row>
+    <row r="225">
+      <c r="I225" s="5"/>
+      <c r="K225" s="5"/>
+    </row>
+    <row r="226">
+      <c r="I226" s="5"/>
+      <c r="K226" s="5"/>
+    </row>
+    <row r="227">
+      <c r="I227" s="5"/>
+      <c r="K227" s="5"/>
+    </row>
+    <row r="228">
+      <c r="I228" s="5"/>
+      <c r="K228" s="5"/>
+    </row>
+    <row r="229">
+      <c r="I229" s="5"/>
+      <c r="K229" s="5"/>
+    </row>
+    <row r="230">
+      <c r="I230" s="5"/>
+      <c r="K230" s="5"/>
+    </row>
+    <row r="231">
+      <c r="I231" s="5"/>
+      <c r="K231" s="5"/>
+    </row>
+    <row r="232">
+      <c r="I232" s="5"/>
+      <c r="K232" s="5"/>
+    </row>
+    <row r="233">
+      <c r="I233" s="5"/>
+      <c r="K233" s="5"/>
+    </row>
+    <row r="234">
+      <c r="I234" s="5"/>
+      <c r="K234" s="5"/>
+    </row>
+    <row r="235">
+      <c r="I235" s="5"/>
+      <c r="K235" s="5"/>
+    </row>
+    <row r="236">
+      <c r="I236" s="5"/>
+      <c r="K236" s="5"/>
+    </row>
+    <row r="237">
+      <c r="I237" s="5"/>
+      <c r="K237" s="5"/>
+    </row>
+    <row r="238">
+      <c r="I238" s="5"/>
+      <c r="K238" s="5"/>
+    </row>
+    <row r="239">
+      <c r="I239" s="5"/>
+      <c r="K239" s="5"/>
+    </row>
+    <row r="240">
+      <c r="I240" s="5"/>
+      <c r="K240" s="5"/>
+    </row>
+    <row r="241">
+      <c r="I241" s="5"/>
+      <c r="K241" s="5"/>
+    </row>
+    <row r="242">
+      <c r="I242" s="5"/>
+      <c r="K242" s="5"/>
+    </row>
+    <row r="243">
+      <c r="I243" s="5"/>
+      <c r="K243" s="5"/>
+    </row>
+    <row r="244">
+      <c r="I244" s="5"/>
+      <c r="K244" s="5"/>
+    </row>
+    <row r="245">
+      <c r="I245" s="5"/>
+      <c r="K245" s="5"/>
+    </row>
+    <row r="246">
+      <c r="I246" s="5"/>
+      <c r="K246" s="5"/>
+    </row>
+    <row r="247">
+      <c r="I247" s="5"/>
+      <c r="K247" s="5"/>
+    </row>
+    <row r="248">
+      <c r="I248" s="5"/>
+      <c r="K248" s="5"/>
+    </row>
+    <row r="249">
+      <c r="I249" s="5"/>
+      <c r="K249" s="5"/>
+    </row>
+    <row r="250">
+      <c r="I250" s="5"/>
+      <c r="K250" s="5"/>
+    </row>
+    <row r="251">
+      <c r="I251" s="5"/>
+      <c r="K251" s="5"/>
+    </row>
+    <row r="252">
+      <c r="I252" s="5"/>
+      <c r="K252" s="5"/>
+    </row>
+    <row r="253">
+      <c r="I253" s="5"/>
+      <c r="K253" s="5"/>
+    </row>
+    <row r="254">
+      <c r="I254" s="5"/>
+      <c r="K254" s="5"/>
+    </row>
+    <row r="255">
+      <c r="I255" s="5"/>
+      <c r="K255" s="5"/>
+    </row>
+    <row r="256">
+      <c r="I256" s="5"/>
+      <c r="K256" s="5"/>
+    </row>
+    <row r="257">
+      <c r="I257" s="5"/>
+      <c r="K257" s="5"/>
+    </row>
+    <row r="258">
+      <c r="I258" s="5"/>
+      <c r="K258" s="5"/>
+    </row>
+    <row r="259">
+      <c r="I259" s="5"/>
+      <c r="K259" s="5"/>
+    </row>
+    <row r="260">
+      <c r="I260" s="5"/>
+      <c r="K260" s="5"/>
+    </row>
+    <row r="261">
+      <c r="I261" s="5"/>
+      <c r="K261" s="5"/>
+    </row>
+    <row r="262">
+      <c r="I262" s="5"/>
+      <c r="K262" s="5"/>
+    </row>
+    <row r="263">
+      <c r="I263" s="5"/>
+      <c r="K263" s="5"/>
+    </row>
+    <row r="264">
+      <c r="I264" s="5"/>
+      <c r="K264" s="5"/>
+    </row>
+    <row r="265">
+      <c r="I265" s="5"/>
+      <c r="K265" s="5"/>
+    </row>
+    <row r="266">
+      <c r="I266" s="5"/>
+      <c r="K266" s="5"/>
+    </row>
+    <row r="267">
+      <c r="I267" s="5"/>
+      <c r="K267" s="5"/>
+    </row>
+    <row r="268">
+      <c r="I268" s="5"/>
+      <c r="K268" s="5"/>
+    </row>
+    <row r="269">
+      <c r="I269" s="5"/>
+      <c r="K269" s="5"/>
+    </row>
+    <row r="270">
+      <c r="I270" s="5"/>
+      <c r="K270" s="5"/>
+    </row>
+    <row r="271">
+      <c r="I271" s="5"/>
+      <c r="K271" s="5"/>
+    </row>
+    <row r="272">
+      <c r="I272" s="5"/>
+      <c r="K272" s="5"/>
+    </row>
+    <row r="273">
+      <c r="I273" s="5"/>
+      <c r="K273" s="5"/>
+    </row>
+    <row r="274">
+      <c r="I274" s="5"/>
+      <c r="K274" s="5"/>
+    </row>
+    <row r="275">
+      <c r="I275" s="5"/>
+      <c r="K275" s="5"/>
+    </row>
+    <row r="276">
+      <c r="I276" s="5"/>
+      <c r="K276" s="5"/>
+    </row>
+    <row r="277">
+      <c r="I277" s="5"/>
+      <c r="K277" s="5"/>
+    </row>
+    <row r="278">
+      <c r="I278" s="5"/>
+      <c r="K278" s="5"/>
+    </row>
+    <row r="279">
+      <c r="I279" s="5"/>
+      <c r="K279" s="5"/>
+    </row>
+    <row r="280">
+      <c r="I280" s="5"/>
+      <c r="K280" s="5"/>
+    </row>
+    <row r="281">
+      <c r="I281" s="5"/>
+      <c r="K281" s="5"/>
+    </row>
+    <row r="282">
+      <c r="I282" s="5"/>
+      <c r="K282" s="5"/>
+    </row>
+    <row r="283">
+      <c r="I283" s="5"/>
+      <c r="K283" s="5"/>
+    </row>
+    <row r="284">
+      <c r="I284" s="5"/>
+      <c r="K284" s="5"/>
+    </row>
+    <row r="285">
+      <c r="I285" s="5"/>
+      <c r="K285" s="5"/>
+    </row>
+    <row r="286">
+      <c r="I286" s="5"/>
+      <c r="K286" s="5"/>
+    </row>
+    <row r="287">
+      <c r="I287" s="5"/>
+      <c r="K287" s="5"/>
+    </row>
+    <row r="288">
+      <c r="I288" s="5"/>
+      <c r="K288" s="5"/>
+    </row>
+    <row r="289">
+      <c r="I289" s="5"/>
+      <c r="K289" s="5"/>
+    </row>
+    <row r="290">
+      <c r="I290" s="5"/>
+      <c r="K290" s="5"/>
+    </row>
+    <row r="291">
+      <c r="I291" s="5"/>
+      <c r="K291" s="5"/>
+    </row>
+    <row r="292">
+      <c r="I292" s="5"/>
+      <c r="K292" s="5"/>
+    </row>
+    <row r="293">
+      <c r="I293" s="5"/>
+      <c r="K293" s="5"/>
+    </row>
+    <row r="294">
+      <c r="I294" s="5"/>
+      <c r="K294" s="5"/>
+    </row>
+    <row r="295">
+      <c r="I295" s="5"/>
+      <c r="K295" s="5"/>
+    </row>
+    <row r="296">
+      <c r="I296" s="5"/>
+      <c r="K296" s="5"/>
+    </row>
+    <row r="297">
+      <c r="I297" s="5"/>
+      <c r="K297" s="5"/>
+    </row>
+    <row r="298">
+      <c r="I298" s="5"/>
+      <c r="K298" s="5"/>
+    </row>
+    <row r="299">
+      <c r="I299" s="5"/>
+      <c r="K299" s="5"/>
+    </row>
+    <row r="300">
+      <c r="I300" s="5"/>
+      <c r="K300" s="5"/>
+    </row>
+    <row r="301">
+      <c r="I301" s="5"/>
+      <c r="K301" s="5"/>
+    </row>
+    <row r="302">
+      <c r="I302" s="5"/>
+      <c r="K302" s="5"/>
+    </row>
+    <row r="303">
+      <c r="I303" s="5"/>
+      <c r="K303" s="5"/>
+    </row>
+    <row r="304">
+      <c r="I304" s="5"/>
+      <c r="K304" s="5"/>
+    </row>
+    <row r="305">
+      <c r="I305" s="5"/>
+      <c r="K305" s="5"/>
+    </row>
+    <row r="306">
+      <c r="I306" s="5"/>
+      <c r="K306" s="5"/>
+    </row>
+    <row r="307">
+      <c r="I307" s="5"/>
+      <c r="K307" s="5"/>
+    </row>
+    <row r="308">
+      <c r="I308" s="5"/>
+      <c r="K308" s="5"/>
+    </row>
+    <row r="309">
+      <c r="I309" s="5"/>
+      <c r="K309" s="5"/>
+    </row>
+    <row r="310">
+      <c r="I310" s="5"/>
+      <c r="K310" s="5"/>
+    </row>
+    <row r="311">
+      <c r="I311" s="5"/>
+      <c r="K311" s="5"/>
+    </row>
+    <row r="312">
+      <c r="I312" s="5"/>
+      <c r="K312" s="5"/>
+    </row>
+    <row r="313">
+      <c r="I313" s="5"/>
+      <c r="K313" s="5"/>
+    </row>
+    <row r="314">
+      <c r="I314" s="5"/>
+      <c r="K314" s="5"/>
+    </row>
+    <row r="315">
+      <c r="I315" s="5"/>
+      <c r="K315" s="5"/>
+    </row>
+    <row r="316">
+      <c r="I316" s="5"/>
+      <c r="K316" s="5"/>
+    </row>
+    <row r="317">
+      <c r="I317" s="5"/>
+      <c r="K317" s="5"/>
+    </row>
+    <row r="318">
+      <c r="I318" s="5"/>
+      <c r="K318" s="5"/>
+    </row>
+    <row r="319">
+      <c r="I319" s="5"/>
+      <c r="K319" s="5"/>
+    </row>
+    <row r="320">
+      <c r="I320" s="5"/>
+      <c r="K320" s="5"/>
+    </row>
+    <row r="321">
+      <c r="I321" s="5"/>
+      <c r="K321" s="5"/>
+    </row>
+    <row r="322">
+      <c r="I322" s="5"/>
+      <c r="K322" s="5"/>
+    </row>
+    <row r="323">
+      <c r="I323" s="5"/>
+      <c r="K323" s="5"/>
+    </row>
+    <row r="324">
+      <c r="I324" s="5"/>
+      <c r="K324" s="5"/>
+    </row>
+    <row r="325">
+      <c r="I325" s="5"/>
+      <c r="K325" s="5"/>
+    </row>
+    <row r="326">
+      <c r="I326" s="5"/>
+      <c r="K326" s="5"/>
+    </row>
+    <row r="327">
+      <c r="I327" s="5"/>
+      <c r="K327" s="5"/>
+    </row>
+    <row r="328">
+      <c r="I328" s="5"/>
+      <c r="K328" s="5"/>
+    </row>
+    <row r="329">
+      <c r="I329" s="5"/>
+      <c r="K329" s="5"/>
+    </row>
+    <row r="330">
+      <c r="I330" s="5"/>
+      <c r="K330" s="5"/>
+    </row>
+    <row r="331">
+      <c r="I331" s="5"/>
+      <c r="K331" s="5"/>
+    </row>
+    <row r="332">
+      <c r="I332" s="5"/>
+      <c r="K332" s="5"/>
+    </row>
+    <row r="333">
+      <c r="I333" s="5"/>
+      <c r="K333" s="5"/>
+    </row>
+    <row r="334">
+      <c r="I334" s="5"/>
+      <c r="K334" s="5"/>
+    </row>
+    <row r="335">
+      <c r="I335" s="5"/>
+      <c r="K335" s="5"/>
+    </row>
+    <row r="336">
+      <c r="I336" s="5"/>
+      <c r="K336" s="5"/>
+    </row>
+    <row r="337">
+      <c r="I337" s="5"/>
+      <c r="K337" s="5"/>
+    </row>
+    <row r="338">
+      <c r="I338" s="5"/>
+      <c r="K338" s="5"/>
+    </row>
+    <row r="339">
+      <c r="I339" s="5"/>
+      <c r="K339" s="5"/>
+    </row>
+    <row r="340">
+      <c r="I340" s="5"/>
+      <c r="K340" s="5"/>
+    </row>
+    <row r="341">
+      <c r="I341" s="5"/>
+      <c r="K341" s="5"/>
+    </row>
+    <row r="342">
+      <c r="I342" s="5"/>
+      <c r="K342" s="5"/>
+    </row>
+    <row r="343">
+      <c r="I343" s="5"/>
+      <c r="K343" s="5"/>
+    </row>
+    <row r="344">
+      <c r="I344" s="5"/>
+      <c r="K344" s="5"/>
+    </row>
+    <row r="345">
+      <c r="I345" s="5"/>
+      <c r="K345" s="5"/>
+    </row>
+    <row r="346">
+      <c r="I346" s="5"/>
+      <c r="K346" s="5"/>
+    </row>
+    <row r="347">
+      <c r="I347" s="5"/>
+      <c r="K347" s="5"/>
+    </row>
+    <row r="348">
+      <c r="I348" s="5"/>
+      <c r="K348" s="5"/>
+    </row>
+    <row r="349">
+      <c r="I349" s="5"/>
+      <c r="K349" s="5"/>
+    </row>
+    <row r="350">
+      <c r="I350" s="5"/>
+      <c r="K350" s="5"/>
+    </row>
+    <row r="351">
+      <c r="I351" s="5"/>
+      <c r="K351" s="5"/>
+    </row>
+    <row r="352">
+      <c r="I352" s="5"/>
+      <c r="K352" s="5"/>
+    </row>
+    <row r="353">
+      <c r="I353" s="5"/>
+      <c r="K353" s="5"/>
+    </row>
+    <row r="354">
+      <c r="I354" s="5"/>
+      <c r="K354" s="5"/>
+    </row>
+    <row r="355">
+      <c r="I355" s="5"/>
+      <c r="K355" s="5"/>
+    </row>
+    <row r="356">
+      <c r="I356" s="5"/>
+      <c r="K356" s="5"/>
+    </row>
+    <row r="357">
+      <c r="I357" s="5"/>
+      <c r="K357" s="5"/>
+    </row>
+    <row r="358">
+      <c r="I358" s="5"/>
+      <c r="K358" s="5"/>
+    </row>
+    <row r="359">
+      <c r="I359" s="5"/>
+      <c r="K359" s="5"/>
+    </row>
+    <row r="360">
+      <c r="I360" s="5"/>
+      <c r="K360" s="5"/>
+    </row>
+    <row r="361">
+      <c r="I361" s="5"/>
+      <c r="K361" s="5"/>
+    </row>
+    <row r="362">
+      <c r="I362" s="5"/>
+      <c r="K362" s="5"/>
+    </row>
+    <row r="363">
+      <c r="I363" s="5"/>
+      <c r="K363" s="5"/>
+    </row>
+    <row r="364">
+      <c r="I364" s="5"/>
+      <c r="K364" s="5"/>
+    </row>
+    <row r="365">
+      <c r="I365" s="5"/>
+      <c r="K365" s="5"/>
+    </row>
+    <row r="366">
+      <c r="I366" s="5"/>
+      <c r="K366" s="5"/>
+    </row>
+    <row r="367">
+      <c r="I367" s="5"/>
+      <c r="K367" s="5"/>
+    </row>
+    <row r="368">
+      <c r="I368" s="5"/>
+      <c r="K368" s="5"/>
+    </row>
+    <row r="369">
+      <c r="I369" s="5"/>
+      <c r="K369" s="5"/>
+    </row>
+    <row r="370">
+      <c r="I370" s="5"/>
+      <c r="K370" s="5"/>
+    </row>
+    <row r="371">
+      <c r="I371" s="5"/>
+      <c r="K371" s="5"/>
+    </row>
+    <row r="372">
+      <c r="I372" s="5"/>
+      <c r="K372" s="5"/>
+    </row>
+    <row r="373">
+      <c r="I373" s="5"/>
+      <c r="K373" s="5"/>
+    </row>
+    <row r="374">
+      <c r="I374" s="5"/>
+      <c r="K374" s="5"/>
+    </row>
+    <row r="375">
+      <c r="I375" s="5"/>
+      <c r="K375" s="5"/>
+    </row>
+    <row r="376">
+      <c r="I376" s="5"/>
+      <c r="K376" s="5"/>
+    </row>
+    <row r="377">
+      <c r="I377" s="5"/>
+      <c r="K377" s="5"/>
+    </row>
+    <row r="378">
+      <c r="I378" s="5"/>
+      <c r="K378" s="5"/>
+    </row>
+    <row r="379">
+      <c r="I379" s="5"/>
+      <c r="K379" s="5"/>
+    </row>
+    <row r="380">
+      <c r="I380" s="5"/>
+      <c r="K380" s="5"/>
+    </row>
+    <row r="381">
+      <c r="I381" s="5"/>
+      <c r="K381" s="5"/>
+    </row>
+    <row r="382">
+      <c r="I382" s="5"/>
+      <c r="K382" s="5"/>
+    </row>
+    <row r="383">
+      <c r="I383" s="5"/>
+      <c r="K383" s="5"/>
+    </row>
+    <row r="384">
+      <c r="I384" s="5"/>
+      <c r="K384" s="5"/>
+    </row>
+    <row r="385">
+      <c r="I385" s="5"/>
+      <c r="K385" s="5"/>
+    </row>
+    <row r="386">
+      <c r="I386" s="5"/>
+      <c r="K386" s="5"/>
+    </row>
+    <row r="387">
+      <c r="I387" s="5"/>
+      <c r="K387" s="5"/>
+    </row>
+    <row r="388">
+      <c r="I388" s="5"/>
+      <c r="K388" s="5"/>
+    </row>
+    <row r="389">
+      <c r="I389" s="5"/>
+      <c r="K389" s="5"/>
+    </row>
+    <row r="390">
+      <c r="I390" s="5"/>
+      <c r="K390" s="5"/>
+    </row>
+    <row r="391">
+      <c r="I391" s="5"/>
+      <c r="K391" s="5"/>
+    </row>
+    <row r="392">
+      <c r="I392" s="5"/>
+      <c r="K392" s="5"/>
+    </row>
+    <row r="393">
+      <c r="I393" s="5"/>
+      <c r="K393" s="5"/>
+    </row>
+    <row r="394">
+      <c r="I394" s="5"/>
+      <c r="K394" s="5"/>
+    </row>
+    <row r="395">
+      <c r="I395" s="5"/>
+      <c r="K395" s="5"/>
+    </row>
+    <row r="396">
+      <c r="I396" s="5"/>
+      <c r="K396" s="5"/>
+    </row>
+    <row r="397">
+      <c r="I397" s="5"/>
+      <c r="K397" s="5"/>
+    </row>
+    <row r="398">
+      <c r="I398" s="5"/>
+      <c r="K398" s="5"/>
+    </row>
+    <row r="399">
+      <c r="I399" s="5"/>
+      <c r="K399" s="5"/>
+    </row>
+    <row r="400">
+      <c r="I400" s="5"/>
+      <c r="K400" s="5"/>
+    </row>
+    <row r="401">
+      <c r="I401" s="5"/>
+      <c r="K401" s="5"/>
+    </row>
+    <row r="402">
+      <c r="I402" s="5"/>
+      <c r="K402" s="5"/>
+    </row>
+    <row r="403">
+      <c r="I403" s="5"/>
+      <c r="K403" s="5"/>
+    </row>
+    <row r="404">
+      <c r="I404" s="5"/>
+      <c r="K404" s="5"/>
+    </row>
+    <row r="405">
+      <c r="I405" s="5"/>
+      <c r="K405" s="5"/>
+    </row>
+    <row r="406">
+      <c r="I406" s="5"/>
+      <c r="K406" s="5"/>
+    </row>
+    <row r="407">
+      <c r="I407" s="5"/>
+      <c r="K407" s="5"/>
+    </row>
+    <row r="408">
+      <c r="I408" s="5"/>
+      <c r="K408" s="5"/>
+    </row>
+    <row r="409">
+      <c r="I409" s="5"/>
+      <c r="K409" s="5"/>
+    </row>
+    <row r="410">
+      <c r="I410" s="5"/>
+      <c r="K410" s="5"/>
+    </row>
+    <row r="411">
+      <c r="I411" s="5"/>
+      <c r="K411" s="5"/>
+    </row>
+    <row r="412">
+      <c r="I412" s="5"/>
+      <c r="K412" s="5"/>
+    </row>
+    <row r="413">
+      <c r="I413" s="5"/>
+      <c r="K413" s="5"/>
+    </row>
+    <row r="414">
+      <c r="I414" s="5"/>
+      <c r="K414" s="5"/>
+    </row>
+    <row r="415">
+      <c r="I415" s="5"/>
+      <c r="K415" s="5"/>
+    </row>
+    <row r="416">
+      <c r="I416" s="5"/>
+      <c r="K416" s="5"/>
+    </row>
+    <row r="417">
+      <c r="I417" s="5"/>
+      <c r="K417" s="5"/>
+    </row>
+    <row r="418">
+      <c r="I418" s="5"/>
+      <c r="K418" s="5"/>
+    </row>
+    <row r="419">
+      <c r="I419" s="5"/>
+      <c r="K419" s="5"/>
+    </row>
+    <row r="420">
+      <c r="I420" s="5"/>
+      <c r="K420" s="5"/>
+    </row>
+    <row r="421">
+      <c r="I421" s="5"/>
+      <c r="K421" s="5"/>
+    </row>
+    <row r="422">
+      <c r="I422" s="5"/>
+      <c r="K422" s="5"/>
+    </row>
+    <row r="423">
+      <c r="I423" s="5"/>
+      <c r="K423" s="5"/>
+    </row>
+    <row r="424">
+      <c r="I424" s="5"/>
+      <c r="K424" s="5"/>
+    </row>
+    <row r="425">
+      <c r="I425" s="5"/>
+      <c r="K425" s="5"/>
+    </row>
+    <row r="426">
+      <c r="I426" s="5"/>
+      <c r="K426" s="5"/>
+    </row>
+    <row r="427">
+      <c r="I427" s="5"/>
+      <c r="K427" s="5"/>
+    </row>
+    <row r="428">
+      <c r="I428" s="5"/>
+      <c r="K428" s="5"/>
+    </row>
+    <row r="429">
+      <c r="I429" s="5"/>
+      <c r="K429" s="5"/>
+    </row>
+    <row r="430">
+      <c r="I430" s="5"/>
+      <c r="K430" s="5"/>
+    </row>
+    <row r="431">
+      <c r="I431" s="5"/>
+      <c r="K431" s="5"/>
+    </row>
+    <row r="432">
+      <c r="I432" s="5"/>
+      <c r="K432" s="5"/>
+    </row>
+    <row r="433">
+      <c r="I433" s="5"/>
+      <c r="K433" s="5"/>
+    </row>
+    <row r="434">
+      <c r="I434" s="5"/>
+      <c r="K434" s="5"/>
+    </row>
+    <row r="435">
+      <c r="I435" s="5"/>
+      <c r="K435" s="5"/>
+    </row>
+    <row r="436">
+      <c r="I436" s="5"/>
+      <c r="K436" s="5"/>
+    </row>
+    <row r="437">
+      <c r="I437" s="5"/>
+      <c r="K437" s="5"/>
+    </row>
+    <row r="438">
+      <c r="I438" s="5"/>
+      <c r="K438" s="5"/>
+    </row>
+    <row r="439">
+      <c r="I439" s="5"/>
+      <c r="K439" s="5"/>
+    </row>
+    <row r="440">
+      <c r="I440" s="5"/>
+      <c r="K440" s="5"/>
+    </row>
+    <row r="441">
+      <c r="I441" s="5"/>
+      <c r="K441" s="5"/>
+    </row>
+    <row r="442">
+      <c r="I442" s="5"/>
+      <c r="K442" s="5"/>
+    </row>
+    <row r="443">
+      <c r="I443" s="5"/>
+      <c r="K443" s="5"/>
+    </row>
+    <row r="444">
+      <c r="I444" s="5"/>
+      <c r="K444" s="5"/>
+    </row>
+    <row r="445">
+      <c r="I445" s="5"/>
+      <c r="K445" s="5"/>
+    </row>
+    <row r="446">
+      <c r="I446" s="5"/>
+      <c r="K446" s="5"/>
+    </row>
+    <row r="447">
+      <c r="I447" s="5"/>
+      <c r="K447" s="5"/>
+    </row>
+    <row r="448">
+      <c r="I448" s="5"/>
+      <c r="K448" s="5"/>
+    </row>
+    <row r="449">
+      <c r="I449" s="5"/>
+      <c r="K449" s="5"/>
+    </row>
+    <row r="450">
+      <c r="I450" s="5"/>
+      <c r="K450" s="5"/>
+    </row>
+    <row r="451">
+      <c r="I451" s="5"/>
+      <c r="K451" s="5"/>
+    </row>
+    <row r="452">
+      <c r="I452" s="5"/>
+      <c r="K452" s="5"/>
+    </row>
+    <row r="453">
+      <c r="I453" s="5"/>
+      <c r="K453" s="5"/>
+    </row>
+    <row r="454">
+      <c r="I454" s="5"/>
+      <c r="K454" s="5"/>
+    </row>
+    <row r="455">
+      <c r="I455" s="5"/>
+      <c r="K455" s="5"/>
+    </row>
+    <row r="456">
+      <c r="I456" s="5"/>
+      <c r="K456" s="5"/>
+    </row>
+    <row r="457">
+      <c r="I457" s="5"/>
+      <c r="K457" s="5"/>
+    </row>
+    <row r="458">
+      <c r="I458" s="5"/>
+      <c r="K458" s="5"/>
+    </row>
+    <row r="459">
+      <c r="I459" s="5"/>
+      <c r="K459" s="5"/>
+    </row>
+    <row r="460">
+      <c r="I460" s="5"/>
+      <c r="K460" s="5"/>
+    </row>
+    <row r="461">
+      <c r="I461" s="5"/>
+      <c r="K461" s="5"/>
+    </row>
+    <row r="462">
+      <c r="I462" s="5"/>
+      <c r="K462" s="5"/>
+    </row>
+    <row r="463">
+      <c r="I463" s="5"/>
+      <c r="K463" s="5"/>
+    </row>
+    <row r="464">
+      <c r="I464" s="5"/>
+      <c r="K464" s="5"/>
+    </row>
+    <row r="465">
+      <c r="I465" s="5"/>
+      <c r="K465" s="5"/>
+    </row>
+    <row r="466">
+      <c r="I466" s="5"/>
+      <c r="K466" s="5"/>
+    </row>
+    <row r="467">
+      <c r="I467" s="5"/>
+      <c r="K467" s="5"/>
+    </row>
+    <row r="468">
+      <c r="I468" s="5"/>
+      <c r="K468" s="5"/>
+    </row>
+    <row r="469">
+      <c r="I469" s="5"/>
+      <c r="K469" s="5"/>
+    </row>
+    <row r="470">
+      <c r="I470" s="5"/>
+      <c r="K470" s="5"/>
+    </row>
+    <row r="471">
+      <c r="I471" s="5"/>
+      <c r="K471" s="5"/>
+    </row>
+    <row r="472">
+      <c r="I472" s="5"/>
+      <c r="K472" s="5"/>
+    </row>
+    <row r="473">
+      <c r="I473" s="5"/>
+      <c r="K473" s="5"/>
+    </row>
+    <row r="474">
+      <c r="I474" s="5"/>
+      <c r="K474" s="5"/>
+    </row>
+    <row r="475">
+      <c r="I475" s="5"/>
+      <c r="K475" s="5"/>
+    </row>
+    <row r="476">
+      <c r="I476" s="5"/>
+      <c r="K476" s="5"/>
+    </row>
+    <row r="477">
+      <c r="I477" s="5"/>
+      <c r="K477" s="5"/>
+    </row>
+    <row r="478">
+      <c r="I478" s="5"/>
+      <c r="K478" s="5"/>
+    </row>
+    <row r="479">
+      <c r="I479" s="5"/>
+      <c r="K479" s="5"/>
+    </row>
+    <row r="480">
+      <c r="I480" s="5"/>
+      <c r="K480" s="5"/>
+    </row>
+    <row r="481">
+      <c r="I481" s="5"/>
+      <c r="K481" s="5"/>
+    </row>
+    <row r="482">
+      <c r="I482" s="5"/>
+      <c r="K482" s="5"/>
+    </row>
+    <row r="483">
+      <c r="I483" s="5"/>
+      <c r="K483" s="5"/>
+    </row>
+    <row r="484">
+      <c r="I484" s="5"/>
+      <c r="K484" s="5"/>
+    </row>
+    <row r="485">
+      <c r="I485" s="5"/>
+      <c r="K485" s="5"/>
+    </row>
+    <row r="486">
+      <c r="I486" s="5"/>
+      <c r="K486" s="5"/>
+    </row>
+    <row r="487">
+      <c r="I487" s="5"/>
+      <c r="K487" s="5"/>
+    </row>
+    <row r="488">
+      <c r="I488" s="5"/>
+      <c r="K488" s="5"/>
+    </row>
+    <row r="489">
+      <c r="I489" s="5"/>
+      <c r="K489" s="5"/>
+    </row>
+    <row r="490">
+      <c r="I490" s="5"/>
+      <c r="K490" s="5"/>
+    </row>
+    <row r="491">
+      <c r="I491" s="5"/>
+      <c r="K491" s="5"/>
+    </row>
+    <row r="492">
+      <c r="I492" s="5"/>
+      <c r="K492" s="5"/>
+    </row>
+    <row r="493">
+      <c r="I493" s="5"/>
+      <c r="K493" s="5"/>
+    </row>
+    <row r="494">
+      <c r="I494" s="5"/>
+      <c r="K494" s="5"/>
+    </row>
+    <row r="495">
+      <c r="I495" s="5"/>
+      <c r="K495" s="5"/>
+    </row>
+    <row r="496">
+      <c r="I496" s="5"/>
+      <c r="K496" s="5"/>
+    </row>
+    <row r="497">
+      <c r="I497" s="5"/>
+      <c r="K497" s="5"/>
+    </row>
+    <row r="498">
+      <c r="I498" s="5"/>
+      <c r="K498" s="5"/>
+    </row>
+    <row r="499">
+      <c r="I499" s="5"/>
+      <c r="K499" s="5"/>
+    </row>
+    <row r="500">
+      <c r="I500" s="5"/>
+      <c r="K500" s="5"/>
+    </row>
+    <row r="501">
+      <c r="I501" s="5"/>
+      <c r="K501" s="5"/>
+    </row>
+    <row r="502">
+      <c r="I502" s="5"/>
+      <c r="K502" s="5"/>
+    </row>
+    <row r="503">
+      <c r="I503" s="5"/>
+      <c r="K503" s="5"/>
+    </row>
+    <row r="504">
+      <c r="I504" s="5"/>
+      <c r="K504" s="5"/>
+    </row>
+    <row r="505">
+      <c r="I505" s="5"/>
+      <c r="K505" s="5"/>
+    </row>
+    <row r="506">
+      <c r="I506" s="5"/>
+      <c r="K506" s="5"/>
+    </row>
+    <row r="507">
+      <c r="I507" s="5"/>
+      <c r="K507" s="5"/>
+    </row>
+    <row r="508">
+      <c r="I508" s="5"/>
+      <c r="K508" s="5"/>
+    </row>
+    <row r="509">
+      <c r="I509" s="5"/>
+      <c r="K509" s="5"/>
+    </row>
+    <row r="510">
+      <c r="I510" s="5"/>
+      <c r="K510" s="5"/>
+    </row>
+    <row r="511">
+      <c r="I511" s="5"/>
+      <c r="K511" s="5"/>
+    </row>
+    <row r="512">
+      <c r="I512" s="5"/>
+      <c r="K512" s="5"/>
+    </row>
+    <row r="513">
+      <c r="I513" s="5"/>
+      <c r="K513" s="5"/>
+    </row>
+    <row r="514">
+      <c r="I514" s="5"/>
+      <c r="K514" s="5"/>
+    </row>
+    <row r="515">
+      <c r="I515" s="5"/>
+      <c r="K515" s="5"/>
+    </row>
+    <row r="516">
+      <c r="I516" s="5"/>
+      <c r="K516" s="5"/>
+    </row>
+    <row r="517">
+      <c r="I517" s="5"/>
+      <c r="K517" s="5"/>
+    </row>
+    <row r="518">
+      <c r="I518" s="5"/>
+      <c r="K518" s="5"/>
+    </row>
+    <row r="519">
+      <c r="I519" s="5"/>
+      <c r="K519" s="5"/>
+    </row>
+    <row r="520">
+      <c r="I520" s="5"/>
+      <c r="K520" s="5"/>
+    </row>
+    <row r="521">
+      <c r="I521" s="5"/>
+      <c r="K521" s="5"/>
+    </row>
+    <row r="522">
+      <c r="I522" s="5"/>
+      <c r="K522" s="5"/>
+    </row>
+    <row r="523">
+      <c r="I523" s="5"/>
+      <c r="K523" s="5"/>
+    </row>
+    <row r="524">
+      <c r="I524" s="5"/>
+      <c r="K524" s="5"/>
+    </row>
+    <row r="525">
+      <c r="I525" s="5"/>
+      <c r="K525" s="5"/>
+    </row>
+    <row r="526">
+      <c r="I526" s="5"/>
+      <c r="K526" s="5"/>
+    </row>
+    <row r="527">
+      <c r="I527" s="5"/>
+      <c r="K527" s="5"/>
+    </row>
+    <row r="528">
+      <c r="I528" s="5"/>
+      <c r="K528" s="5"/>
+    </row>
+    <row r="529">
+      <c r="I529" s="5"/>
+      <c r="K529" s="5"/>
+    </row>
+    <row r="530">
+      <c r="I530" s="5"/>
+      <c r="K530" s="5"/>
+    </row>
+    <row r="531">
+      <c r="I531" s="5"/>
+      <c r="K531" s="5"/>
+    </row>
+    <row r="532">
+      <c r="I532" s="5"/>
+      <c r="K532" s="5"/>
+    </row>
+    <row r="533">
+      <c r="I533" s="5"/>
+      <c r="K533" s="5"/>
+    </row>
+    <row r="534">
+      <c r="I534" s="5"/>
+      <c r="K534" s="5"/>
+    </row>
+    <row r="535">
+      <c r="I535" s="5"/>
+      <c r="K535" s="5"/>
+    </row>
+    <row r="536">
+      <c r="I536" s="5"/>
+      <c r="K536" s="5"/>
+    </row>
+    <row r="537">
+      <c r="I537" s="5"/>
+      <c r="K537" s="5"/>
+    </row>
+    <row r="538">
+      <c r="I538" s="5"/>
+      <c r="K538" s="5"/>
+    </row>
+    <row r="539">
+      <c r="I539" s="5"/>
+      <c r="K539" s="5"/>
+    </row>
+    <row r="540">
+      <c r="I540" s="5"/>
+      <c r="K540" s="5"/>
+    </row>
+    <row r="541">
+      <c r="I541" s="5"/>
+      <c r="K541" s="5"/>
+    </row>
+    <row r="542">
+      <c r="I542" s="5"/>
+      <c r="K542" s="5"/>
+    </row>
+    <row r="543">
+      <c r="I543" s="5"/>
+      <c r="K543" s="5"/>
+    </row>
+    <row r="544">
+      <c r="I544" s="5"/>
+      <c r="K544" s="5"/>
+    </row>
+    <row r="545">
+      <c r="I545" s="5"/>
+      <c r="K545" s="5"/>
+    </row>
+    <row r="546">
+      <c r="I546" s="5"/>
+      <c r="K546" s="5"/>
+    </row>
+    <row r="547">
+      <c r="I547" s="5"/>
+      <c r="K547" s="5"/>
+    </row>
+    <row r="548">
+      <c r="I548" s="5"/>
+      <c r="K548" s="5"/>
+    </row>
+    <row r="549">
+      <c r="I549" s="5"/>
+      <c r="K549" s="5"/>
+    </row>
+    <row r="550">
+      <c r="I550" s="5"/>
+      <c r="K550" s="5"/>
+    </row>
+    <row r="551">
+      <c r="I551" s="5"/>
+      <c r="K551" s="5"/>
+    </row>
+    <row r="552">
+      <c r="I552" s="5"/>
+      <c r="K552" s="5"/>
+    </row>
+    <row r="553">
+      <c r="I553" s="5"/>
+      <c r="K553" s="5"/>
+    </row>
+    <row r="554">
+      <c r="I554" s="5"/>
+      <c r="K554" s="5"/>
+    </row>
+    <row r="555">
+      <c r="I555" s="5"/>
+      <c r="K555" s="5"/>
+    </row>
+    <row r="556">
+      <c r="I556" s="5"/>
+      <c r="K556" s="5"/>
+    </row>
+    <row r="557">
+      <c r="I557" s="5"/>
+      <c r="K557" s="5"/>
+    </row>
+    <row r="558">
+      <c r="I558" s="5"/>
+      <c r="K558" s="5"/>
+    </row>
+    <row r="559">
+      <c r="I559" s="5"/>
+      <c r="K559" s="5"/>
+    </row>
+    <row r="560">
+      <c r="I560" s="5"/>
+      <c r="K560" s="5"/>
+    </row>
+    <row r="561">
+      <c r="I561" s="5"/>
+      <c r="K561" s="5"/>
+    </row>
+    <row r="562">
+      <c r="I562" s="5"/>
+      <c r="K562" s="5"/>
+    </row>
+    <row r="563">
+      <c r="I563" s="5"/>
+      <c r="K563" s="5"/>
+    </row>
+    <row r="564">
+      <c r="I564" s="5"/>
+      <c r="K564" s="5"/>
+    </row>
+    <row r="565">
+      <c r="I565" s="5"/>
+      <c r="K565" s="5"/>
+    </row>
+    <row r="566">
+      <c r="I566" s="5"/>
+      <c r="K566" s="5"/>
+    </row>
+    <row r="567">
+      <c r="I567" s="5"/>
+      <c r="K567" s="5"/>
+    </row>
+    <row r="568">
+      <c r="I568" s="5"/>
+      <c r="K568" s="5"/>
+    </row>
+    <row r="569">
+      <c r="I569" s="5"/>
+      <c r="K569" s="5"/>
+    </row>
+    <row r="570">
+      <c r="I570" s="5"/>
+      <c r="K570" s="5"/>
+    </row>
+    <row r="571">
+      <c r="I571" s="5"/>
+      <c r="K571" s="5"/>
+    </row>
+    <row r="572">
+      <c r="I572" s="5"/>
+      <c r="K572" s="5"/>
+    </row>
+    <row r="573">
+      <c r="I573" s="5"/>
+      <c r="K573" s="5"/>
+    </row>
+    <row r="574">
+      <c r="I574" s="5"/>
+      <c r="K574" s="5"/>
+    </row>
+    <row r="575">
+      <c r="I575" s="5"/>
+      <c r="K575" s="5"/>
+    </row>
+    <row r="576">
+      <c r="I576" s="5"/>
+      <c r="K576" s="5"/>
+    </row>
+    <row r="577">
+      <c r="I577" s="5"/>
+      <c r="K577" s="5"/>
+    </row>
+    <row r="578">
+      <c r="I578" s="5"/>
+      <c r="K578" s="5"/>
+    </row>
+    <row r="579">
+      <c r="I579" s="5"/>
+      <c r="K579" s="5"/>
+    </row>
+    <row r="580">
+      <c r="I580" s="5"/>
+      <c r="K580" s="5"/>
+    </row>
+    <row r="581">
+      <c r="I581" s="5"/>
+      <c r="K581" s="5"/>
+    </row>
+    <row r="582">
+      <c r="I582" s="5"/>
+      <c r="K582" s="5"/>
+    </row>
+    <row r="583">
+      <c r="I583" s="5"/>
+      <c r="K583" s="5"/>
+    </row>
+    <row r="584">
+      <c r="I584" s="5"/>
+      <c r="K584" s="5"/>
+    </row>
+    <row r="585">
+      <c r="I585" s="5"/>
+      <c r="K585" s="5"/>
+    </row>
+    <row r="586">
+      <c r="I586" s="5"/>
+      <c r="K586" s="5"/>
+    </row>
+    <row r="587">
+      <c r="I587" s="5"/>
+      <c r="K587" s="5"/>
+    </row>
+    <row r="588">
+      <c r="I588" s="5"/>
+      <c r="K588" s="5"/>
+    </row>
+    <row r="589">
+      <c r="I589" s="5"/>
+      <c r="K589" s="5"/>
+    </row>
+    <row r="590">
+      <c r="I590" s="5"/>
+      <c r="K590" s="5"/>
+    </row>
+    <row r="591">
+      <c r="I591" s="5"/>
+      <c r="K591" s="5"/>
+    </row>
+    <row r="592">
+      <c r="I592" s="5"/>
+      <c r="K592" s="5"/>
+    </row>
+    <row r="593">
+      <c r="I593" s="5"/>
+      <c r="K593" s="5"/>
+    </row>
+    <row r="594">
+      <c r="I594" s="5"/>
+      <c r="K594" s="5"/>
+    </row>
+    <row r="595">
+      <c r="I595" s="5"/>
+      <c r="K595" s="5"/>
+    </row>
+    <row r="596">
+      <c r="I596" s="5"/>
+      <c r="K596" s="5"/>
+    </row>
+    <row r="597">
+      <c r="I597" s="5"/>
+      <c r="K597" s="5"/>
+    </row>
+    <row r="598">
+      <c r="I598" s="5"/>
+      <c r="K598" s="5"/>
+    </row>
+    <row r="599">
+      <c r="I599" s="5"/>
+      <c r="K599" s="5"/>
+    </row>
+    <row r="600">
+      <c r="I600" s="5"/>
+      <c r="K600" s="5"/>
+    </row>
+    <row r="601">
+      <c r="I601" s="5"/>
+      <c r="K601" s="5"/>
+    </row>
+    <row r="602">
+      <c r="I602" s="5"/>
+      <c r="K602" s="5"/>
+    </row>
+    <row r="603">
+      <c r="I603" s="5"/>
+      <c r="K603" s="5"/>
+    </row>
+    <row r="604">
+      <c r="I604" s="5"/>
+      <c r="K604" s="5"/>
+    </row>
+    <row r="605">
+      <c r="I605" s="5"/>
+      <c r="K605" s="5"/>
+    </row>
+    <row r="606">
+      <c r="I606" s="5"/>
+      <c r="K606" s="5"/>
+    </row>
+    <row r="607">
+      <c r="I607" s="5"/>
+      <c r="K607" s="5"/>
+    </row>
+    <row r="608">
+      <c r="I608" s="5"/>
+      <c r="K608" s="5"/>
+    </row>
+    <row r="609">
+      <c r="I609" s="5"/>
+      <c r="K609" s="5"/>
+    </row>
+    <row r="610">
+      <c r="I610" s="5"/>
+      <c r="K610" s="5"/>
+    </row>
+    <row r="611">
+      <c r="I611" s="5"/>
+      <c r="K611" s="5"/>
+    </row>
+    <row r="612">
+      <c r="I612" s="5"/>
+      <c r="K612" s="5"/>
+    </row>
+    <row r="613">
+      <c r="I613" s="5"/>
+      <c r="K613" s="5"/>
+    </row>
+    <row r="614">
+      <c r="I614" s="5"/>
+      <c r="K614" s="5"/>
+    </row>
+    <row r="615">
+      <c r="I615" s="5"/>
+      <c r="K615" s="5"/>
+    </row>
+    <row r="616">
+      <c r="I616" s="5"/>
+      <c r="K616" s="5"/>
+    </row>
+    <row r="617">
+      <c r="I617" s="5"/>
+      <c r="K617" s="5"/>
+    </row>
+    <row r="618">
+      <c r="I618" s="5"/>
+      <c r="K618" s="5"/>
+    </row>
+    <row r="619">
+      <c r="I619" s="5"/>
+      <c r="K619" s="5"/>
+    </row>
+    <row r="620">
+      <c r="I620" s="5"/>
+      <c r="K620" s="5"/>
+    </row>
+    <row r="621">
+      <c r="I621" s="5"/>
+      <c r="K621" s="5"/>
+    </row>
+    <row r="622">
+      <c r="I622" s="5"/>
+      <c r="K622" s="5"/>
+    </row>
+    <row r="623">
+      <c r="I623" s="5"/>
+      <c r="K623" s="5"/>
+    </row>
+    <row r="624">
+      <c r="I624" s="5"/>
+      <c r="K624" s="5"/>
+    </row>
+    <row r="625">
+      <c r="I625" s="5"/>
+      <c r="K625" s="5"/>
+    </row>
+    <row r="626">
+      <c r="I626" s="5"/>
+      <c r="K626" s="5"/>
+    </row>
+    <row r="627">
+      <c r="I627" s="5"/>
+      <c r="K627" s="5"/>
+    </row>
+    <row r="628">
+      <c r="I628" s="5"/>
+      <c r="K628" s="5"/>
+    </row>
+    <row r="629">
+      <c r="I629" s="5"/>
+      <c r="K629" s="5"/>
+    </row>
+    <row r="630">
+      <c r="I630" s="5"/>
+      <c r="K630" s="5"/>
+    </row>
+    <row r="631">
+      <c r="I631" s="5"/>
+      <c r="K631" s="5"/>
+    </row>
+    <row r="632">
+      <c r="I632" s="5"/>
+      <c r="K632" s="5"/>
+    </row>
+    <row r="633">
+      <c r="I633" s="5"/>
+      <c r="K633" s="5"/>
+    </row>
+    <row r="634">
+      <c r="I634" s="5"/>
+      <c r="K634" s="5"/>
+    </row>
+    <row r="635">
+      <c r="I635" s="5"/>
+      <c r="K635" s="5"/>
+    </row>
+    <row r="636">
+      <c r="I636" s="5"/>
+      <c r="K636" s="5"/>
+    </row>
+    <row r="637">
+      <c r="I637" s="5"/>
+      <c r="K637" s="5"/>
+    </row>
+    <row r="638">
+      <c r="I638" s="5"/>
+      <c r="K638" s="5"/>
+    </row>
+    <row r="639">
+      <c r="I639" s="5"/>
+      <c r="K639" s="5"/>
+    </row>
+    <row r="640">
+      <c r="I640" s="5"/>
+      <c r="K640" s="5"/>
+    </row>
+    <row r="641">
+      <c r="I641" s="5"/>
+      <c r="K641" s="5"/>
+    </row>
+    <row r="642">
+      <c r="I642" s="5"/>
+      <c r="K642" s="5"/>
+    </row>
+    <row r="643">
+      <c r="I643" s="5"/>
+      <c r="K643" s="5"/>
+    </row>
+    <row r="644">
+      <c r="I644" s="5"/>
+      <c r="K644" s="5"/>
+    </row>
+    <row r="645">
+      <c r="I645" s="5"/>
+      <c r="K645" s="5"/>
+    </row>
+    <row r="646">
+      <c r="I646" s="5"/>
+      <c r="K646" s="5"/>
+    </row>
+    <row r="647">
+      <c r="I647" s="5"/>
+      <c r="K647" s="5"/>
+    </row>
+    <row r="648">
+      <c r="I648" s="5"/>
+      <c r="K648" s="5"/>
+    </row>
+    <row r="649">
+      <c r="I649" s="5"/>
+      <c r="K649" s="5"/>
+    </row>
+    <row r="650">
+      <c r="I650" s="5"/>
+      <c r="K650" s="5"/>
+    </row>
+    <row r="651">
+      <c r="I651" s="5"/>
+      <c r="K651" s="5"/>
+    </row>
+    <row r="652">
+      <c r="I652" s="5"/>
+      <c r="K652" s="5"/>
+    </row>
+    <row r="653">
+      <c r="I653" s="5"/>
+      <c r="K653" s="5"/>
+    </row>
+    <row r="654">
+      <c r="I654" s="5"/>
+      <c r="K654" s="5"/>
+    </row>
+    <row r="655">
+      <c r="I655" s="5"/>
+      <c r="K655" s="5"/>
+    </row>
+    <row r="656">
+      <c r="I656" s="5"/>
+      <c r="K656" s="5"/>
+    </row>
+    <row r="657">
+      <c r="I657" s="5"/>
+      <c r="K657" s="5"/>
+    </row>
+    <row r="658">
+      <c r="I658" s="5"/>
+      <c r="K658" s="5"/>
+    </row>
+    <row r="659">
+      <c r="I659" s="5"/>
+      <c r="K659" s="5"/>
+    </row>
+    <row r="660">
+      <c r="I660" s="5"/>
+      <c r="K660" s="5"/>
+    </row>
+    <row r="661">
+      <c r="I661" s="5"/>
+      <c r="K661" s="5"/>
+    </row>
+    <row r="662">
+      <c r="I662" s="5"/>
+      <c r="K662" s="5"/>
+    </row>
+    <row r="663">
+      <c r="I663" s="5"/>
+      <c r="K663" s="5"/>
+    </row>
+    <row r="664">
+      <c r="I664" s="5"/>
+      <c r="K664" s="5"/>
+    </row>
+    <row r="665">
+      <c r="I665" s="5"/>
+      <c r="K665" s="5"/>
+    </row>
+    <row r="666">
+      <c r="I666" s="5"/>
+      <c r="K666" s="5"/>
+    </row>
+    <row r="667">
+      <c r="I667" s="5"/>
+      <c r="K667" s="5"/>
+    </row>
+    <row r="668">
+      <c r="I668" s="5"/>
+      <c r="K668" s="5"/>
+    </row>
+    <row r="669">
+      <c r="I669" s="5"/>
+      <c r="K669" s="5"/>
+    </row>
+    <row r="670">
+      <c r="I670" s="5"/>
+      <c r="K670" s="5"/>
+    </row>
+    <row r="671">
+      <c r="I671" s="5"/>
+      <c r="K671" s="5"/>
+    </row>
+    <row r="672">
+      <c r="I672" s="5"/>
+      <c r="K672" s="5"/>
+    </row>
+    <row r="673">
+      <c r="I673" s="5"/>
+      <c r="K673" s="5"/>
+    </row>
+    <row r="674">
+      <c r="I674" s="5"/>
+      <c r="K674" s="5"/>
+    </row>
+    <row r="675">
+      <c r="I675" s="5"/>
+      <c r="K675" s="5"/>
+    </row>
+    <row r="676">
+      <c r="I676" s="5"/>
+      <c r="K676" s="5"/>
+    </row>
+    <row r="677">
+      <c r="I677" s="5"/>
+      <c r="K677" s="5"/>
+    </row>
+    <row r="678">
+      <c r="I678" s="5"/>
+      <c r="K678" s="5"/>
+    </row>
+    <row r="679">
+      <c r="I679" s="5"/>
+      <c r="K679" s="5"/>
+    </row>
+    <row r="680">
+      <c r="I680" s="5"/>
+      <c r="K680" s="5"/>
+    </row>
+    <row r="681">
+      <c r="I681" s="5"/>
+      <c r="K681" s="5"/>
+    </row>
+    <row r="682">
+      <c r="I682" s="5"/>
+      <c r="K682" s="5"/>
+    </row>
+    <row r="683">
+      <c r="I683" s="5"/>
+      <c r="K683" s="5"/>
+    </row>
+    <row r="684">
+      <c r="I684" s="5"/>
+      <c r="K684" s="5"/>
+    </row>
+    <row r="685">
+      <c r="I685" s="5"/>
+      <c r="K685" s="5"/>
+    </row>
+    <row r="686">
+      <c r="I686" s="5"/>
+      <c r="K686" s="5"/>
+    </row>
+    <row r="687">
+      <c r="I687" s="5"/>
+      <c r="K687" s="5"/>
+    </row>
+    <row r="688">
+      <c r="I688" s="5"/>
+      <c r="K688" s="5"/>
+    </row>
+    <row r="689">
+      <c r="I689" s="5"/>
+      <c r="K689" s="5"/>
+    </row>
+    <row r="690">
+      <c r="I690" s="5"/>
+      <c r="K690" s="5"/>
+    </row>
+    <row r="691">
+      <c r="I691" s="5"/>
+      <c r="K691" s="5"/>
+    </row>
+    <row r="692">
+      <c r="I692" s="5"/>
+      <c r="K692" s="5"/>
+    </row>
+    <row r="693">
+      <c r="I693" s="5"/>
+      <c r="K693" s="5"/>
+    </row>
+    <row r="694">
+      <c r="I694" s="5"/>
+      <c r="K694" s="5"/>
+    </row>
+    <row r="695">
+      <c r="I695" s="5"/>
+      <c r="K695" s="5"/>
+    </row>
+    <row r="696">
+      <c r="I696" s="5"/>
+      <c r="K696" s="5"/>
+    </row>
+    <row r="697">
+      <c r="I697" s="5"/>
+      <c r="K697" s="5"/>
+    </row>
+    <row r="698">
+      <c r="I698" s="5"/>
+      <c r="K698" s="5"/>
+    </row>
+    <row r="699">
+      <c r="I699" s="5"/>
+      <c r="K699" s="5"/>
+    </row>
+    <row r="700">
+      <c r="I700" s="5"/>
+      <c r="K700" s="5"/>
+    </row>
+    <row r="701">
+      <c r="I701" s="5"/>
+      <c r="K701" s="5"/>
+    </row>
+    <row r="702">
+      <c r="I702" s="5"/>
+      <c r="K702" s="5"/>
+    </row>
+    <row r="703">
+      <c r="I703" s="5"/>
+      <c r="K703" s="5"/>
+    </row>
+    <row r="704">
+      <c r="I704" s="5"/>
+      <c r="K704" s="5"/>
+    </row>
+    <row r="705">
+      <c r="I705" s="5"/>
+      <c r="K705" s="5"/>
+    </row>
+    <row r="706">
+      <c r="I706" s="5"/>
+      <c r="K706" s="5"/>
+    </row>
+    <row r="707">
+      <c r="I707" s="5"/>
+      <c r="K707" s="5"/>
+    </row>
+    <row r="708">
+      <c r="I708" s="5"/>
+      <c r="K708" s="5"/>
+    </row>
+    <row r="709">
+      <c r="I709" s="5"/>
+      <c r="K709" s="5"/>
+    </row>
+    <row r="710">
+      <c r="I710" s="5"/>
+      <c r="K710" s="5"/>
+    </row>
+    <row r="711">
+      <c r="I711" s="5"/>
+      <c r="K711" s="5"/>
+    </row>
+    <row r="712">
+      <c r="I712" s="5"/>
+      <c r="K712" s="5"/>
+    </row>
+    <row r="713">
+      <c r="I713" s="5"/>
+      <c r="K713" s="5"/>
+    </row>
+    <row r="714">
+      <c r="I714" s="5"/>
+      <c r="K714" s="5"/>
+    </row>
+    <row r="715">
+      <c r="I715" s="5"/>
+      <c r="K715" s="5"/>
+    </row>
+    <row r="716">
+      <c r="I716" s="5"/>
+      <c r="K716" s="5"/>
+    </row>
+    <row r="717">
+      <c r="I717" s="5"/>
+      <c r="K717" s="5"/>
+    </row>
+    <row r="718">
+      <c r="I718" s="5"/>
+      <c r="K718" s="5"/>
+    </row>
+    <row r="719">
+      <c r="I719" s="5"/>
+      <c r="K719" s="5"/>
+    </row>
+    <row r="720">
+      <c r="I720" s="5"/>
+      <c r="K720" s="5"/>
+    </row>
+    <row r="721">
+      <c r="I721" s="5"/>
+      <c r="K721" s="5"/>
+    </row>
+    <row r="722">
+      <c r="I722" s="5"/>
+      <c r="K722" s="5"/>
+    </row>
+    <row r="723">
+      <c r="I723" s="5"/>
+      <c r="K723" s="5"/>
+    </row>
+    <row r="724">
+      <c r="I724" s="5"/>
+      <c r="K724" s="5"/>
+    </row>
+    <row r="725">
+      <c r="I725" s="5"/>
+      <c r="K725" s="5"/>
+    </row>
+    <row r="726">
+      <c r="I726" s="5"/>
+      <c r="K726" s="5"/>
+    </row>
+    <row r="727">
+      <c r="I727" s="5"/>
+      <c r="K727" s="5"/>
+    </row>
+    <row r="728">
+      <c r="I728" s="5"/>
+      <c r="K728" s="5"/>
+    </row>
+    <row r="729">
+      <c r="I729" s="5"/>
+      <c r="K729" s="5"/>
+    </row>
+    <row r="730">
+      <c r="I730" s="5"/>
+      <c r="K730" s="5"/>
+    </row>
+    <row r="731">
+      <c r="I731" s="5"/>
+      <c r="K731" s="5"/>
+    </row>
+    <row r="732">
+      <c r="I732" s="5"/>
+      <c r="K732" s="5"/>
+    </row>
+    <row r="733">
+      <c r="I733" s="5"/>
+      <c r="K733" s="5"/>
+    </row>
+    <row r="734">
+      <c r="I734" s="5"/>
+      <c r="K734" s="5"/>
+    </row>
+    <row r="735">
+      <c r="I735" s="5"/>
+      <c r="K735" s="5"/>
+    </row>
+    <row r="736">
+      <c r="I736" s="5"/>
+      <c r="K736" s="5"/>
+    </row>
+    <row r="737">
+      <c r="I737" s="5"/>
+      <c r="K737" s="5"/>
+    </row>
+    <row r="738">
+      <c r="I738" s="5"/>
+      <c r="K738" s="5"/>
+    </row>
+    <row r="739">
+      <c r="I739" s="5"/>
+      <c r="K739" s="5"/>
+    </row>
+    <row r="740">
+      <c r="I740" s="5"/>
+      <c r="K740" s="5"/>
+    </row>
+    <row r="741">
+      <c r="I741" s="5"/>
+      <c r="K741" s="5"/>
+    </row>
+    <row r="742">
+      <c r="I742" s="5"/>
+      <c r="K742" s="5"/>
+    </row>
+    <row r="743">
+      <c r="I743" s="5"/>
+      <c r="K743" s="5"/>
+    </row>
+    <row r="744">
+      <c r="I744" s="5"/>
+      <c r="K744" s="5"/>
+    </row>
+    <row r="745">
+      <c r="I745" s="5"/>
+      <c r="K745" s="5"/>
+    </row>
+    <row r="746">
+      <c r="I746" s="5"/>
+      <c r="K746" s="5"/>
+    </row>
+    <row r="747">
+      <c r="I747" s="5"/>
+      <c r="K747" s="5"/>
+    </row>
+    <row r="748">
+      <c r="I748" s="5"/>
+      <c r="K748" s="5"/>
+    </row>
+    <row r="749">
+      <c r="I749" s="5"/>
+      <c r="K749" s="5"/>
+    </row>
+    <row r="750">
+      <c r="I750" s="5"/>
+      <c r="K750" s="5"/>
+    </row>
+    <row r="751">
+      <c r="I751" s="5"/>
+      <c r="K751" s="5"/>
+    </row>
+    <row r="752">
+      <c r="I752" s="5"/>
+      <c r="K752" s="5"/>
+    </row>
+    <row r="753">
+      <c r="I753" s="5"/>
+      <c r="K753" s="5"/>
+    </row>
+    <row r="754">
+      <c r="I754" s="5"/>
+      <c r="K754" s="5"/>
+    </row>
+    <row r="755">
+      <c r="I755" s="5"/>
+      <c r="K755" s="5"/>
+    </row>
+    <row r="756">
+      <c r="I756" s="5"/>
+      <c r="K756" s="5"/>
+    </row>
+    <row r="757">
+      <c r="I757" s="5"/>
+      <c r="K757" s="5"/>
+    </row>
+    <row r="758">
+      <c r="I758" s="5"/>
+      <c r="K758" s="5"/>
+    </row>
+    <row r="759">
+      <c r="I759" s="5"/>
+      <c r="K759" s="5"/>
+    </row>
+    <row r="760">
+      <c r="I760" s="5"/>
+      <c r="K760" s="5"/>
+    </row>
+    <row r="761">
+      <c r="I761" s="5"/>
+      <c r="K761" s="5"/>
+    </row>
+    <row r="762">
+      <c r="I762" s="5"/>
+      <c r="K762" s="5"/>
+    </row>
+    <row r="763">
+      <c r="I763" s="5"/>
+      <c r="K763" s="5"/>
+    </row>
+    <row r="764">
+      <c r="I764" s="5"/>
+      <c r="K764" s="5"/>
+    </row>
+    <row r="765">
+      <c r="I765" s="5"/>
+      <c r="K765" s="5"/>
+    </row>
+    <row r="766">
+      <c r="I766" s="5"/>
+      <c r="K766" s="5"/>
+    </row>
+    <row r="767">
+      <c r="I767" s="5"/>
+      <c r="K767" s="5"/>
+    </row>
+    <row r="768">
+      <c r="I768" s="5"/>
+      <c r="K768" s="5"/>
+    </row>
+    <row r="769">
+      <c r="I769" s="5"/>
+      <c r="K769" s="5"/>
+    </row>
+    <row r="770">
+      <c r="I770" s="5"/>
+      <c r="K770" s="5"/>
+    </row>
+    <row r="771">
+      <c r="I771" s="5"/>
+      <c r="K771" s="5"/>
+    </row>
+    <row r="772">
+      <c r="I772" s="5"/>
+      <c r="K772" s="5"/>
+    </row>
+    <row r="773">
+      <c r="I773" s="5"/>
+      <c r="K773" s="5"/>
+    </row>
+    <row r="774">
+      <c r="I774" s="5"/>
+      <c r="K774" s="5"/>
+    </row>
+    <row r="775">
+      <c r="I775" s="5"/>
+      <c r="K775" s="5"/>
+    </row>
+    <row r="776">
+      <c r="I776" s="5"/>
+      <c r="K776" s="5"/>
+    </row>
+    <row r="777">
+      <c r="I777" s="5"/>
+      <c r="K777" s="5"/>
+    </row>
+    <row r="778">
+      <c r="I778" s="5"/>
+      <c r="K778" s="5"/>
+    </row>
+    <row r="779">
+      <c r="I779" s="5"/>
+      <c r="K779" s="5"/>
+    </row>
+    <row r="780">
+      <c r="I780" s="5"/>
+      <c r="K780" s="5"/>
+    </row>
+    <row r="781">
+      <c r="I781" s="5"/>
+      <c r="K781" s="5"/>
+    </row>
+    <row r="782">
+      <c r="I782" s="5"/>
+      <c r="K782" s="5"/>
+    </row>
+    <row r="783">
+      <c r="I783" s="5"/>
+      <c r="K783" s="5"/>
+    </row>
+    <row r="784">
+      <c r="I784" s="5"/>
+      <c r="K784" s="5"/>
+    </row>
+    <row r="785">
+      <c r="I785" s="5"/>
+      <c r="K785" s="5"/>
+    </row>
+    <row r="786">
+      <c r="I786" s="5"/>
+      <c r="K786" s="5"/>
+    </row>
+    <row r="787">
+      <c r="I787" s="5"/>
+      <c r="K787" s="5"/>
+    </row>
+    <row r="788">
+      <c r="I788" s="5"/>
+      <c r="K788" s="5"/>
+    </row>
+    <row r="789">
+      <c r="I789" s="5"/>
+      <c r="K789" s="5"/>
+    </row>
+    <row r="790">
+      <c r="I790" s="5"/>
+      <c r="K790" s="5"/>
+    </row>
+    <row r="791">
+      <c r="I791" s="5"/>
+      <c r="K791" s="5"/>
+    </row>
+    <row r="792">
+      <c r="I792" s="5"/>
+      <c r="K792" s="5"/>
+    </row>
+    <row r="793">
+      <c r="I793" s="5"/>
+      <c r="K793" s="5"/>
+    </row>
+    <row r="794">
+      <c r="I794" s="5"/>
+      <c r="K794" s="5"/>
+    </row>
+    <row r="795">
+      <c r="I795" s="5"/>
+      <c r="K795" s="5"/>
+    </row>
+    <row r="796">
+      <c r="I796" s="5"/>
+      <c r="K796" s="5"/>
+    </row>
+    <row r="797">
+      <c r="I797" s="5"/>
+      <c r="K797" s="5"/>
+    </row>
+    <row r="798">
+      <c r="I798" s="5"/>
+      <c r="K798" s="5"/>
+    </row>
+    <row r="799">
+      <c r="I799" s="5"/>
+      <c r="K799" s="5"/>
+    </row>
+    <row r="800">
+      <c r="I800" s="5"/>
+      <c r="K800" s="5"/>
+    </row>
+    <row r="801">
+      <c r="I801" s="5"/>
+      <c r="K801" s="5"/>
+    </row>
+    <row r="802">
+      <c r="I802" s="5"/>
+      <c r="K802" s="5"/>
+    </row>
+    <row r="803">
+      <c r="I803" s="5"/>
+      <c r="K803" s="5"/>
+    </row>
+    <row r="804">
+      <c r="I804" s="5"/>
+      <c r="K804" s="5"/>
+    </row>
+    <row r="805">
+      <c r="I805" s="5"/>
+      <c r="K805" s="5"/>
+    </row>
+    <row r="806">
+      <c r="I806" s="5"/>
+      <c r="K806" s="5"/>
+    </row>
+    <row r="807">
+      <c r="I807" s="5"/>
+      <c r="K807" s="5"/>
+    </row>
+    <row r="808">
+      <c r="I808" s="5"/>
+      <c r="K808" s="5"/>
+    </row>
+    <row r="809">
+      <c r="I809" s="5"/>
+      <c r="K809" s="5"/>
+    </row>
+    <row r="810">
+      <c r="I810" s="5"/>
+      <c r="K810" s="5"/>
+    </row>
+    <row r="811">
+      <c r="I811" s="5"/>
+      <c r="K811" s="5"/>
+    </row>
+    <row r="812">
+      <c r="I812" s="5"/>
+      <c r="K812" s="5"/>
+    </row>
+    <row r="813">
+      <c r="I813" s="5"/>
+      <c r="K813" s="5"/>
+    </row>
+    <row r="814">
+      <c r="I814" s="5"/>
+      <c r="K814" s="5"/>
+    </row>
+    <row r="815">
+      <c r="I815" s="5"/>
+      <c r="K815" s="5"/>
+    </row>
+    <row r="816">
+      <c r="I816" s="5"/>
+      <c r="K816" s="5"/>
+    </row>
+    <row r="817">
+      <c r="I817" s="5"/>
+      <c r="K817" s="5"/>
+    </row>
+    <row r="818">
+      <c r="I818" s="5"/>
+      <c r="K818" s="5"/>
+    </row>
+    <row r="819">
+      <c r="I819" s="5"/>
+      <c r="K819" s="5"/>
+    </row>
+    <row r="820">
+      <c r="I820" s="5"/>
+      <c r="K820" s="5"/>
+    </row>
+    <row r="821">
+      <c r="I821" s="5"/>
+      <c r="K821" s="5"/>
+    </row>
+    <row r="822">
+      <c r="I822" s="5"/>
+      <c r="K822" s="5"/>
+    </row>
+    <row r="823">
+      <c r="I823" s="5"/>
+      <c r="K823" s="5"/>
+    </row>
+    <row r="824">
+      <c r="I824" s="5"/>
+      <c r="K824" s="5"/>
+    </row>
+    <row r="825">
+      <c r="I825" s="5"/>
+      <c r="K825" s="5"/>
+    </row>
+    <row r="826">
+      <c r="I826" s="5"/>
+      <c r="K826" s="5"/>
+    </row>
+    <row r="827">
+      <c r="I827" s="5"/>
+      <c r="K827" s="5"/>
+    </row>
+    <row r="828">
+      <c r="I828" s="5"/>
+      <c r="K828" s="5"/>
+    </row>
+    <row r="829">
+      <c r="I829" s="5"/>
+      <c r="K829" s="5"/>
+    </row>
+    <row r="830">
+      <c r="I830" s="5"/>
+      <c r="K830" s="5"/>
+    </row>
+    <row r="831">
+      <c r="I831" s="5"/>
+      <c r="K831" s="5"/>
+    </row>
+    <row r="832">
+      <c r="I832" s="5"/>
+      <c r="K832" s="5"/>
+    </row>
+    <row r="833">
+      <c r="I833" s="5"/>
+      <c r="K833" s="5"/>
+    </row>
+    <row r="834">
+      <c r="I834" s="5"/>
+      <c r="K834" s="5"/>
+    </row>
+    <row r="835">
+      <c r="I835" s="5"/>
+      <c r="K835" s="5"/>
+    </row>
+    <row r="836">
+      <c r="I836" s="5"/>
+      <c r="K836" s="5"/>
+    </row>
+    <row r="837">
+      <c r="I837" s="5"/>
+      <c r="K837" s="5"/>
+    </row>
+    <row r="838">
+      <c r="I838" s="5"/>
+      <c r="K838" s="5"/>
+    </row>
+    <row r="839">
+      <c r="I839" s="5"/>
+      <c r="K839" s="5"/>
+    </row>
+    <row r="840">
+      <c r="I840" s="5"/>
+      <c r="K840" s="5"/>
+    </row>
+    <row r="841">
+      <c r="I841" s="5"/>
+      <c r="K841" s="5"/>
+    </row>
+    <row r="842">
+      <c r="I842" s="5"/>
+      <c r="K842" s="5"/>
+    </row>
+    <row r="843">
+      <c r="I843" s="5"/>
+      <c r="K843" s="5"/>
+    </row>
+    <row r="844">
+      <c r="I844" s="5"/>
+      <c r="K844" s="5"/>
+    </row>
+    <row r="845">
+      <c r="I845" s="5"/>
+      <c r="K845" s="5"/>
+    </row>
+    <row r="846">
+      <c r="I846" s="5"/>
+      <c r="K846" s="5"/>
+    </row>
+    <row r="847">
+      <c r="I847" s="5"/>
+      <c r="K847" s="5"/>
+    </row>
+    <row r="848">
+      <c r="I848" s="5"/>
+      <c r="K848" s="5"/>
+    </row>
+    <row r="849">
+      <c r="I849" s="5"/>
+      <c r="K849" s="5"/>
+    </row>
+    <row r="850">
+      <c r="I850" s="5"/>
+      <c r="K850" s="5"/>
+    </row>
+    <row r="851">
+      <c r="I851" s="5"/>
+      <c r="K851" s="5"/>
+    </row>
+    <row r="852">
+      <c r="I852" s="5"/>
+      <c r="K852" s="5"/>
+    </row>
+    <row r="853">
+      <c r="I853" s="5"/>
+      <c r="K853" s="5"/>
+    </row>
+    <row r="854">
+      <c r="I854" s="5"/>
+      <c r="K854" s="5"/>
+    </row>
+    <row r="855">
+      <c r="I855" s="5"/>
+      <c r="K855" s="5"/>
+    </row>
+    <row r="856">
+      <c r="I856" s="5"/>
+      <c r="K856" s="5"/>
+    </row>
+    <row r="857">
+      <c r="I857" s="5"/>
+      <c r="K857" s="5"/>
+    </row>
+    <row r="858">
+      <c r="I858" s="5"/>
+      <c r="K858" s="5"/>
+    </row>
+    <row r="859">
+      <c r="I859" s="5"/>
+      <c r="K859" s="5"/>
+    </row>
+    <row r="860">
+      <c r="I860" s="5"/>
+      <c r="K860" s="5"/>
+    </row>
+    <row r="861">
+      <c r="I861" s="5"/>
+      <c r="K861" s="5"/>
+    </row>
+    <row r="862">
+      <c r="I862" s="5"/>
+      <c r="K862" s="5"/>
+    </row>
+    <row r="863">
+      <c r="I863" s="5"/>
+      <c r="K863" s="5"/>
+    </row>
+    <row r="864">
+      <c r="I864" s="5"/>
+      <c r="K864" s="5"/>
+    </row>
+    <row r="865">
+      <c r="I865" s="5"/>
+      <c r="K865" s="5"/>
+    </row>
+    <row r="866">
+      <c r="I866" s="5"/>
+      <c r="K866" s="5"/>
+    </row>
+    <row r="867">
+      <c r="I867" s="5"/>
+      <c r="K867" s="5"/>
+    </row>
+    <row r="868">
+      <c r="I868" s="5"/>
+      <c r="K868" s="5"/>
+    </row>
+    <row r="869">
+      <c r="I869" s="5"/>
+      <c r="K869" s="5"/>
+    </row>
+    <row r="870">
+      <c r="I870" s="5"/>
+      <c r="K870" s="5"/>
+    </row>
+    <row r="871">
+      <c r="I871" s="5"/>
+      <c r="K871" s="5"/>
+    </row>
+    <row r="872">
+      <c r="I872" s="5"/>
+      <c r="K872" s="5"/>
+    </row>
+    <row r="873">
+      <c r="I873" s="5"/>
+      <c r="K873" s="5"/>
+    </row>
+    <row r="874">
+      <c r="I874" s="5"/>
+      <c r="K874" s="5"/>
+    </row>
+    <row r="875">
+      <c r="I875" s="5"/>
+      <c r="K875" s="5"/>
+    </row>
+    <row r="876">
+      <c r="I876" s="5"/>
+      <c r="K876" s="5"/>
+    </row>
+    <row r="877">
+      <c r="I877" s="5"/>
+      <c r="K877" s="5"/>
+    </row>
+    <row r="878">
+      <c r="I878" s="5"/>
+      <c r="K878" s="5"/>
+    </row>
+    <row r="879">
+      <c r="I879" s="5"/>
+      <c r="K879" s="5"/>
+    </row>
+    <row r="880">
+      <c r="I880" s="5"/>
+      <c r="K880" s="5"/>
+    </row>
+    <row r="881">
+      <c r="I881" s="5"/>
+      <c r="K881" s="5"/>
+    </row>
+    <row r="882">
+      <c r="I882" s="5"/>
+      <c r="K882" s="5"/>
+    </row>
+    <row r="883">
+      <c r="I883" s="5"/>
+      <c r="K883" s="5"/>
+    </row>
+    <row r="884">
+      <c r="I884" s="5"/>
+      <c r="K884" s="5"/>
+    </row>
+    <row r="885">
+      <c r="I885" s="5"/>
+      <c r="K885" s="5"/>
+    </row>
+    <row r="886">
+      <c r="I886" s="5"/>
+      <c r="K886" s="5"/>
+    </row>
+    <row r="887">
+      <c r="I887" s="5"/>
+      <c r="K887" s="5"/>
+    </row>
+    <row r="888">
+      <c r="I888" s="5"/>
+      <c r="K888" s="5"/>
+    </row>
+    <row r="889">
+      <c r="I889" s="5"/>
+      <c r="K889" s="5"/>
+    </row>
+    <row r="890">
+      <c r="I890" s="5"/>
+      <c r="K890" s="5"/>
+    </row>
+    <row r="891">
+      <c r="I891" s="5"/>
+      <c r="K891" s="5"/>
+    </row>
+    <row r="892">
+      <c r="I892" s="5"/>
+      <c r="K892" s="5"/>
+    </row>
+    <row r="893">
+      <c r="I893" s="5"/>
+      <c r="K893" s="5"/>
+    </row>
+    <row r="894">
+      <c r="I894" s="5"/>
+      <c r="K894" s="5"/>
+    </row>
+    <row r="895">
+      <c r="I895" s="5"/>
+      <c r="K895" s="5"/>
+    </row>
+    <row r="896">
+      <c r="I896" s="5"/>
+      <c r="K896" s="5"/>
+    </row>
+    <row r="897">
+      <c r="I897" s="5"/>
+      <c r="K897" s="5"/>
+    </row>
+    <row r="898">
+      <c r="I898" s="5"/>
+      <c r="K898" s="5"/>
+    </row>
+    <row r="899">
+      <c r="I899" s="5"/>
+      <c r="K899" s="5"/>
+    </row>
+    <row r="900">
+      <c r="I900" s="5"/>
+      <c r="K900" s="5"/>
+    </row>
+    <row r="901">
+      <c r="I901" s="5"/>
+      <c r="K901" s="5"/>
+    </row>
+    <row r="902">
+      <c r="I902" s="5"/>
+      <c r="K902" s="5"/>
+    </row>
+    <row r="903">
+      <c r="I903" s="5"/>
+      <c r="K903" s="5"/>
+    </row>
+    <row r="904">
+      <c r="I904" s="5"/>
+      <c r="K904" s="5"/>
+    </row>
+    <row r="905">
+      <c r="I905" s="5"/>
+      <c r="K905" s="5"/>
+    </row>
+    <row r="906">
+      <c r="I906" s="5"/>
+      <c r="K906" s="5"/>
+    </row>
+    <row r="907">
+      <c r="I907" s="5"/>
+      <c r="K907" s="5"/>
+    </row>
+    <row r="908">
+      <c r="I908" s="5"/>
+      <c r="K908" s="5"/>
+    </row>
+    <row r="909">
+      <c r="I909" s="5"/>
+      <c r="K909" s="5"/>
+    </row>
+    <row r="910">
+      <c r="I910" s="5"/>
+      <c r="K910" s="5"/>
+    </row>
+    <row r="911">
+      <c r="I911" s="5"/>
+      <c r="K911" s="5"/>
+    </row>
+    <row r="912">
+      <c r="I912" s="5"/>
+      <c r="K912" s="5"/>
+    </row>
+    <row r="913">
+      <c r="I913" s="5"/>
+      <c r="K913" s="5"/>
+    </row>
+    <row r="914">
+      <c r="I914" s="5"/>
+      <c r="K914" s="5"/>
+    </row>
+    <row r="915">
+      <c r="I915" s="5"/>
+      <c r="K915" s="5"/>
+    </row>
+    <row r="916">
+      <c r="I916" s="5"/>
+      <c r="K916" s="5"/>
+    </row>
+    <row r="917">
+      <c r="I917" s="5"/>
+      <c r="K917" s="5"/>
+    </row>
+    <row r="918">
+      <c r="I918" s="5"/>
+      <c r="K918" s="5"/>
+    </row>
+    <row r="919">
+      <c r="I919" s="5"/>
+      <c r="K919" s="5"/>
+    </row>
+    <row r="920">
+      <c r="I920" s="5"/>
+      <c r="K920" s="5"/>
+    </row>
+    <row r="921">
+      <c r="I921" s="5"/>
+      <c r="K921" s="5"/>
+    </row>
+    <row r="922">
+      <c r="I922" s="5"/>
+      <c r="K922" s="5"/>
+    </row>
+    <row r="923">
+      <c r="I923" s="5"/>
+      <c r="K923" s="5"/>
+    </row>
+    <row r="924">
+      <c r="I924" s="5"/>
+      <c r="K924" s="5"/>
+    </row>
+    <row r="925">
+      <c r="I925" s="5"/>
+      <c r="K925" s="5"/>
+    </row>
+    <row r="926">
+      <c r="I926" s="5"/>
+      <c r="K926" s="5"/>
+    </row>
+    <row r="927">
+      <c r="I927" s="5"/>
+      <c r="K927" s="5"/>
+    </row>
+    <row r="928">
+      <c r="I928" s="5"/>
+      <c r="K928" s="5"/>
+    </row>
+    <row r="929">
+      <c r="I929" s="5"/>
+      <c r="K929" s="5"/>
+    </row>
+    <row r="930">
+      <c r="I930" s="5"/>
+      <c r="K930" s="5"/>
+    </row>
+    <row r="931">
+      <c r="I931" s="5"/>
+      <c r="K931" s="5"/>
+    </row>
+    <row r="932">
+      <c r="I932" s="5"/>
+      <c r="K932" s="5"/>
+    </row>
+    <row r="933">
+      <c r="I933" s="5"/>
+      <c r="K933" s="5"/>
+    </row>
+    <row r="934">
+      <c r="I934" s="5"/>
+      <c r="K934" s="5"/>
+    </row>
+    <row r="935">
+      <c r="I935" s="5"/>
+      <c r="K935" s="5"/>
+    </row>
+    <row r="936">
+      <c r="I936" s="5"/>
+      <c r="K936" s="5"/>
+    </row>
+    <row r="937">
+      <c r="I937" s="5"/>
+      <c r="K937" s="5"/>
+    </row>
+    <row r="938">
+      <c r="I938" s="5"/>
+      <c r="K938" s="5"/>
+    </row>
+    <row r="939">
+      <c r="I939" s="5"/>
+      <c r="K939" s="5"/>
+    </row>
+    <row r="940">
+      <c r="I940" s="5"/>
+      <c r="K940" s="5"/>
+    </row>
+    <row r="941">
+      <c r="I941" s="5"/>
+      <c r="K941" s="5"/>
+    </row>
+    <row r="942">
+      <c r="I942" s="5"/>
+      <c r="K942" s="5"/>
+    </row>
+    <row r="943">
+      <c r="I943" s="5"/>
+      <c r="K943" s="5"/>
+    </row>
+    <row r="944">
+      <c r="I944" s="5"/>
+      <c r="K944" s="5"/>
+    </row>
+    <row r="945">
+      <c r="I945" s="5"/>
+      <c r="K945" s="5"/>
+    </row>
+    <row r="946">
+      <c r="I946" s="5"/>
+      <c r="K946" s="5"/>
+    </row>
+    <row r="947">
+      <c r="I947" s="5"/>
+      <c r="K947" s="5"/>
+    </row>
+    <row r="948">
+      <c r="I948" s="5"/>
+      <c r="K948" s="5"/>
+    </row>
+    <row r="949">
+      <c r="I949" s="5"/>
+      <c r="K949" s="5"/>
+    </row>
+    <row r="950">
+      <c r="I950" s="5"/>
+      <c r="K950" s="5"/>
+    </row>
+    <row r="951">
+      <c r="I951" s="5"/>
+      <c r="K951" s="5"/>
+    </row>
+    <row r="952">
+      <c r="I952" s="5"/>
+      <c r="K952" s="5"/>
+    </row>
+    <row r="953">
+      <c r="I953" s="5"/>
+      <c r="K953" s="5"/>
+    </row>
+    <row r="954">
+      <c r="I954" s="5"/>
+      <c r="K954" s="5"/>
+    </row>
+    <row r="955">
+      <c r="I955" s="5"/>
+      <c r="K955" s="5"/>
+    </row>
+    <row r="956">
+      <c r="I956" s="5"/>
+      <c r="K956" s="5"/>
+    </row>
+    <row r="957">
+      <c r="I957" s="5"/>
+      <c r="K957" s="5"/>
+    </row>
+    <row r="958">
+      <c r="I958" s="5"/>
+      <c r="K958" s="5"/>
+    </row>
+    <row r="959">
+      <c r="I959" s="5"/>
+      <c r="K959" s="5"/>
+    </row>
+    <row r="960">
+      <c r="I960" s="5"/>
+      <c r="K960" s="5"/>
+    </row>
+    <row r="961">
+      <c r="I961" s="5"/>
+      <c r="K961" s="5"/>
+    </row>
+    <row r="962">
+      <c r="I962" s="5"/>
+      <c r="K962" s="5"/>
+    </row>
+    <row r="963">
+      <c r="I963" s="5"/>
+      <c r="K963" s="5"/>
+    </row>
+    <row r="964">
+      <c r="I964" s="5"/>
+      <c r="K964" s="5"/>
+    </row>
+    <row r="965">
+      <c r="I965" s="5"/>
+      <c r="K965" s="5"/>
+    </row>
+    <row r="966">
+      <c r="I966" s="5"/>
+      <c r="K966" s="5"/>
+    </row>
+    <row r="967">
+      <c r="I967" s="5"/>
+      <c r="K967" s="5"/>
+    </row>
+    <row r="968">
+      <c r="I968" s="5"/>
+      <c r="K968" s="5"/>
+    </row>
+    <row r="969">
+      <c r="I969" s="5"/>
+      <c r="K969" s="5"/>
+    </row>
+    <row r="970">
+      <c r="I970" s="5"/>
+      <c r="K970" s="5"/>
+    </row>
+    <row r="971">
+      <c r="I971" s="5"/>
+      <c r="K971" s="5"/>
+    </row>
+    <row r="972">
+      <c r="I972" s="5"/>
+      <c r="K972" s="5"/>
+    </row>
+    <row r="973">
+      <c r="I973" s="5"/>
+      <c r="K973" s="5"/>
+    </row>
+    <row r="974">
+      <c r="I974" s="5"/>
+      <c r="K974" s="5"/>
+    </row>
+    <row r="975">
+      <c r="I975" s="5"/>
+      <c r="K975" s="5"/>
+    </row>
+    <row r="976">
+      <c r="I976" s="5"/>
+      <c r="K976" s="5"/>
+    </row>
+    <row r="977">
+      <c r="I977" s="5"/>
+      <c r="K977" s="5"/>
+    </row>
+    <row r="978">
+      <c r="I978" s="5"/>
+      <c r="K978" s="5"/>
+    </row>
+    <row r="979">
+      <c r="I979" s="5"/>
+      <c r="K979" s="5"/>
+    </row>
+    <row r="980">
+      <c r="I980" s="5"/>
+      <c r="K980" s="5"/>
+    </row>
+    <row r="981">
+      <c r="I981" s="5"/>
+      <c r="K981" s="5"/>
+    </row>
+    <row r="982">
+      <c r="I982" s="5"/>
+      <c r="K982" s="5"/>
+    </row>
+    <row r="983">
+      <c r="I983" s="5"/>
+      <c r="K983" s="5"/>
+    </row>
+    <row r="984">
+      <c r="I984" s="5"/>
+      <c r="K984" s="5"/>
+    </row>
+    <row r="985">
+      <c r="I985" s="5"/>
+      <c r="K985" s="5"/>
+    </row>
+    <row r="986">
+      <c r="I986" s="5"/>
+      <c r="K986" s="5"/>
+    </row>
+    <row r="987">
+      <c r="I987" s="5"/>
+      <c r="K987" s="5"/>
+    </row>
+    <row r="988">
+      <c r="I988" s="5"/>
+      <c r="K988" s="5"/>
+    </row>
+    <row r="989">
+      <c r="I989" s="5"/>
+      <c r="K989" s="5"/>
+    </row>
+    <row r="990">
+      <c r="I990" s="5"/>
+      <c r="K990" s="5"/>
+    </row>
+    <row r="991">
+      <c r="I991" s="5"/>
+      <c r="K991" s="5"/>
+    </row>
+    <row r="992">
+      <c r="I992" s="5"/>
+      <c r="K992" s="5"/>
+    </row>
+    <row r="993">
+      <c r="I993" s="5"/>
+      <c r="K993" s="5"/>
+    </row>
+    <row r="994">
+      <c r="I994" s="5"/>
+      <c r="K994" s="5"/>
+    </row>
+    <row r="995">
+      <c r="I995" s="5"/>
+      <c r="K995" s="5"/>
+    </row>
+    <row r="996">
+      <c r="I996" s="5"/>
+      <c r="K996" s="5"/>
+    </row>
+    <row r="997">
+      <c r="I997" s="5"/>
+      <c r="K997" s="5"/>
+    </row>
+    <row r="998">
+      <c r="I998" s="5"/>
+      <c r="K998" s="5"/>
+    </row>
+    <row r="999">
+      <c r="I999" s="5"/>
+      <c r="K999" s="5"/>
+    </row>
+    <row r="1000">
+      <c r="I1000" s="5"/>
+      <c r="K1000" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/literature review/lit review.xlsx
+++ b/literature review/lit review.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>INDEX</t>
   </si>
@@ -19,7 +19,7 @@
     <t>AUTHORS</t>
   </si>
   <si>
-    <t>PUBISHER</t>
+    <t>PUBLISHER</t>
   </si>
   <si>
     <t>YEAR OF PUBLICATION</t>
@@ -55,7 +55,7 @@
     <t>RESULTS</t>
   </si>
   <si>
-    <t>WHATS NEXT</t>
+    <t>WHATS NEXT?</t>
   </si>
   <si>
     <t>RELEVANCE (1-5)</t>
@@ -85,7 +85,7 @@
     <t>Integrate SDN and IoT for efficient network resource utilization.       Use MQTT to reduce power consumption and improve real-time data transmission.                                                       Develop a testbed that connects virtual and real-world IoT networks to validate the proposed system.</t>
   </si>
   <si>
-    <t xml:space="preserve"> compare the number of bytes used in packet transmission using “HTTP” and 
+    <t xml:space="preserve">compare the number of bytes used in packet transmission using “HTTP” and 
 “MQTT” protocol    </t>
   </si>
   <si>
@@ -161,13 +161,138 @@
     <t>005</t>
   </si>
   <si>
+    <t>Rajalakshmi Krishnamurthi 1, Adarsh Kumar 2 , Dhanalekshmi Gopinathan 1, Anand Nayyar 3,4,* and Basit Qureshi 5</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>AnOverview of IoT Sensor Data Processing, Fusion, and Analysis Techniques</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">this paper is the first of its kind to present a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>complete overview</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve"> of IoT sensor data processing, fusion and analysis techniques.</t>
+    </r>
+  </si>
+  <si>
+    <t>To provide an overview of various data analysis techniques for IoT sensor data;                                             To explain the basic architecture for IoT sensor data processing, fusion, and analysis.                               Further, the interaction of these modules along with the IoT sensor network;                                                                To discuss the IoT sensor output characteristics, such as the voluminous IoT sensor data, heterogeneity, real-time processing, and scalability factors;                                                                                                        To explain the mechanism of data processing techniques so as to address various issues in IoT sensor data, such as data denoising, missing value imputation, data outlier detection, and data aggregation;                                                                                                                                                            To address the importance of deep learning and machine learning models for IoT sensor data analysis.The need to integrate merging technologies such as cloud, fog, and edge computing towards the e cient computation of data analytical models.</t>
+  </si>
+  <si>
+    <t>As such, this paper addresses how to process IoT sensor data, fusion with other data sources, and analyses to produce knowledgeable insight into hidden data patterns for rapid decision-making. This paper addresses the data processing techniques such as data denoising, data outlier detection, missing data imputation and data aggregation. Further, it elaborates on the necessity of data fusion and various data fusion methods such as direct fusion, associated feature extraction, and identity declaration data fusion. This paper also aims to address data analysis integration withemergingtechnologies, suchascloudcomputing,fogcomputingandedgecomputing, towards various challenges in IoT sensor network and sensor data analysis.</t>
+  </si>
+  <si>
+    <t>addressing the security and privacy challenges of IoT sensor data . , there is a need for distributed blockchain technologies for the failure- and
+ risk-free computation of IoT sensor data, which can be addressed as an extension to this present work</t>
+  </si>
+  <si>
     <t>006</t>
   </si>
   <si>
+    <t>Ashutosh Mishra , Sangho Lee, Dohyun KimandShihoKim</t>
+  </si>
+  <si>
+    <t>In-Cabin Monitoring System for Autonomous Vehicles</t>
+  </si>
+  <si>
+    <t>intelligent AI IMS device to maintain safety and privacy of passengers inside FAVs</t>
+  </si>
+  <si>
+    <t>The installation of an AI camera for efficient in-cabin monitoring in level 4 and beyond AVs; Enlisting the crucial task of in-cabin monitoring in level 4 and beyond AVs; The creation of a suitable dataset for the development of an AI camera; Occupants and object recognition in the cabin of level 4 and beyond AVs; Privacy-preserved monitoring in the public domain.</t>
+  </si>
+  <si>
+    <t>create a smart AI IMS , create a complete database for the AI to use. reserve privacy of passengers</t>
+  </si>
+  <si>
+    <t>AI camera used : Omnivision OV2710 CMOS</t>
+  </si>
+  <si>
+    <t>created a DB and for AI IMS.</t>
+  </si>
+  <si>
+    <t>implementing online learning for unseen scenarios, to further expand the DB.</t>
+  </si>
+  <si>
     <t>007</t>
   </si>
   <si>
+    <t>Max Hort, Maria Kechagia, Federica Sarro, Mark Harman</t>
+  </si>
+  <si>
+    <t>A Survey of Performance Optimization for Mobile Applications</t>
+  </si>
+  <si>
+    <t>first survey to in vestigate multiple non-functional performance characteristics and their relationships, search for further gaps in existing literature</t>
+  </si>
+  <si>
+    <t>an overview of the existing research work on non-functional performance optimiza tion for Android applications published between 2008 and 2020. a survey presenting optimization approaches for non functional performance characteristics. the survey also shows relationships between these characteristics and the existing gaps which researchers can look into.</t>
+  </si>
+  <si>
+    <t>provides a comprehensive literature review of the state-of-the-art research on the optimization of non functional characteristics for mobile applications; 2) provides a categorization of existing optimization approaches based on their level and type; 3) identifies challenges and opportunities for future research in this area.</t>
+  </si>
+  <si>
+    <t>responsiveness and launch time were measured by miliseconds/frames it takes for response/loading.Memory has been measured according to kernel memory
+footprints garbage collection calls physical memory dumps,and logging information. energy consumption was internally and externally measured, but they were all estimates because readings were noisy.</t>
+  </si>
+  <si>
+    <t>to improve responsiveness: changes to source-code(e.g., antipatterns, refactoring or prefetching).. to optimize launch time: approach is to prevent cold starts, therefore prefetching seemed the best. Memory is mostly optimized by removing antipatterns and applying different strategies for the garbage collection. all optimization techniques can be applied to lower evergy comsumption (HW options seemed most effective).</t>
+  </si>
+  <si>
+    <t>It could be investigated whether antipatterns, that exist for responsiveness, memory and energy usage, exist for application launch as well.</t>
+  </si>
+  <si>
     <t>008</t>
+  </si>
+  <si>
+    <t>Shafri A. Sharif,Mohd S. Suhaimi Nurul N. Jamal ,Irsyad K. Riadz ,Ikmal F. Amran ,Dayang N. A. Jawawi</t>
+  </si>
+  <si>
+    <t>Real-Time Campus University Bus Tracking Mobile Application</t>
+  </si>
+  <si>
+    <t>to help with the convenience of locating buses, determining how long to wait for a bus, how many passengers (full or not)</t>
+  </si>
+  <si>
+    <t>Real-Time Campus University Bus Tracking Mobile Application was created to track buses and help on-campus students</t>
+  </si>
+  <si>
+    <t>develop a real-time bus tracking app to help  students and staff with accurate bus location, estimated arrival times, and occupancy levels.</t>
+  </si>
+  <si>
+    <t>Gps module Neo-6m in the bus with arduino</t>
+  </si>
+  <si>
+    <t>google map api, phoneGapTools for the app, Firebase for database</t>
+  </si>
+  <si>
+    <t>comapred the functionality of the existing system (the one they created) and the proposed system (their goal)</t>
+  </si>
+  <si>
+    <t>For future works, the existing application will be tested further for functional and non-functional performance evaluation.</t>
   </si>
   <si>
     <t>009</t>
@@ -219,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -228,9 +353,21 @@
     </font>
     <font>
       <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Roboto Mono"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13.0"/>
       <color theme="1"/>
       <name val="Roboto Mono"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -252,25 +389,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -289,10 +430,10 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4257675" cy="2733675"/>
+    <xdr:ext cx="3924300" cy="2514600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -320,7 +461,7 @@
     <xdr:ext cx="676275" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image5.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -345,14 +486,126 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4495800" cy="2809875"/>
+    <xdr:ext cx="3924300" cy="2438400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image7.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3829050" cy="1704975"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152400" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="428625" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -573,21 +826,23 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.25"/>
-    <col customWidth="1" min="2" max="2" width="46.25"/>
-    <col customWidth="1" min="3" max="3" width="11.0"/>
-    <col customWidth="1" min="4" max="4" width="24.75"/>
-    <col customWidth="1" min="5" max="5" width="32.25"/>
-    <col customWidth="1" min="6" max="6" width="92.38"/>
-    <col customWidth="1" min="7" max="7" width="102.88"/>
-    <col customWidth="1" min="8" max="8" width="101.13"/>
-    <col customWidth="1" min="9" max="9" width="49.0"/>
-    <col customWidth="1" min="10" max="10" width="110.13"/>
-    <col customWidth="1" min="11" max="11" width="9.75"/>
-    <col customWidth="1" min="12" max="12" width="14.25"/>
-    <col customWidth="1" min="13" max="13" width="22.63"/>
-    <col customWidth="1" min="14" max="15" width="13.5"/>
-    <col customWidth="1" min="16" max="16" width="19.75"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
+    <col customWidth="1" min="2" max="2" width="122.5"/>
+    <col customWidth="1" min="3" max="3" width="17.75"/>
+    <col customWidth="1" min="4" max="4" width="16.88"/>
+    <col customWidth="1" min="5" max="5" width="30.13"/>
+    <col customWidth="1" min="6" max="6" width="134.38"/>
+    <col customWidth="1" min="7" max="7" width="72.75"/>
+    <col customWidth="1" min="8" max="8" width="93.5"/>
+    <col customWidth="1" min="9" max="9" width="33.0"/>
+    <col customWidth="1" min="10" max="10" width="51.5"/>
+    <col customWidth="1" min="11" max="11" width="13.25"/>
+    <col customWidth="1" min="12" max="12" width="22.88"/>
+    <col customWidth="1" min="13" max="13" width="35.38"/>
+    <col customWidth="1" min="14" max="14" width="45.25"/>
+    <col customWidth="1" min="15" max="15" width="20.13"/>
+    <col customWidth="1" min="16" max="16" width="17.63"/>
+    <col customWidth="1" min="17" max="27" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -813,85 +1068,221 @@
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" ht="134.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2022.0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="N7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="D8" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="M8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="D9" s="4">
+        <v>2018.0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="K9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -911,7 +1302,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -931,7 +1322,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -951,7 +1342,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -971,7 +1362,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -991,7 +1382,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1011,7 +1402,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1031,7 +1422,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1051,7 +1442,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1071,7 +1462,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1091,7 +1482,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1111,7 +1502,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1131,7 +1522,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1151,7 +1542,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1171,7 +1562,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1190,3908 +1581,5860 @@
       <c r="P24" s="5"/>
     </row>
     <row r="25">
-      <c r="I25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26">
-      <c r="I26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27">
-      <c r="I27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28">
-      <c r="I28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29">
-      <c r="I29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30">
-      <c r="I30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31">
-      <c r="I31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32">
-      <c r="I32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33">
-      <c r="I33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34">
-      <c r="I34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35">
-      <c r="I35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36">
-      <c r="I36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37">
-      <c r="I37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38">
-      <c r="I38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39">
-      <c r="I39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40">
-      <c r="I40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41">
-      <c r="I41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42">
-      <c r="I42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43">
-      <c r="I43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44">
-      <c r="I44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45">
-      <c r="I45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46">
-      <c r="I46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47">
-      <c r="I47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="K47" s="8"/>
     </row>
     <row r="48">
-      <c r="I48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49">
-      <c r="I49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50">
-      <c r="I50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+      <c r="K50" s="8"/>
     </row>
     <row r="51">
-      <c r="I51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52">
-      <c r="I52" s="5"/>
-      <c r="K52" s="5"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53">
-      <c r="I53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54">
-      <c r="I54" s="5"/>
-      <c r="K54" s="5"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55">
-      <c r="I55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56">
-      <c r="I56" s="5"/>
-      <c r="K56" s="5"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="K56" s="8"/>
     </row>
     <row r="57">
-      <c r="I57" s="5"/>
-      <c r="K57" s="5"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58">
-      <c r="I58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59">
-      <c r="I59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60">
-      <c r="I60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8"/>
+      <c r="K60" s="8"/>
     </row>
     <row r="61">
-      <c r="I61" s="5"/>
-      <c r="K61" s="5"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62">
-      <c r="I62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63">
-      <c r="I63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64">
-      <c r="I64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8"/>
+      <c r="K64" s="8"/>
     </row>
     <row r="65">
-      <c r="I65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="8"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66">
-      <c r="I66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="8"/>
+      <c r="K66" s="8"/>
     </row>
     <row r="67">
-      <c r="I67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8"/>
+      <c r="K67" s="8"/>
     </row>
     <row r="68">
-      <c r="I68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="8"/>
+      <c r="K68" s="8"/>
     </row>
     <row r="69">
-      <c r="I69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="8"/>
+      <c r="K69" s="8"/>
     </row>
     <row r="70">
-      <c r="I70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="8"/>
+      <c r="K70" s="8"/>
     </row>
     <row r="71">
-      <c r="I71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="8"/>
+      <c r="K71" s="8"/>
     </row>
     <row r="72">
-      <c r="I72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="8"/>
+      <c r="K72" s="8"/>
     </row>
     <row r="73">
-      <c r="I73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="8"/>
+      <c r="K73" s="8"/>
     </row>
     <row r="74">
-      <c r="I74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="8"/>
+      <c r="K74" s="8"/>
     </row>
     <row r="75">
-      <c r="I75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="8"/>
+      <c r="K75" s="8"/>
     </row>
     <row r="76">
-      <c r="I76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="8"/>
+      <c r="K76" s="8"/>
     </row>
     <row r="77">
-      <c r="I77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="8"/>
+      <c r="K77" s="8"/>
     </row>
     <row r="78">
-      <c r="I78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="8"/>
+      <c r="K78" s="8"/>
     </row>
     <row r="79">
-      <c r="I79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="8"/>
+      <c r="K79" s="8"/>
     </row>
     <row r="80">
-      <c r="I80" s="5"/>
-      <c r="K80" s="5"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="8"/>
+      <c r="K80" s="8"/>
     </row>
     <row r="81">
-      <c r="I81" s="5"/>
-      <c r="K81" s="5"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="8"/>
+      <c r="K81" s="8"/>
     </row>
     <row r="82">
-      <c r="I82" s="5"/>
-      <c r="K82" s="5"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="8"/>
+      <c r="K82" s="8"/>
     </row>
     <row r="83">
-      <c r="I83" s="5"/>
-      <c r="K83" s="5"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="8"/>
+      <c r="K83" s="8"/>
     </row>
     <row r="84">
-      <c r="I84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="8"/>
+      <c r="K84" s="8"/>
     </row>
     <row r="85">
-      <c r="I85" s="5"/>
-      <c r="K85" s="5"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="8"/>
+      <c r="K85" s="8"/>
     </row>
     <row r="86">
-      <c r="I86" s="5"/>
-      <c r="K86" s="5"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="8"/>
+      <c r="K86" s="8"/>
     </row>
     <row r="87">
-      <c r="I87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="8"/>
+      <c r="K87" s="8"/>
     </row>
     <row r="88">
-      <c r="I88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="8"/>
+      <c r="K88" s="8"/>
     </row>
     <row r="89">
-      <c r="I89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="8"/>
+      <c r="K89" s="8"/>
     </row>
     <row r="90">
-      <c r="I90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="8"/>
+      <c r="K90" s="8"/>
     </row>
     <row r="91">
-      <c r="I91" s="5"/>
-      <c r="K91" s="5"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="8"/>
+      <c r="K91" s="8"/>
     </row>
     <row r="92">
-      <c r="I92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="8"/>
+      <c r="K92" s="8"/>
     </row>
     <row r="93">
-      <c r="I93" s="5"/>
-      <c r="K93" s="5"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="8"/>
+      <c r="K93" s="8"/>
     </row>
     <row r="94">
-      <c r="I94" s="5"/>
-      <c r="K94" s="5"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="8"/>
+      <c r="K94" s="8"/>
     </row>
     <row r="95">
-      <c r="I95" s="5"/>
-      <c r="K95" s="5"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="8"/>
+      <c r="K95" s="8"/>
     </row>
     <row r="96">
-      <c r="I96" s="5"/>
-      <c r="K96" s="5"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="8"/>
+      <c r="K96" s="8"/>
     </row>
     <row r="97">
-      <c r="I97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="8"/>
+      <c r="K97" s="8"/>
     </row>
     <row r="98">
-      <c r="I98" s="5"/>
-      <c r="K98" s="5"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="8"/>
+      <c r="K98" s="8"/>
     </row>
     <row r="99">
-      <c r="I99" s="5"/>
-      <c r="K99" s="5"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="8"/>
+      <c r="K99" s="8"/>
     </row>
     <row r="100">
-      <c r="I100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="8"/>
+      <c r="K100" s="8"/>
     </row>
     <row r="101">
-      <c r="I101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="8"/>
+      <c r="K101" s="8"/>
     </row>
     <row r="102">
-      <c r="I102" s="5"/>
-      <c r="K102" s="5"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="8"/>
+      <c r="K102" s="8"/>
     </row>
     <row r="103">
-      <c r="I103" s="5"/>
-      <c r="K103" s="5"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="8"/>
+      <c r="K103" s="8"/>
     </row>
     <row r="104">
-      <c r="I104" s="5"/>
-      <c r="K104" s="5"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="8"/>
+      <c r="K104" s="8"/>
     </row>
     <row r="105">
-      <c r="I105" s="5"/>
-      <c r="K105" s="5"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="8"/>
+      <c r="K105" s="8"/>
     </row>
     <row r="106">
-      <c r="I106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="8"/>
+      <c r="K106" s="8"/>
     </row>
     <row r="107">
-      <c r="I107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="8"/>
+      <c r="K107" s="8"/>
     </row>
     <row r="108">
-      <c r="I108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="8"/>
+      <c r="K108" s="8"/>
     </row>
     <row r="109">
-      <c r="I109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="8"/>
+      <c r="K109" s="8"/>
     </row>
     <row r="110">
-      <c r="I110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="8"/>
+      <c r="K110" s="8"/>
     </row>
     <row r="111">
-      <c r="I111" s="5"/>
-      <c r="K111" s="5"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="8"/>
+      <c r="K111" s="8"/>
     </row>
     <row r="112">
-      <c r="I112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="8"/>
+      <c r="K112" s="8"/>
     </row>
     <row r="113">
-      <c r="I113" s="5"/>
-      <c r="K113" s="5"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="8"/>
+      <c r="K113" s="8"/>
     </row>
     <row r="114">
-      <c r="I114" s="5"/>
-      <c r="K114" s="5"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="8"/>
+      <c r="K114" s="8"/>
     </row>
     <row r="115">
-      <c r="I115" s="5"/>
-      <c r="K115" s="5"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="8"/>
+      <c r="K115" s="8"/>
     </row>
     <row r="116">
-      <c r="I116" s="5"/>
-      <c r="K116" s="5"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="8"/>
+      <c r="K116" s="8"/>
     </row>
     <row r="117">
-      <c r="I117" s="5"/>
-      <c r="K117" s="5"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="8"/>
+      <c r="K117" s="8"/>
     </row>
     <row r="118">
-      <c r="I118" s="5"/>
-      <c r="K118" s="5"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="8"/>
+      <c r="K118" s="8"/>
     </row>
     <row r="119">
-      <c r="I119" s="5"/>
-      <c r="K119" s="5"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="8"/>
+      <c r="K119" s="8"/>
     </row>
     <row r="120">
-      <c r="I120" s="5"/>
-      <c r="K120" s="5"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="8"/>
+      <c r="K120" s="8"/>
     </row>
     <row r="121">
-      <c r="I121" s="5"/>
-      <c r="K121" s="5"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="8"/>
+      <c r="K121" s="8"/>
     </row>
     <row r="122">
-      <c r="I122" s="5"/>
-      <c r="K122" s="5"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="8"/>
+      <c r="K122" s="8"/>
     </row>
     <row r="123">
-      <c r="I123" s="5"/>
-      <c r="K123" s="5"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="8"/>
+      <c r="K123" s="8"/>
     </row>
     <row r="124">
-      <c r="I124" s="5"/>
-      <c r="K124" s="5"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="8"/>
+      <c r="K124" s="8"/>
     </row>
     <row r="125">
-      <c r="I125" s="5"/>
-      <c r="K125" s="5"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="8"/>
+      <c r="K125" s="8"/>
     </row>
     <row r="126">
-      <c r="I126" s="5"/>
-      <c r="K126" s="5"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="8"/>
+      <c r="K126" s="8"/>
     </row>
     <row r="127">
-      <c r="I127" s="5"/>
-      <c r="K127" s="5"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="8"/>
+      <c r="K127" s="8"/>
     </row>
     <row r="128">
-      <c r="I128" s="5"/>
-      <c r="K128" s="5"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="8"/>
+      <c r="K128" s="8"/>
     </row>
     <row r="129">
-      <c r="I129" s="5"/>
-      <c r="K129" s="5"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="8"/>
+      <c r="K129" s="8"/>
     </row>
     <row r="130">
-      <c r="I130" s="5"/>
-      <c r="K130" s="5"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="8"/>
+      <c r="K130" s="8"/>
     </row>
     <row r="131">
-      <c r="I131" s="5"/>
-      <c r="K131" s="5"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="8"/>
+      <c r="K131" s="8"/>
     </row>
     <row r="132">
-      <c r="I132" s="5"/>
-      <c r="K132" s="5"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="8"/>
+      <c r="K132" s="8"/>
     </row>
     <row r="133">
-      <c r="I133" s="5"/>
-      <c r="K133" s="5"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="8"/>
+      <c r="K133" s="8"/>
     </row>
     <row r="134">
-      <c r="I134" s="5"/>
-      <c r="K134" s="5"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="8"/>
+      <c r="K134" s="8"/>
     </row>
     <row r="135">
-      <c r="I135" s="5"/>
-      <c r="K135" s="5"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="8"/>
+      <c r="K135" s="8"/>
     </row>
     <row r="136">
-      <c r="I136" s="5"/>
-      <c r="K136" s="5"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="8"/>
+      <c r="K136" s="8"/>
     </row>
     <row r="137">
-      <c r="I137" s="5"/>
-      <c r="K137" s="5"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="8"/>
+      <c r="K137" s="8"/>
     </row>
     <row r="138">
-      <c r="I138" s="5"/>
-      <c r="K138" s="5"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="8"/>
+      <c r="K138" s="8"/>
     </row>
     <row r="139">
-      <c r="I139" s="5"/>
-      <c r="K139" s="5"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="8"/>
+      <c r="K139" s="8"/>
     </row>
     <row r="140">
-      <c r="I140" s="5"/>
-      <c r="K140" s="5"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="8"/>
+      <c r="K140" s="8"/>
     </row>
     <row r="141">
-      <c r="I141" s="5"/>
-      <c r="K141" s="5"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="8"/>
+      <c r="K141" s="8"/>
     </row>
     <row r="142">
-      <c r="I142" s="5"/>
-      <c r="K142" s="5"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="8"/>
+      <c r="K142" s="8"/>
     </row>
     <row r="143">
-      <c r="I143" s="5"/>
-      <c r="K143" s="5"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="8"/>
+      <c r="K143" s="8"/>
     </row>
     <row r="144">
-      <c r="I144" s="5"/>
-      <c r="K144" s="5"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="8"/>
+      <c r="K144" s="8"/>
     </row>
     <row r="145">
-      <c r="I145" s="5"/>
-      <c r="K145" s="5"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="8"/>
+      <c r="K145" s="8"/>
     </row>
     <row r="146">
-      <c r="I146" s="5"/>
-      <c r="K146" s="5"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="8"/>
+      <c r="K146" s="8"/>
     </row>
     <row r="147">
-      <c r="I147" s="5"/>
-      <c r="K147" s="5"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="8"/>
+      <c r="K147" s="8"/>
     </row>
     <row r="148">
-      <c r="I148" s="5"/>
-      <c r="K148" s="5"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="8"/>
+      <c r="K148" s="8"/>
     </row>
     <row r="149">
-      <c r="I149" s="5"/>
-      <c r="K149" s="5"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="8"/>
+      <c r="K149" s="8"/>
     </row>
     <row r="150">
-      <c r="I150" s="5"/>
-      <c r="K150" s="5"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="8"/>
+      <c r="K150" s="8"/>
     </row>
     <row r="151">
-      <c r="I151" s="5"/>
-      <c r="K151" s="5"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="8"/>
+      <c r="K151" s="8"/>
     </row>
     <row r="152">
-      <c r="I152" s="5"/>
-      <c r="K152" s="5"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="8"/>
+      <c r="K152" s="8"/>
     </row>
     <row r="153">
-      <c r="I153" s="5"/>
-      <c r="K153" s="5"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="8"/>
+      <c r="K153" s="8"/>
     </row>
     <row r="154">
-      <c r="I154" s="5"/>
-      <c r="K154" s="5"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="8"/>
+      <c r="K154" s="8"/>
     </row>
     <row r="155">
-      <c r="I155" s="5"/>
-      <c r="K155" s="5"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="8"/>
+      <c r="K155" s="8"/>
     </row>
     <row r="156">
-      <c r="I156" s="5"/>
-      <c r="K156" s="5"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="8"/>
+      <c r="K156" s="8"/>
     </row>
     <row r="157">
-      <c r="I157" s="5"/>
-      <c r="K157" s="5"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="8"/>
+      <c r="K157" s="8"/>
     </row>
     <row r="158">
-      <c r="I158" s="5"/>
-      <c r="K158" s="5"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="8"/>
+      <c r="K158" s="8"/>
     </row>
     <row r="159">
-      <c r="I159" s="5"/>
-      <c r="K159" s="5"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="8"/>
+      <c r="K159" s="8"/>
     </row>
     <row r="160">
-      <c r="I160" s="5"/>
-      <c r="K160" s="5"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="8"/>
+      <c r="K160" s="8"/>
     </row>
     <row r="161">
-      <c r="I161" s="5"/>
-      <c r="K161" s="5"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="8"/>
+      <c r="K161" s="8"/>
     </row>
     <row r="162">
-      <c r="I162" s="5"/>
-      <c r="K162" s="5"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="8"/>
+      <c r="K162" s="8"/>
     </row>
     <row r="163">
-      <c r="I163" s="5"/>
-      <c r="K163" s="5"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="8"/>
+      <c r="K163" s="8"/>
     </row>
     <row r="164">
-      <c r="I164" s="5"/>
-      <c r="K164" s="5"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="8"/>
+      <c r="K164" s="8"/>
     </row>
     <row r="165">
-      <c r="I165" s="5"/>
-      <c r="K165" s="5"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="8"/>
+      <c r="K165" s="8"/>
     </row>
     <row r="166">
-      <c r="I166" s="5"/>
-      <c r="K166" s="5"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="8"/>
+      <c r="K166" s="8"/>
     </row>
     <row r="167">
-      <c r="I167" s="5"/>
-      <c r="K167" s="5"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="8"/>
+      <c r="K167" s="8"/>
     </row>
     <row r="168">
-      <c r="I168" s="5"/>
-      <c r="K168" s="5"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="8"/>
+      <c r="K168" s="8"/>
     </row>
     <row r="169">
-      <c r="I169" s="5"/>
-      <c r="K169" s="5"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="8"/>
+      <c r="K169" s="8"/>
     </row>
     <row r="170">
-      <c r="I170" s="5"/>
-      <c r="K170" s="5"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="8"/>
+      <c r="K170" s="8"/>
     </row>
     <row r="171">
-      <c r="I171" s="5"/>
-      <c r="K171" s="5"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="8"/>
+      <c r="K171" s="8"/>
     </row>
     <row r="172">
-      <c r="I172" s="5"/>
-      <c r="K172" s="5"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="8"/>
+      <c r="K172" s="8"/>
     </row>
     <row r="173">
-      <c r="I173" s="5"/>
-      <c r="K173" s="5"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="8"/>
+      <c r="K173" s="8"/>
     </row>
     <row r="174">
-      <c r="I174" s="5"/>
-      <c r="K174" s="5"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="8"/>
+      <c r="K174" s="8"/>
     </row>
     <row r="175">
-      <c r="I175" s="5"/>
-      <c r="K175" s="5"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="8"/>
+      <c r="K175" s="8"/>
     </row>
     <row r="176">
-      <c r="I176" s="5"/>
-      <c r="K176" s="5"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="8"/>
+      <c r="K176" s="8"/>
     </row>
     <row r="177">
-      <c r="I177" s="5"/>
-      <c r="K177" s="5"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="8"/>
+      <c r="K177" s="8"/>
     </row>
     <row r="178">
-      <c r="I178" s="5"/>
-      <c r="K178" s="5"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="8"/>
+      <c r="K178" s="8"/>
     </row>
     <row r="179">
-      <c r="I179" s="5"/>
-      <c r="K179" s="5"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="8"/>
+      <c r="K179" s="8"/>
     </row>
     <row r="180">
-      <c r="I180" s="5"/>
-      <c r="K180" s="5"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="8"/>
+      <c r="K180" s="8"/>
     </row>
     <row r="181">
-      <c r="I181" s="5"/>
-      <c r="K181" s="5"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="8"/>
+      <c r="K181" s="8"/>
     </row>
     <row r="182">
-      <c r="I182" s="5"/>
-      <c r="K182" s="5"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="8"/>
+      <c r="K182" s="8"/>
     </row>
     <row r="183">
-      <c r="I183" s="5"/>
-      <c r="K183" s="5"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="8"/>
+      <c r="K183" s="8"/>
     </row>
     <row r="184">
-      <c r="I184" s="5"/>
-      <c r="K184" s="5"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="8"/>
+      <c r="K184" s="8"/>
     </row>
     <row r="185">
-      <c r="I185" s="5"/>
-      <c r="K185" s="5"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="8"/>
+      <c r="K185" s="8"/>
     </row>
     <row r="186">
-      <c r="I186" s="5"/>
-      <c r="K186" s="5"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="8"/>
+      <c r="K186" s="8"/>
     </row>
     <row r="187">
-      <c r="I187" s="5"/>
-      <c r="K187" s="5"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="8"/>
+      <c r="K187" s="8"/>
     </row>
     <row r="188">
-      <c r="I188" s="5"/>
-      <c r="K188" s="5"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="8"/>
+      <c r="K188" s="8"/>
     </row>
     <row r="189">
-      <c r="I189" s="5"/>
-      <c r="K189" s="5"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="8"/>
+      <c r="K189" s="8"/>
     </row>
     <row r="190">
-      <c r="I190" s="5"/>
-      <c r="K190" s="5"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="8"/>
+      <c r="K190" s="8"/>
     </row>
     <row r="191">
-      <c r="I191" s="5"/>
-      <c r="K191" s="5"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="8"/>
+      <c r="K191" s="8"/>
     </row>
     <row r="192">
-      <c r="I192" s="5"/>
-      <c r="K192" s="5"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="8"/>
+      <c r="K192" s="8"/>
     </row>
     <row r="193">
-      <c r="I193" s="5"/>
-      <c r="K193" s="5"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="8"/>
+      <c r="K193" s="8"/>
     </row>
     <row r="194">
-      <c r="I194" s="5"/>
-      <c r="K194" s="5"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="8"/>
+      <c r="K194" s="8"/>
     </row>
     <row r="195">
-      <c r="I195" s="5"/>
-      <c r="K195" s="5"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="8"/>
+      <c r="K195" s="8"/>
     </row>
     <row r="196">
-      <c r="I196" s="5"/>
-      <c r="K196" s="5"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="8"/>
+      <c r="K196" s="8"/>
     </row>
     <row r="197">
-      <c r="I197" s="5"/>
-      <c r="K197" s="5"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="8"/>
+      <c r="K197" s="8"/>
     </row>
     <row r="198">
-      <c r="I198" s="5"/>
-      <c r="K198" s="5"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="8"/>
+      <c r="K198" s="8"/>
     </row>
     <row r="199">
-      <c r="I199" s="5"/>
-      <c r="K199" s="5"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="8"/>
+      <c r="K199" s="8"/>
     </row>
     <row r="200">
-      <c r="I200" s="5"/>
-      <c r="K200" s="5"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="8"/>
+      <c r="K200" s="8"/>
     </row>
     <row r="201">
-      <c r="I201" s="5"/>
-      <c r="K201" s="5"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="8"/>
+      <c r="K201" s="8"/>
     </row>
     <row r="202">
-      <c r="I202" s="5"/>
-      <c r="K202" s="5"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="8"/>
+      <c r="K202" s="8"/>
     </row>
     <row r="203">
-      <c r="I203" s="5"/>
-      <c r="K203" s="5"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="8"/>
+      <c r="K203" s="8"/>
     </row>
     <row r="204">
-      <c r="I204" s="5"/>
-      <c r="K204" s="5"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="8"/>
+      <c r="K204" s="8"/>
     </row>
     <row r="205">
-      <c r="I205" s="5"/>
-      <c r="K205" s="5"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="8"/>
+      <c r="K205" s="8"/>
     </row>
     <row r="206">
-      <c r="I206" s="5"/>
-      <c r="K206" s="5"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="8"/>
+      <c r="K206" s="8"/>
     </row>
     <row r="207">
-      <c r="I207" s="5"/>
-      <c r="K207" s="5"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="8"/>
+      <c r="K207" s="8"/>
     </row>
     <row r="208">
-      <c r="I208" s="5"/>
-      <c r="K208" s="5"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="8"/>
+      <c r="K208" s="8"/>
     </row>
     <row r="209">
-      <c r="I209" s="5"/>
-      <c r="K209" s="5"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="8"/>
+      <c r="K209" s="8"/>
     </row>
     <row r="210">
-      <c r="I210" s="5"/>
-      <c r="K210" s="5"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="8"/>
+      <c r="K210" s="8"/>
     </row>
     <row r="211">
-      <c r="I211" s="5"/>
-      <c r="K211" s="5"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="8"/>
+      <c r="K211" s="8"/>
     </row>
     <row r="212">
-      <c r="I212" s="5"/>
-      <c r="K212" s="5"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="8"/>
+      <c r="K212" s="8"/>
     </row>
     <row r="213">
-      <c r="I213" s="5"/>
-      <c r="K213" s="5"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="8"/>
+      <c r="K213" s="8"/>
     </row>
     <row r="214">
-      <c r="I214" s="5"/>
-      <c r="K214" s="5"/>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="8"/>
+      <c r="K214" s="8"/>
     </row>
     <row r="215">
-      <c r="I215" s="5"/>
-      <c r="K215" s="5"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="8"/>
+      <c r="K215" s="8"/>
     </row>
     <row r="216">
-      <c r="I216" s="5"/>
-      <c r="K216" s="5"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="8"/>
+      <c r="K216" s="8"/>
     </row>
     <row r="217">
-      <c r="I217" s="5"/>
-      <c r="K217" s="5"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="8"/>
+      <c r="K217" s="8"/>
     </row>
     <row r="218">
-      <c r="I218" s="5"/>
-      <c r="K218" s="5"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="8"/>
+      <c r="K218" s="8"/>
     </row>
     <row r="219">
-      <c r="I219" s="5"/>
-      <c r="K219" s="5"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="8"/>
+      <c r="K219" s="8"/>
     </row>
     <row r="220">
-      <c r="I220" s="5"/>
-      <c r="K220" s="5"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="8"/>
+      <c r="K220" s="8"/>
     </row>
     <row r="221">
-      <c r="I221" s="5"/>
-      <c r="K221" s="5"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="8"/>
+      <c r="K221" s="8"/>
     </row>
     <row r="222">
-      <c r="I222" s="5"/>
-      <c r="K222" s="5"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="8"/>
+      <c r="K222" s="8"/>
     </row>
     <row r="223">
-      <c r="I223" s="5"/>
-      <c r="K223" s="5"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="8"/>
+      <c r="K223" s="8"/>
     </row>
     <row r="224">
-      <c r="I224" s="5"/>
-      <c r="K224" s="5"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="8"/>
+      <c r="K224" s="8"/>
     </row>
     <row r="225">
-      <c r="I225" s="5"/>
-      <c r="K225" s="5"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="8"/>
+      <c r="K225" s="8"/>
     </row>
     <row r="226">
-      <c r="I226" s="5"/>
-      <c r="K226" s="5"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="8"/>
+      <c r="K226" s="8"/>
     </row>
     <row r="227">
-      <c r="I227" s="5"/>
-      <c r="K227" s="5"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="8"/>
+      <c r="K227" s="8"/>
     </row>
     <row r="228">
-      <c r="I228" s="5"/>
-      <c r="K228" s="5"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="8"/>
+      <c r="K228" s="8"/>
     </row>
     <row r="229">
-      <c r="I229" s="5"/>
-      <c r="K229" s="5"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="8"/>
+      <c r="K229" s="8"/>
     </row>
     <row r="230">
-      <c r="I230" s="5"/>
-      <c r="K230" s="5"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="8"/>
+      <c r="K230" s="8"/>
     </row>
     <row r="231">
-      <c r="I231" s="5"/>
-      <c r="K231" s="5"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="8"/>
+      <c r="K231" s="8"/>
     </row>
     <row r="232">
-      <c r="I232" s="5"/>
-      <c r="K232" s="5"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="8"/>
+      <c r="K232" s="8"/>
     </row>
     <row r="233">
-      <c r="I233" s="5"/>
-      <c r="K233" s="5"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="8"/>
+      <c r="K233" s="8"/>
     </row>
     <row r="234">
-      <c r="I234" s="5"/>
-      <c r="K234" s="5"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="8"/>
+      <c r="K234" s="8"/>
     </row>
     <row r="235">
-      <c r="I235" s="5"/>
-      <c r="K235" s="5"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="8"/>
+      <c r="K235" s="8"/>
     </row>
     <row r="236">
-      <c r="I236" s="5"/>
-      <c r="K236" s="5"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="8"/>
+      <c r="K236" s="8"/>
     </row>
     <row r="237">
-      <c r="I237" s="5"/>
-      <c r="K237" s="5"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="8"/>
+      <c r="K237" s="8"/>
     </row>
     <row r="238">
-      <c r="I238" s="5"/>
-      <c r="K238" s="5"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7"/>
+      <c r="I238" s="8"/>
+      <c r="K238" s="8"/>
     </row>
     <row r="239">
-      <c r="I239" s="5"/>
-      <c r="K239" s="5"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="8"/>
+      <c r="K239" s="8"/>
     </row>
     <row r="240">
-      <c r="I240" s="5"/>
-      <c r="K240" s="5"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="8"/>
+      <c r="K240" s="8"/>
     </row>
     <row r="241">
-      <c r="I241" s="5"/>
-      <c r="K241" s="5"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="8"/>
+      <c r="K241" s="8"/>
     </row>
     <row r="242">
-      <c r="I242" s="5"/>
-      <c r="K242" s="5"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="8"/>
+      <c r="K242" s="8"/>
     </row>
     <row r="243">
-      <c r="I243" s="5"/>
-      <c r="K243" s="5"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="8"/>
+      <c r="K243" s="8"/>
     </row>
     <row r="244">
-      <c r="I244" s="5"/>
-      <c r="K244" s="5"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="8"/>
+      <c r="K244" s="8"/>
     </row>
     <row r="245">
-      <c r="I245" s="5"/>
-      <c r="K245" s="5"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="8"/>
+      <c r="K245" s="8"/>
     </row>
     <row r="246">
-      <c r="I246" s="5"/>
-      <c r="K246" s="5"/>
+      <c r="G246" s="7"/>
+      <c r="H246" s="7"/>
+      <c r="I246" s="8"/>
+      <c r="K246" s="8"/>
     </row>
     <row r="247">
-      <c r="I247" s="5"/>
-      <c r="K247" s="5"/>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7"/>
+      <c r="I247" s="8"/>
+      <c r="K247" s="8"/>
     </row>
     <row r="248">
-      <c r="I248" s="5"/>
-      <c r="K248" s="5"/>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7"/>
+      <c r="I248" s="8"/>
+      <c r="K248" s="8"/>
     </row>
     <row r="249">
-      <c r="I249" s="5"/>
-      <c r="K249" s="5"/>
+      <c r="G249" s="7"/>
+      <c r="H249" s="7"/>
+      <c r="I249" s="8"/>
+      <c r="K249" s="8"/>
     </row>
     <row r="250">
-      <c r="I250" s="5"/>
-      <c r="K250" s="5"/>
+      <c r="G250" s="7"/>
+      <c r="H250" s="7"/>
+      <c r="I250" s="8"/>
+      <c r="K250" s="8"/>
     </row>
     <row r="251">
-      <c r="I251" s="5"/>
-      <c r="K251" s="5"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="8"/>
+      <c r="K251" s="8"/>
     </row>
     <row r="252">
-      <c r="I252" s="5"/>
-      <c r="K252" s="5"/>
+      <c r="G252" s="7"/>
+      <c r="H252" s="7"/>
+      <c r="I252" s="8"/>
+      <c r="K252" s="8"/>
     </row>
     <row r="253">
-      <c r="I253" s="5"/>
-      <c r="K253" s="5"/>
+      <c r="G253" s="7"/>
+      <c r="H253" s="7"/>
+      <c r="I253" s="8"/>
+      <c r="K253" s="8"/>
     </row>
     <row r="254">
-      <c r="I254" s="5"/>
-      <c r="K254" s="5"/>
+      <c r="G254" s="7"/>
+      <c r="H254" s="7"/>
+      <c r="I254" s="8"/>
+      <c r="K254" s="8"/>
     </row>
     <row r="255">
-      <c r="I255" s="5"/>
-      <c r="K255" s="5"/>
+      <c r="G255" s="7"/>
+      <c r="H255" s="7"/>
+      <c r="I255" s="8"/>
+      <c r="K255" s="8"/>
     </row>
     <row r="256">
-      <c r="I256" s="5"/>
-      <c r="K256" s="5"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="7"/>
+      <c r="I256" s="8"/>
+      <c r="K256" s="8"/>
     </row>
     <row r="257">
-      <c r="I257" s="5"/>
-      <c r="K257" s="5"/>
+      <c r="G257" s="7"/>
+      <c r="H257" s="7"/>
+      <c r="I257" s="8"/>
+      <c r="K257" s="8"/>
     </row>
     <row r="258">
-      <c r="I258" s="5"/>
-      <c r="K258" s="5"/>
+      <c r="G258" s="7"/>
+      <c r="H258" s="7"/>
+      <c r="I258" s="8"/>
+      <c r="K258" s="8"/>
     </row>
     <row r="259">
-      <c r="I259" s="5"/>
-      <c r="K259" s="5"/>
+      <c r="G259" s="7"/>
+      <c r="H259" s="7"/>
+      <c r="I259" s="8"/>
+      <c r="K259" s="8"/>
     </row>
     <row r="260">
-      <c r="I260" s="5"/>
-      <c r="K260" s="5"/>
+      <c r="G260" s="7"/>
+      <c r="H260" s="7"/>
+      <c r="I260" s="8"/>
+      <c r="K260" s="8"/>
     </row>
     <row r="261">
-      <c r="I261" s="5"/>
-      <c r="K261" s="5"/>
+      <c r="G261" s="7"/>
+      <c r="H261" s="7"/>
+      <c r="I261" s="8"/>
+      <c r="K261" s="8"/>
     </row>
     <row r="262">
-      <c r="I262" s="5"/>
-      <c r="K262" s="5"/>
+      <c r="G262" s="7"/>
+      <c r="H262" s="7"/>
+      <c r="I262" s="8"/>
+      <c r="K262" s="8"/>
     </row>
     <row r="263">
-      <c r="I263" s="5"/>
-      <c r="K263" s="5"/>
+      <c r="G263" s="7"/>
+      <c r="H263" s="7"/>
+      <c r="I263" s="8"/>
+      <c r="K263" s="8"/>
     </row>
     <row r="264">
-      <c r="I264" s="5"/>
-      <c r="K264" s="5"/>
+      <c r="G264" s="7"/>
+      <c r="H264" s="7"/>
+      <c r="I264" s="8"/>
+      <c r="K264" s="8"/>
     </row>
     <row r="265">
-      <c r="I265" s="5"/>
-      <c r="K265" s="5"/>
+      <c r="G265" s="7"/>
+      <c r="H265" s="7"/>
+      <c r="I265" s="8"/>
+      <c r="K265" s="8"/>
     </row>
     <row r="266">
-      <c r="I266" s="5"/>
-      <c r="K266" s="5"/>
+      <c r="G266" s="7"/>
+      <c r="H266" s="7"/>
+      <c r="I266" s="8"/>
+      <c r="K266" s="8"/>
     </row>
     <row r="267">
-      <c r="I267" s="5"/>
-      <c r="K267" s="5"/>
+      <c r="G267" s="7"/>
+      <c r="H267" s="7"/>
+      <c r="I267" s="8"/>
+      <c r="K267" s="8"/>
     </row>
     <row r="268">
-      <c r="I268" s="5"/>
-      <c r="K268" s="5"/>
+      <c r="G268" s="7"/>
+      <c r="H268" s="7"/>
+      <c r="I268" s="8"/>
+      <c r="K268" s="8"/>
     </row>
     <row r="269">
-      <c r="I269" s="5"/>
-      <c r="K269" s="5"/>
+      <c r="G269" s="7"/>
+      <c r="H269" s="7"/>
+      <c r="I269" s="8"/>
+      <c r="K269" s="8"/>
     </row>
     <row r="270">
-      <c r="I270" s="5"/>
-      <c r="K270" s="5"/>
+      <c r="G270" s="7"/>
+      <c r="H270" s="7"/>
+      <c r="I270" s="8"/>
+      <c r="K270" s="8"/>
     </row>
     <row r="271">
-      <c r="I271" s="5"/>
-      <c r="K271" s="5"/>
+      <c r="G271" s="7"/>
+      <c r="H271" s="7"/>
+      <c r="I271" s="8"/>
+      <c r="K271" s="8"/>
     </row>
     <row r="272">
-      <c r="I272" s="5"/>
-      <c r="K272" s="5"/>
+      <c r="G272" s="7"/>
+      <c r="H272" s="7"/>
+      <c r="I272" s="8"/>
+      <c r="K272" s="8"/>
     </row>
     <row r="273">
-      <c r="I273" s="5"/>
-      <c r="K273" s="5"/>
+      <c r="G273" s="7"/>
+      <c r="H273" s="7"/>
+      <c r="I273" s="8"/>
+      <c r="K273" s="8"/>
     </row>
     <row r="274">
-      <c r="I274" s="5"/>
-      <c r="K274" s="5"/>
+      <c r="G274" s="7"/>
+      <c r="H274" s="7"/>
+      <c r="I274" s="8"/>
+      <c r="K274" s="8"/>
     </row>
     <row r="275">
-      <c r="I275" s="5"/>
-      <c r="K275" s="5"/>
+      <c r="G275" s="7"/>
+      <c r="H275" s="7"/>
+      <c r="I275" s="8"/>
+      <c r="K275" s="8"/>
     </row>
     <row r="276">
-      <c r="I276" s="5"/>
-      <c r="K276" s="5"/>
+      <c r="G276" s="7"/>
+      <c r="H276" s="7"/>
+      <c r="I276" s="8"/>
+      <c r="K276" s="8"/>
     </row>
     <row r="277">
-      <c r="I277" s="5"/>
-      <c r="K277" s="5"/>
+      <c r="G277" s="7"/>
+      <c r="H277" s="7"/>
+      <c r="I277" s="8"/>
+      <c r="K277" s="8"/>
     </row>
     <row r="278">
-      <c r="I278" s="5"/>
-      <c r="K278" s="5"/>
+      <c r="G278" s="7"/>
+      <c r="H278" s="7"/>
+      <c r="I278" s="8"/>
+      <c r="K278" s="8"/>
     </row>
     <row r="279">
-      <c r="I279" s="5"/>
-      <c r="K279" s="5"/>
+      <c r="G279" s="7"/>
+      <c r="H279" s="7"/>
+      <c r="I279" s="8"/>
+      <c r="K279" s="8"/>
     </row>
     <row r="280">
-      <c r="I280" s="5"/>
-      <c r="K280" s="5"/>
+      <c r="G280" s="7"/>
+      <c r="H280" s="7"/>
+      <c r="I280" s="8"/>
+      <c r="K280" s="8"/>
     </row>
     <row r="281">
-      <c r="I281" s="5"/>
-      <c r="K281" s="5"/>
+      <c r="G281" s="7"/>
+      <c r="H281" s="7"/>
+      <c r="I281" s="8"/>
+      <c r="K281" s="8"/>
     </row>
     <row r="282">
-      <c r="I282" s="5"/>
-      <c r="K282" s="5"/>
+      <c r="G282" s="7"/>
+      <c r="H282" s="7"/>
+      <c r="I282" s="8"/>
+      <c r="K282" s="8"/>
     </row>
     <row r="283">
-      <c r="I283" s="5"/>
-      <c r="K283" s="5"/>
+      <c r="G283" s="7"/>
+      <c r="H283" s="7"/>
+      <c r="I283" s="8"/>
+      <c r="K283" s="8"/>
     </row>
     <row r="284">
-      <c r="I284" s="5"/>
-      <c r="K284" s="5"/>
+      <c r="G284" s="7"/>
+      <c r="H284" s="7"/>
+      <c r="I284" s="8"/>
+      <c r="K284" s="8"/>
     </row>
     <row r="285">
-      <c r="I285" s="5"/>
-      <c r="K285" s="5"/>
+      <c r="G285" s="7"/>
+      <c r="H285" s="7"/>
+      <c r="I285" s="8"/>
+      <c r="K285" s="8"/>
     </row>
     <row r="286">
-      <c r="I286" s="5"/>
-      <c r="K286" s="5"/>
+      <c r="G286" s="7"/>
+      <c r="H286" s="7"/>
+      <c r="I286" s="8"/>
+      <c r="K286" s="8"/>
     </row>
     <row r="287">
-      <c r="I287" s="5"/>
-      <c r="K287" s="5"/>
+      <c r="G287" s="7"/>
+      <c r="H287" s="7"/>
+      <c r="I287" s="8"/>
+      <c r="K287" s="8"/>
     </row>
     <row r="288">
-      <c r="I288" s="5"/>
-      <c r="K288" s="5"/>
+      <c r="G288" s="7"/>
+      <c r="H288" s="7"/>
+      <c r="I288" s="8"/>
+      <c r="K288" s="8"/>
     </row>
     <row r="289">
-      <c r="I289" s="5"/>
-      <c r="K289" s="5"/>
+      <c r="G289" s="7"/>
+      <c r="H289" s="7"/>
+      <c r="I289" s="8"/>
+      <c r="K289" s="8"/>
     </row>
     <row r="290">
-      <c r="I290" s="5"/>
-      <c r="K290" s="5"/>
+      <c r="G290" s="7"/>
+      <c r="H290" s="7"/>
+      <c r="I290" s="8"/>
+      <c r="K290" s="8"/>
     </row>
     <row r="291">
-      <c r="I291" s="5"/>
-      <c r="K291" s="5"/>
+      <c r="G291" s="7"/>
+      <c r="H291" s="7"/>
+      <c r="I291" s="8"/>
+      <c r="K291" s="8"/>
     </row>
     <row r="292">
-      <c r="I292" s="5"/>
-      <c r="K292" s="5"/>
+      <c r="G292" s="7"/>
+      <c r="H292" s="7"/>
+      <c r="I292" s="8"/>
+      <c r="K292" s="8"/>
     </row>
     <row r="293">
-      <c r="I293" s="5"/>
-      <c r="K293" s="5"/>
+      <c r="G293" s="7"/>
+      <c r="H293" s="7"/>
+      <c r="I293" s="8"/>
+      <c r="K293" s="8"/>
     </row>
     <row r="294">
-      <c r="I294" s="5"/>
-      <c r="K294" s="5"/>
+      <c r="G294" s="7"/>
+      <c r="H294" s="7"/>
+      <c r="I294" s="8"/>
+      <c r="K294" s="8"/>
     </row>
     <row r="295">
-      <c r="I295" s="5"/>
-      <c r="K295" s="5"/>
+      <c r="G295" s="7"/>
+      <c r="H295" s="7"/>
+      <c r="I295" s="8"/>
+      <c r="K295" s="8"/>
     </row>
     <row r="296">
-      <c r="I296" s="5"/>
-      <c r="K296" s="5"/>
+      <c r="G296" s="7"/>
+      <c r="H296" s="7"/>
+      <c r="I296" s="8"/>
+      <c r="K296" s="8"/>
     </row>
     <row r="297">
-      <c r="I297" s="5"/>
-      <c r="K297" s="5"/>
+      <c r="G297" s="7"/>
+      <c r="H297" s="7"/>
+      <c r="I297" s="8"/>
+      <c r="K297" s="8"/>
     </row>
     <row r="298">
-      <c r="I298" s="5"/>
-      <c r="K298" s="5"/>
+      <c r="G298" s="7"/>
+      <c r="H298" s="7"/>
+      <c r="I298" s="8"/>
+      <c r="K298" s="8"/>
     </row>
     <row r="299">
-      <c r="I299" s="5"/>
-      <c r="K299" s="5"/>
+      <c r="G299" s="7"/>
+      <c r="H299" s="7"/>
+      <c r="I299" s="8"/>
+      <c r="K299" s="8"/>
     </row>
     <row r="300">
-      <c r="I300" s="5"/>
-      <c r="K300" s="5"/>
+      <c r="G300" s="7"/>
+      <c r="H300" s="7"/>
+      <c r="I300" s="8"/>
+      <c r="K300" s="8"/>
     </row>
     <row r="301">
-      <c r="I301" s="5"/>
-      <c r="K301" s="5"/>
+      <c r="G301" s="7"/>
+      <c r="H301" s="7"/>
+      <c r="I301" s="8"/>
+      <c r="K301" s="8"/>
     </row>
     <row r="302">
-      <c r="I302" s="5"/>
-      <c r="K302" s="5"/>
+      <c r="G302" s="7"/>
+      <c r="H302" s="7"/>
+      <c r="I302" s="8"/>
+      <c r="K302" s="8"/>
     </row>
     <row r="303">
-      <c r="I303" s="5"/>
-      <c r="K303" s="5"/>
+      <c r="G303" s="7"/>
+      <c r="H303" s="7"/>
+      <c r="I303" s="8"/>
+      <c r="K303" s="8"/>
     </row>
     <row r="304">
-      <c r="I304" s="5"/>
-      <c r="K304" s="5"/>
+      <c r="G304" s="7"/>
+      <c r="H304" s="7"/>
+      <c r="I304" s="8"/>
+      <c r="K304" s="8"/>
     </row>
     <row r="305">
-      <c r="I305" s="5"/>
-      <c r="K305" s="5"/>
+      <c r="G305" s="7"/>
+      <c r="H305" s="7"/>
+      <c r="I305" s="8"/>
+      <c r="K305" s="8"/>
     </row>
     <row r="306">
-      <c r="I306" s="5"/>
-      <c r="K306" s="5"/>
+      <c r="G306" s="7"/>
+      <c r="H306" s="7"/>
+      <c r="I306" s="8"/>
+      <c r="K306" s="8"/>
     </row>
     <row r="307">
-      <c r="I307" s="5"/>
-      <c r="K307" s="5"/>
+      <c r="G307" s="7"/>
+      <c r="H307" s="7"/>
+      <c r="I307" s="8"/>
+      <c r="K307" s="8"/>
     </row>
     <row r="308">
-      <c r="I308" s="5"/>
-      <c r="K308" s="5"/>
+      <c r="G308" s="7"/>
+      <c r="H308" s="7"/>
+      <c r="I308" s="8"/>
+      <c r="K308" s="8"/>
     </row>
     <row r="309">
-      <c r="I309" s="5"/>
-      <c r="K309" s="5"/>
+      <c r="G309" s="7"/>
+      <c r="H309" s="7"/>
+      <c r="I309" s="8"/>
+      <c r="K309" s="8"/>
     </row>
     <row r="310">
-      <c r="I310" s="5"/>
-      <c r="K310" s="5"/>
+      <c r="G310" s="7"/>
+      <c r="H310" s="7"/>
+      <c r="I310" s="8"/>
+      <c r="K310" s="8"/>
     </row>
     <row r="311">
-      <c r="I311" s="5"/>
-      <c r="K311" s="5"/>
+      <c r="G311" s="7"/>
+      <c r="H311" s="7"/>
+      <c r="I311" s="8"/>
+      <c r="K311" s="8"/>
     </row>
     <row r="312">
-      <c r="I312" s="5"/>
-      <c r="K312" s="5"/>
+      <c r="G312" s="7"/>
+      <c r="H312" s="7"/>
+      <c r="I312" s="8"/>
+      <c r="K312" s="8"/>
     </row>
     <row r="313">
-      <c r="I313" s="5"/>
-      <c r="K313" s="5"/>
+      <c r="G313" s="7"/>
+      <c r="H313" s="7"/>
+      <c r="I313" s="8"/>
+      <c r="K313" s="8"/>
     </row>
     <row r="314">
-      <c r="I314" s="5"/>
-      <c r="K314" s="5"/>
+      <c r="G314" s="7"/>
+      <c r="H314" s="7"/>
+      <c r="I314" s="8"/>
+      <c r="K314" s="8"/>
     </row>
     <row r="315">
-      <c r="I315" s="5"/>
-      <c r="K315" s="5"/>
+      <c r="G315" s="7"/>
+      <c r="H315" s="7"/>
+      <c r="I315" s="8"/>
+      <c r="K315" s="8"/>
     </row>
     <row r="316">
-      <c r="I316" s="5"/>
-      <c r="K316" s="5"/>
+      <c r="G316" s="7"/>
+      <c r="H316" s="7"/>
+      <c r="I316" s="8"/>
+      <c r="K316" s="8"/>
     </row>
     <row r="317">
-      <c r="I317" s="5"/>
-      <c r="K317" s="5"/>
+      <c r="G317" s="7"/>
+      <c r="H317" s="7"/>
+      <c r="I317" s="8"/>
+      <c r="K317" s="8"/>
     </row>
     <row r="318">
-      <c r="I318" s="5"/>
-      <c r="K318" s="5"/>
+      <c r="G318" s="7"/>
+      <c r="H318" s="7"/>
+      <c r="I318" s="8"/>
+      <c r="K318" s="8"/>
     </row>
     <row r="319">
-      <c r="I319" s="5"/>
-      <c r="K319" s="5"/>
+      <c r="G319" s="7"/>
+      <c r="H319" s="7"/>
+      <c r="I319" s="8"/>
+      <c r="K319" s="8"/>
     </row>
     <row r="320">
-      <c r="I320" s="5"/>
-      <c r="K320" s="5"/>
+      <c r="G320" s="7"/>
+      <c r="H320" s="7"/>
+      <c r="I320" s="8"/>
+      <c r="K320" s="8"/>
     </row>
     <row r="321">
-      <c r="I321" s="5"/>
-      <c r="K321" s="5"/>
+      <c r="G321" s="7"/>
+      <c r="H321" s="7"/>
+      <c r="I321" s="8"/>
+      <c r="K321" s="8"/>
     </row>
     <row r="322">
-      <c r="I322" s="5"/>
-      <c r="K322" s="5"/>
+      <c r="G322" s="7"/>
+      <c r="H322" s="7"/>
+      <c r="I322" s="8"/>
+      <c r="K322" s="8"/>
     </row>
     <row r="323">
-      <c r="I323" s="5"/>
-      <c r="K323" s="5"/>
+      <c r="G323" s="7"/>
+      <c r="H323" s="7"/>
+      <c r="I323" s="8"/>
+      <c r="K323" s="8"/>
     </row>
     <row r="324">
-      <c r="I324" s="5"/>
-      <c r="K324" s="5"/>
+      <c r="G324" s="7"/>
+      <c r="H324" s="7"/>
+      <c r="I324" s="8"/>
+      <c r="K324" s="8"/>
     </row>
     <row r="325">
-      <c r="I325" s="5"/>
-      <c r="K325" s="5"/>
+      <c r="G325" s="7"/>
+      <c r="H325" s="7"/>
+      <c r="I325" s="8"/>
+      <c r="K325" s="8"/>
     </row>
     <row r="326">
-      <c r="I326" s="5"/>
-      <c r="K326" s="5"/>
+      <c r="G326" s="7"/>
+      <c r="H326" s="7"/>
+      <c r="I326" s="8"/>
+      <c r="K326" s="8"/>
     </row>
     <row r="327">
-      <c r="I327" s="5"/>
-      <c r="K327" s="5"/>
+      <c r="G327" s="7"/>
+      <c r="H327" s="7"/>
+      <c r="I327" s="8"/>
+      <c r="K327" s="8"/>
     </row>
     <row r="328">
-      <c r="I328" s="5"/>
-      <c r="K328" s="5"/>
+      <c r="G328" s="7"/>
+      <c r="H328" s="7"/>
+      <c r="I328" s="8"/>
+      <c r="K328" s="8"/>
     </row>
     <row r="329">
-      <c r="I329" s="5"/>
-      <c r="K329" s="5"/>
+      <c r="G329" s="7"/>
+      <c r="H329" s="7"/>
+      <c r="I329" s="8"/>
+      <c r="K329" s="8"/>
     </row>
     <row r="330">
-      <c r="I330" s="5"/>
-      <c r="K330" s="5"/>
+      <c r="G330" s="7"/>
+      <c r="H330" s="7"/>
+      <c r="I330" s="8"/>
+      <c r="K330" s="8"/>
     </row>
     <row r="331">
-      <c r="I331" s="5"/>
-      <c r="K331" s="5"/>
+      <c r="G331" s="7"/>
+      <c r="H331" s="7"/>
+      <c r="I331" s="8"/>
+      <c r="K331" s="8"/>
     </row>
     <row r="332">
-      <c r="I332" s="5"/>
-      <c r="K332" s="5"/>
+      <c r="G332" s="7"/>
+      <c r="H332" s="7"/>
+      <c r="I332" s="8"/>
+      <c r="K332" s="8"/>
     </row>
     <row r="333">
-      <c r="I333" s="5"/>
-      <c r="K333" s="5"/>
+      <c r="G333" s="7"/>
+      <c r="H333" s="7"/>
+      <c r="I333" s="8"/>
+      <c r="K333" s="8"/>
     </row>
     <row r="334">
-      <c r="I334" s="5"/>
-      <c r="K334" s="5"/>
+      <c r="G334" s="7"/>
+      <c r="H334" s="7"/>
+      <c r="I334" s="8"/>
+      <c r="K334" s="8"/>
     </row>
     <row r="335">
-      <c r="I335" s="5"/>
-      <c r="K335" s="5"/>
+      <c r="G335" s="7"/>
+      <c r="H335" s="7"/>
+      <c r="I335" s="8"/>
+      <c r="K335" s="8"/>
     </row>
     <row r="336">
-      <c r="I336" s="5"/>
-      <c r="K336" s="5"/>
+      <c r="G336" s="7"/>
+      <c r="H336" s="7"/>
+      <c r="I336" s="8"/>
+      <c r="K336" s="8"/>
     </row>
     <row r="337">
-      <c r="I337" s="5"/>
-      <c r="K337" s="5"/>
+      <c r="G337" s="7"/>
+      <c r="H337" s="7"/>
+      <c r="I337" s="8"/>
+      <c r="K337" s="8"/>
     </row>
     <row r="338">
-      <c r="I338" s="5"/>
-      <c r="K338" s="5"/>
+      <c r="G338" s="7"/>
+      <c r="H338" s="7"/>
+      <c r="I338" s="8"/>
+      <c r="K338" s="8"/>
     </row>
     <row r="339">
-      <c r="I339" s="5"/>
-      <c r="K339" s="5"/>
+      <c r="G339" s="7"/>
+      <c r="H339" s="7"/>
+      <c r="I339" s="8"/>
+      <c r="K339" s="8"/>
     </row>
     <row r="340">
-      <c r="I340" s="5"/>
-      <c r="K340" s="5"/>
+      <c r="G340" s="7"/>
+      <c r="H340" s="7"/>
+      <c r="I340" s="8"/>
+      <c r="K340" s="8"/>
     </row>
     <row r="341">
-      <c r="I341" s="5"/>
-      <c r="K341" s="5"/>
+      <c r="G341" s="7"/>
+      <c r="H341" s="7"/>
+      <c r="I341" s="8"/>
+      <c r="K341" s="8"/>
     </row>
     <row r="342">
-      <c r="I342" s="5"/>
-      <c r="K342" s="5"/>
+      <c r="G342" s="7"/>
+      <c r="H342" s="7"/>
+      <c r="I342" s="8"/>
+      <c r="K342" s="8"/>
     </row>
     <row r="343">
-      <c r="I343" s="5"/>
-      <c r="K343" s="5"/>
+      <c r="G343" s="7"/>
+      <c r="H343" s="7"/>
+      <c r="I343" s="8"/>
+      <c r="K343" s="8"/>
     </row>
     <row r="344">
-      <c r="I344" s="5"/>
-      <c r="K344" s="5"/>
+      <c r="G344" s="7"/>
+      <c r="H344" s="7"/>
+      <c r="I344" s="8"/>
+      <c r="K344" s="8"/>
     </row>
     <row r="345">
-      <c r="I345" s="5"/>
-      <c r="K345" s="5"/>
+      <c r="G345" s="7"/>
+      <c r="H345" s="7"/>
+      <c r="I345" s="8"/>
+      <c r="K345" s="8"/>
     </row>
     <row r="346">
-      <c r="I346" s="5"/>
-      <c r="K346" s="5"/>
+      <c r="G346" s="7"/>
+      <c r="H346" s="7"/>
+      <c r="I346" s="8"/>
+      <c r="K346" s="8"/>
     </row>
     <row r="347">
-      <c r="I347" s="5"/>
-      <c r="K347" s="5"/>
+      <c r="G347" s="7"/>
+      <c r="H347" s="7"/>
+      <c r="I347" s="8"/>
+      <c r="K347" s="8"/>
     </row>
     <row r="348">
-      <c r="I348" s="5"/>
-      <c r="K348" s="5"/>
+      <c r="G348" s="7"/>
+      <c r="H348" s="7"/>
+      <c r="I348" s="8"/>
+      <c r="K348" s="8"/>
     </row>
     <row r="349">
-      <c r="I349" s="5"/>
-      <c r="K349" s="5"/>
+      <c r="G349" s="7"/>
+      <c r="H349" s="7"/>
+      <c r="I349" s="8"/>
+      <c r="K349" s="8"/>
     </row>
     <row r="350">
-      <c r="I350" s="5"/>
-      <c r="K350" s="5"/>
+      <c r="G350" s="7"/>
+      <c r="H350" s="7"/>
+      <c r="I350" s="8"/>
+      <c r="K350" s="8"/>
     </row>
     <row r="351">
-      <c r="I351" s="5"/>
-      <c r="K351" s="5"/>
+      <c r="G351" s="7"/>
+      <c r="H351" s="7"/>
+      <c r="I351" s="8"/>
+      <c r="K351" s="8"/>
     </row>
     <row r="352">
-      <c r="I352" s="5"/>
-      <c r="K352" s="5"/>
+      <c r="G352" s="7"/>
+      <c r="H352" s="7"/>
+      <c r="I352" s="8"/>
+      <c r="K352" s="8"/>
     </row>
     <row r="353">
-      <c r="I353" s="5"/>
-      <c r="K353" s="5"/>
+      <c r="G353" s="7"/>
+      <c r="H353" s="7"/>
+      <c r="I353" s="8"/>
+      <c r="K353" s="8"/>
     </row>
     <row r="354">
-      <c r="I354" s="5"/>
-      <c r="K354" s="5"/>
+      <c r="G354" s="7"/>
+      <c r="H354" s="7"/>
+      <c r="I354" s="8"/>
+      <c r="K354" s="8"/>
     </row>
     <row r="355">
-      <c r="I355" s="5"/>
-      <c r="K355" s="5"/>
+      <c r="G355" s="7"/>
+      <c r="H355" s="7"/>
+      <c r="I355" s="8"/>
+      <c r="K355" s="8"/>
     </row>
     <row r="356">
-      <c r="I356" s="5"/>
-      <c r="K356" s="5"/>
+      <c r="G356" s="7"/>
+      <c r="H356" s="7"/>
+      <c r="I356" s="8"/>
+      <c r="K356" s="8"/>
     </row>
     <row r="357">
-      <c r="I357" s="5"/>
-      <c r="K357" s="5"/>
+      <c r="G357" s="7"/>
+      <c r="H357" s="7"/>
+      <c r="I357" s="8"/>
+      <c r="K357" s="8"/>
     </row>
     <row r="358">
-      <c r="I358" s="5"/>
-      <c r="K358" s="5"/>
+      <c r="G358" s="7"/>
+      <c r="H358" s="7"/>
+      <c r="I358" s="8"/>
+      <c r="K358" s="8"/>
     </row>
     <row r="359">
-      <c r="I359" s="5"/>
-      <c r="K359" s="5"/>
+      <c r="G359" s="7"/>
+      <c r="H359" s="7"/>
+      <c r="I359" s="8"/>
+      <c r="K359" s="8"/>
     </row>
     <row r="360">
-      <c r="I360" s="5"/>
-      <c r="K360" s="5"/>
+      <c r="G360" s="7"/>
+      <c r="H360" s="7"/>
+      <c r="I360" s="8"/>
+      <c r="K360" s="8"/>
     </row>
     <row r="361">
-      <c r="I361" s="5"/>
-      <c r="K361" s="5"/>
+      <c r="G361" s="7"/>
+      <c r="H361" s="7"/>
+      <c r="I361" s="8"/>
+      <c r="K361" s="8"/>
     </row>
     <row r="362">
-      <c r="I362" s="5"/>
-      <c r="K362" s="5"/>
+      <c r="G362" s="7"/>
+      <c r="H362" s="7"/>
+      <c r="I362" s="8"/>
+      <c r="K362" s="8"/>
     </row>
     <row r="363">
-      <c r="I363" s="5"/>
-      <c r="K363" s="5"/>
+      <c r="G363" s="7"/>
+      <c r="H363" s="7"/>
+      <c r="I363" s="8"/>
+      <c r="K363" s="8"/>
     </row>
     <row r="364">
-      <c r="I364" s="5"/>
-      <c r="K364" s="5"/>
+      <c r="G364" s="7"/>
+      <c r="H364" s="7"/>
+      <c r="I364" s="8"/>
+      <c r="K364" s="8"/>
     </row>
     <row r="365">
-      <c r="I365" s="5"/>
-      <c r="K365" s="5"/>
+      <c r="G365" s="7"/>
+      <c r="H365" s="7"/>
+      <c r="I365" s="8"/>
+      <c r="K365" s="8"/>
     </row>
     <row r="366">
-      <c r="I366" s="5"/>
-      <c r="K366" s="5"/>
+      <c r="G366" s="7"/>
+      <c r="H366" s="7"/>
+      <c r="I366" s="8"/>
+      <c r="K366" s="8"/>
     </row>
     <row r="367">
-      <c r="I367" s="5"/>
-      <c r="K367" s="5"/>
+      <c r="G367" s="7"/>
+      <c r="H367" s="7"/>
+      <c r="I367" s="8"/>
+      <c r="K367" s="8"/>
     </row>
     <row r="368">
-      <c r="I368" s="5"/>
-      <c r="K368" s="5"/>
+      <c r="G368" s="7"/>
+      <c r="H368" s="7"/>
+      <c r="I368" s="8"/>
+      <c r="K368" s="8"/>
     </row>
     <row r="369">
-      <c r="I369" s="5"/>
-      <c r="K369" s="5"/>
+      <c r="G369" s="7"/>
+      <c r="H369" s="7"/>
+      <c r="I369" s="8"/>
+      <c r="K369" s="8"/>
     </row>
     <row r="370">
-      <c r="I370" s="5"/>
-      <c r="K370" s="5"/>
+      <c r="G370" s="7"/>
+      <c r="H370" s="7"/>
+      <c r="I370" s="8"/>
+      <c r="K370" s="8"/>
     </row>
     <row r="371">
-      <c r="I371" s="5"/>
-      <c r="K371" s="5"/>
+      <c r="G371" s="7"/>
+      <c r="H371" s="7"/>
+      <c r="I371" s="8"/>
+      <c r="K371" s="8"/>
     </row>
     <row r="372">
-      <c r="I372" s="5"/>
-      <c r="K372" s="5"/>
+      <c r="G372" s="7"/>
+      <c r="H372" s="7"/>
+      <c r="I372" s="8"/>
+      <c r="K372" s="8"/>
     </row>
     <row r="373">
-      <c r="I373" s="5"/>
-      <c r="K373" s="5"/>
+      <c r="G373" s="7"/>
+      <c r="H373" s="7"/>
+      <c r="I373" s="8"/>
+      <c r="K373" s="8"/>
     </row>
     <row r="374">
-      <c r="I374" s="5"/>
-      <c r="K374" s="5"/>
+      <c r="G374" s="7"/>
+      <c r="H374" s="7"/>
+      <c r="I374" s="8"/>
+      <c r="K374" s="8"/>
     </row>
     <row r="375">
-      <c r="I375" s="5"/>
-      <c r="K375" s="5"/>
+      <c r="G375" s="7"/>
+      <c r="H375" s="7"/>
+      <c r="I375" s="8"/>
+      <c r="K375" s="8"/>
     </row>
     <row r="376">
-      <c r="I376" s="5"/>
-      <c r="K376" s="5"/>
+      <c r="G376" s="7"/>
+      <c r="H376" s="7"/>
+      <c r="I376" s="8"/>
+      <c r="K376" s="8"/>
     </row>
     <row r="377">
-      <c r="I377" s="5"/>
-      <c r="K377" s="5"/>
+      <c r="G377" s="7"/>
+      <c r="H377" s="7"/>
+      <c r="I377" s="8"/>
+      <c r="K377" s="8"/>
     </row>
     <row r="378">
-      <c r="I378" s="5"/>
-      <c r="K378" s="5"/>
+      <c r="G378" s="7"/>
+      <c r="H378" s="7"/>
+      <c r="I378" s="8"/>
+      <c r="K378" s="8"/>
     </row>
     <row r="379">
-      <c r="I379" s="5"/>
-      <c r="K379" s="5"/>
+      <c r="G379" s="7"/>
+      <c r="H379" s="7"/>
+      <c r="I379" s="8"/>
+      <c r="K379" s="8"/>
     </row>
     <row r="380">
-      <c r="I380" s="5"/>
-      <c r="K380" s="5"/>
+      <c r="G380" s="7"/>
+      <c r="H380" s="7"/>
+      <c r="I380" s="8"/>
+      <c r="K380" s="8"/>
     </row>
     <row r="381">
-      <c r="I381" s="5"/>
-      <c r="K381" s="5"/>
+      <c r="G381" s="7"/>
+      <c r="H381" s="7"/>
+      <c r="I381" s="8"/>
+      <c r="K381" s="8"/>
     </row>
     <row r="382">
-      <c r="I382" s="5"/>
-      <c r="K382" s="5"/>
+      <c r="G382" s="7"/>
+      <c r="H382" s="7"/>
+      <c r="I382" s="8"/>
+      <c r="K382" s="8"/>
     </row>
     <row r="383">
-      <c r="I383" s="5"/>
-      <c r="K383" s="5"/>
+      <c r="G383" s="7"/>
+      <c r="H383" s="7"/>
+      <c r="I383" s="8"/>
+      <c r="K383" s="8"/>
     </row>
     <row r="384">
-      <c r="I384" s="5"/>
-      <c r="K384" s="5"/>
+      <c r="G384" s="7"/>
+      <c r="H384" s="7"/>
+      <c r="I384" s="8"/>
+      <c r="K384" s="8"/>
     </row>
     <row r="385">
-      <c r="I385" s="5"/>
-      <c r="K385" s="5"/>
+      <c r="G385" s="7"/>
+      <c r="H385" s="7"/>
+      <c r="I385" s="8"/>
+      <c r="K385" s="8"/>
     </row>
     <row r="386">
-      <c r="I386" s="5"/>
-      <c r="K386" s="5"/>
+      <c r="G386" s="7"/>
+      <c r="H386" s="7"/>
+      <c r="I386" s="8"/>
+      <c r="K386" s="8"/>
     </row>
     <row r="387">
-      <c r="I387" s="5"/>
-      <c r="K387" s="5"/>
+      <c r="G387" s="7"/>
+      <c r="H387" s="7"/>
+      <c r="I387" s="8"/>
+      <c r="K387" s="8"/>
     </row>
     <row r="388">
-      <c r="I388" s="5"/>
-      <c r="K388" s="5"/>
+      <c r="G388" s="7"/>
+      <c r="H388" s="7"/>
+      <c r="I388" s="8"/>
+      <c r="K388" s="8"/>
     </row>
     <row r="389">
-      <c r="I389" s="5"/>
-      <c r="K389" s="5"/>
+      <c r="G389" s="7"/>
+      <c r="H389" s="7"/>
+      <c r="I389" s="8"/>
+      <c r="K389" s="8"/>
     </row>
     <row r="390">
-      <c r="I390" s="5"/>
-      <c r="K390" s="5"/>
+      <c r="G390" s="7"/>
+      <c r="H390" s="7"/>
+      <c r="I390" s="8"/>
+      <c r="K390" s="8"/>
     </row>
     <row r="391">
-      <c r="I391" s="5"/>
-      <c r="K391" s="5"/>
+      <c r="G391" s="7"/>
+      <c r="H391" s="7"/>
+      <c r="I391" s="8"/>
+      <c r="K391" s="8"/>
     </row>
     <row r="392">
-      <c r="I392" s="5"/>
-      <c r="K392" s="5"/>
+      <c r="G392" s="7"/>
+      <c r="H392" s="7"/>
+      <c r="I392" s="8"/>
+      <c r="K392" s="8"/>
     </row>
     <row r="393">
-      <c r="I393" s="5"/>
-      <c r="K393" s="5"/>
+      <c r="G393" s="7"/>
+      <c r="H393" s="7"/>
+      <c r="I393" s="8"/>
+      <c r="K393" s="8"/>
     </row>
     <row r="394">
-      <c r="I394" s="5"/>
-      <c r="K394" s="5"/>
+      <c r="G394" s="7"/>
+      <c r="H394" s="7"/>
+      <c r="I394" s="8"/>
+      <c r="K394" s="8"/>
     </row>
     <row r="395">
-      <c r="I395" s="5"/>
-      <c r="K395" s="5"/>
+      <c r="G395" s="7"/>
+      <c r="H395" s="7"/>
+      <c r="I395" s="8"/>
+      <c r="K395" s="8"/>
     </row>
     <row r="396">
-      <c r="I396" s="5"/>
-      <c r="K396" s="5"/>
+      <c r="G396" s="7"/>
+      <c r="H396" s="7"/>
+      <c r="I396" s="8"/>
+      <c r="K396" s="8"/>
     </row>
     <row r="397">
-      <c r="I397" s="5"/>
-      <c r="K397" s="5"/>
+      <c r="G397" s="7"/>
+      <c r="H397" s="7"/>
+      <c r="I397" s="8"/>
+      <c r="K397" s="8"/>
     </row>
     <row r="398">
-      <c r="I398" s="5"/>
-      <c r="K398" s="5"/>
+      <c r="G398" s="7"/>
+      <c r="H398" s="7"/>
+      <c r="I398" s="8"/>
+      <c r="K398" s="8"/>
     </row>
     <row r="399">
-      <c r="I399" s="5"/>
-      <c r="K399" s="5"/>
+      <c r="G399" s="7"/>
+      <c r="H399" s="7"/>
+      <c r="I399" s="8"/>
+      <c r="K399" s="8"/>
     </row>
     <row r="400">
-      <c r="I400" s="5"/>
-      <c r="K400" s="5"/>
+      <c r="G400" s="7"/>
+      <c r="H400" s="7"/>
+      <c r="I400" s="8"/>
+      <c r="K400" s="8"/>
     </row>
     <row r="401">
-      <c r="I401" s="5"/>
-      <c r="K401" s="5"/>
+      <c r="G401" s="7"/>
+      <c r="H401" s="7"/>
+      <c r="I401" s="8"/>
+      <c r="K401" s="8"/>
     </row>
     <row r="402">
-      <c r="I402" s="5"/>
-      <c r="K402" s="5"/>
+      <c r="G402" s="7"/>
+      <c r="H402" s="7"/>
+      <c r="I402" s="8"/>
+      <c r="K402" s="8"/>
     </row>
     <row r="403">
-      <c r="I403" s="5"/>
-      <c r="K403" s="5"/>
+      <c r="G403" s="7"/>
+      <c r="H403" s="7"/>
+      <c r="I403" s="8"/>
+      <c r="K403" s="8"/>
     </row>
     <row r="404">
-      <c r="I404" s="5"/>
-      <c r="K404" s="5"/>
+      <c r="G404" s="7"/>
+      <c r="H404" s="7"/>
+      <c r="I404" s="8"/>
+      <c r="K404" s="8"/>
     </row>
     <row r="405">
-      <c r="I405" s="5"/>
-      <c r="K405" s="5"/>
+      <c r="G405" s="7"/>
+      <c r="H405" s="7"/>
+      <c r="I405" s="8"/>
+      <c r="K405" s="8"/>
     </row>
     <row r="406">
-      <c r="I406" s="5"/>
-      <c r="K406" s="5"/>
+      <c r="G406" s="7"/>
+      <c r="H406" s="7"/>
+      <c r="I406" s="8"/>
+      <c r="K406" s="8"/>
     </row>
     <row r="407">
-      <c r="I407" s="5"/>
-      <c r="K407" s="5"/>
+      <c r="G407" s="7"/>
+      <c r="H407" s="7"/>
+      <c r="I407" s="8"/>
+      <c r="K407" s="8"/>
     </row>
     <row r="408">
-      <c r="I408" s="5"/>
-      <c r="K408" s="5"/>
+      <c r="G408" s="7"/>
+      <c r="H408" s="7"/>
+      <c r="I408" s="8"/>
+      <c r="K408" s="8"/>
     </row>
     <row r="409">
-      <c r="I409" s="5"/>
-      <c r="K409" s="5"/>
+      <c r="G409" s="7"/>
+      <c r="H409" s="7"/>
+      <c r="I409" s="8"/>
+      <c r="K409" s="8"/>
     </row>
     <row r="410">
-      <c r="I410" s="5"/>
-      <c r="K410" s="5"/>
+      <c r="G410" s="7"/>
+      <c r="H410" s="7"/>
+      <c r="I410" s="8"/>
+      <c r="K410" s="8"/>
     </row>
     <row r="411">
-      <c r="I411" s="5"/>
-      <c r="K411" s="5"/>
+      <c r="G411" s="7"/>
+      <c r="H411" s="7"/>
+      <c r="I411" s="8"/>
+      <c r="K411" s="8"/>
     </row>
     <row r="412">
-      <c r="I412" s="5"/>
-      <c r="K412" s="5"/>
+      <c r="G412" s="7"/>
+      <c r="H412" s="7"/>
+      <c r="I412" s="8"/>
+      <c r="K412" s="8"/>
     </row>
     <row r="413">
-      <c r="I413" s="5"/>
-      <c r="K413" s="5"/>
+      <c r="G413" s="7"/>
+      <c r="H413" s="7"/>
+      <c r="I413" s="8"/>
+      <c r="K413" s="8"/>
     </row>
     <row r="414">
-      <c r="I414" s="5"/>
-      <c r="K414" s="5"/>
+      <c r="G414" s="7"/>
+      <c r="H414" s="7"/>
+      <c r="I414" s="8"/>
+      <c r="K414" s="8"/>
     </row>
     <row r="415">
-      <c r="I415" s="5"/>
-      <c r="K415" s="5"/>
+      <c r="G415" s="7"/>
+      <c r="H415" s="7"/>
+      <c r="I415" s="8"/>
+      <c r="K415" s="8"/>
     </row>
     <row r="416">
-      <c r="I416" s="5"/>
-      <c r="K416" s="5"/>
+      <c r="G416" s="7"/>
+      <c r="H416" s="7"/>
+      <c r="I416" s="8"/>
+      <c r="K416" s="8"/>
     </row>
     <row r="417">
-      <c r="I417" s="5"/>
-      <c r="K417" s="5"/>
+      <c r="G417" s="7"/>
+      <c r="H417" s="7"/>
+      <c r="I417" s="8"/>
+      <c r="K417" s="8"/>
     </row>
     <row r="418">
-      <c r="I418" s="5"/>
-      <c r="K418" s="5"/>
+      <c r="G418" s="7"/>
+      <c r="H418" s="7"/>
+      <c r="I418" s="8"/>
+      <c r="K418" s="8"/>
     </row>
     <row r="419">
-      <c r="I419" s="5"/>
-      <c r="K419" s="5"/>
+      <c r="G419" s="7"/>
+      <c r="H419" s="7"/>
+      <c r="I419" s="8"/>
+      <c r="K419" s="8"/>
     </row>
     <row r="420">
-      <c r="I420" s="5"/>
-      <c r="K420" s="5"/>
+      <c r="G420" s="7"/>
+      <c r="H420" s="7"/>
+      <c r="I420" s="8"/>
+      <c r="K420" s="8"/>
     </row>
     <row r="421">
-      <c r="I421" s="5"/>
-      <c r="K421" s="5"/>
+      <c r="G421" s="7"/>
+      <c r="H421" s="7"/>
+      <c r="I421" s="8"/>
+      <c r="K421" s="8"/>
     </row>
     <row r="422">
-      <c r="I422" s="5"/>
-      <c r="K422" s="5"/>
+      <c r="G422" s="7"/>
+      <c r="H422" s="7"/>
+      <c r="I422" s="8"/>
+      <c r="K422" s="8"/>
     </row>
     <row r="423">
-      <c r="I423" s="5"/>
-      <c r="K423" s="5"/>
+      <c r="G423" s="7"/>
+      <c r="H423" s="7"/>
+      <c r="I423" s="8"/>
+      <c r="K423" s="8"/>
     </row>
     <row r="424">
-      <c r="I424" s="5"/>
-      <c r="K424" s="5"/>
+      <c r="G424" s="7"/>
+      <c r="H424" s="7"/>
+      <c r="I424" s="8"/>
+      <c r="K424" s="8"/>
     </row>
     <row r="425">
-      <c r="I425" s="5"/>
-      <c r="K425" s="5"/>
+      <c r="G425" s="7"/>
+      <c r="H425" s="7"/>
+      <c r="I425" s="8"/>
+      <c r="K425" s="8"/>
     </row>
     <row r="426">
-      <c r="I426" s="5"/>
-      <c r="K426" s="5"/>
+      <c r="G426" s="7"/>
+      <c r="H426" s="7"/>
+      <c r="I426" s="8"/>
+      <c r="K426" s="8"/>
     </row>
     <row r="427">
-      <c r="I427" s="5"/>
-      <c r="K427" s="5"/>
+      <c r="G427" s="7"/>
+      <c r="H427" s="7"/>
+      <c r="I427" s="8"/>
+      <c r="K427" s="8"/>
     </row>
     <row r="428">
-      <c r="I428" s="5"/>
-      <c r="K428" s="5"/>
+      <c r="G428" s="7"/>
+      <c r="H428" s="7"/>
+      <c r="I428" s="8"/>
+      <c r="K428" s="8"/>
     </row>
     <row r="429">
-      <c r="I429" s="5"/>
-      <c r="K429" s="5"/>
+      <c r="G429" s="7"/>
+      <c r="H429" s="7"/>
+      <c r="I429" s="8"/>
+      <c r="K429" s="8"/>
     </row>
     <row r="430">
-      <c r="I430" s="5"/>
-      <c r="K430" s="5"/>
+      <c r="G430" s="7"/>
+      <c r="H430" s="7"/>
+      <c r="I430" s="8"/>
+      <c r="K430" s="8"/>
     </row>
     <row r="431">
-      <c r="I431" s="5"/>
-      <c r="K431" s="5"/>
+      <c r="G431" s="7"/>
+      <c r="H431" s="7"/>
+      <c r="I431" s="8"/>
+      <c r="K431" s="8"/>
     </row>
     <row r="432">
-      <c r="I432" s="5"/>
-      <c r="K432" s="5"/>
+      <c r="G432" s="7"/>
+      <c r="H432" s="7"/>
+      <c r="I432" s="8"/>
+      <c r="K432" s="8"/>
     </row>
     <row r="433">
-      <c r="I433" s="5"/>
-      <c r="K433" s="5"/>
+      <c r="G433" s="7"/>
+      <c r="H433" s="7"/>
+      <c r="I433" s="8"/>
+      <c r="K433" s="8"/>
     </row>
     <row r="434">
-      <c r="I434" s="5"/>
-      <c r="K434" s="5"/>
+      <c r="G434" s="7"/>
+      <c r="H434" s="7"/>
+      <c r="I434" s="8"/>
+      <c r="K434" s="8"/>
     </row>
     <row r="435">
-      <c r="I435" s="5"/>
-      <c r="K435" s="5"/>
+      <c r="G435" s="7"/>
+      <c r="H435" s="7"/>
+      <c r="I435" s="8"/>
+      <c r="K435" s="8"/>
     </row>
     <row r="436">
-      <c r="I436" s="5"/>
-      <c r="K436" s="5"/>
+      <c r="G436" s="7"/>
+      <c r="H436" s="7"/>
+      <c r="I436" s="8"/>
+      <c r="K436" s="8"/>
     </row>
     <row r="437">
-      <c r="I437" s="5"/>
-      <c r="K437" s="5"/>
+      <c r="G437" s="7"/>
+      <c r="H437" s="7"/>
+      <c r="I437" s="8"/>
+      <c r="K437" s="8"/>
     </row>
     <row r="438">
-      <c r="I438" s="5"/>
-      <c r="K438" s="5"/>
+      <c r="G438" s="7"/>
+      <c r="H438" s="7"/>
+      <c r="I438" s="8"/>
+      <c r="K438" s="8"/>
     </row>
     <row r="439">
-      <c r="I439" s="5"/>
-      <c r="K439" s="5"/>
+      <c r="G439" s="7"/>
+      <c r="H439" s="7"/>
+      <c r="I439" s="8"/>
+      <c r="K439" s="8"/>
     </row>
     <row r="440">
-      <c r="I440" s="5"/>
-      <c r="K440" s="5"/>
+      <c r="G440" s="7"/>
+      <c r="H440" s="7"/>
+      <c r="I440" s="8"/>
+      <c r="K440" s="8"/>
     </row>
     <row r="441">
-      <c r="I441" s="5"/>
-      <c r="K441" s="5"/>
+      <c r="G441" s="7"/>
+      <c r="H441" s="7"/>
+      <c r="I441" s="8"/>
+      <c r="K441" s="8"/>
     </row>
     <row r="442">
-      <c r="I442" s="5"/>
-      <c r="K442" s="5"/>
+      <c r="G442" s="7"/>
+      <c r="H442" s="7"/>
+      <c r="I442" s="8"/>
+      <c r="K442" s="8"/>
     </row>
     <row r="443">
-      <c r="I443" s="5"/>
-      <c r="K443" s="5"/>
+      <c r="G443" s="7"/>
+      <c r="H443" s="7"/>
+      <c r="I443" s="8"/>
+      <c r="K443" s="8"/>
     </row>
     <row r="444">
-      <c r="I444" s="5"/>
-      <c r="K444" s="5"/>
+      <c r="G444" s="7"/>
+      <c r="H444" s="7"/>
+      <c r="I444" s="8"/>
+      <c r="K444" s="8"/>
     </row>
     <row r="445">
-      <c r="I445" s="5"/>
-      <c r="K445" s="5"/>
+      <c r="G445" s="7"/>
+      <c r="H445" s="7"/>
+      <c r="I445" s="8"/>
+      <c r="K445" s="8"/>
     </row>
     <row r="446">
-      <c r="I446" s="5"/>
-      <c r="K446" s="5"/>
+      <c r="G446" s="7"/>
+      <c r="H446" s="7"/>
+      <c r="I446" s="8"/>
+      <c r="K446" s="8"/>
     </row>
     <row r="447">
-      <c r="I447" s="5"/>
-      <c r="K447" s="5"/>
+      <c r="G447" s="7"/>
+      <c r="H447" s="7"/>
+      <c r="I447" s="8"/>
+      <c r="K447" s="8"/>
     </row>
     <row r="448">
-      <c r="I448" s="5"/>
-      <c r="K448" s="5"/>
+      <c r="G448" s="7"/>
+      <c r="H448" s="7"/>
+      <c r="I448" s="8"/>
+      <c r="K448" s="8"/>
     </row>
     <row r="449">
-      <c r="I449" s="5"/>
-      <c r="K449" s="5"/>
+      <c r="G449" s="7"/>
+      <c r="H449" s="7"/>
+      <c r="I449" s="8"/>
+      <c r="K449" s="8"/>
     </row>
     <row r="450">
-      <c r="I450" s="5"/>
-      <c r="K450" s="5"/>
+      <c r="G450" s="7"/>
+      <c r="H450" s="7"/>
+      <c r="I450" s="8"/>
+      <c r="K450" s="8"/>
     </row>
     <row r="451">
-      <c r="I451" s="5"/>
-      <c r="K451" s="5"/>
+      <c r="G451" s="7"/>
+      <c r="H451" s="7"/>
+      <c r="I451" s="8"/>
+      <c r="K451" s="8"/>
     </row>
     <row r="452">
-      <c r="I452" s="5"/>
-      <c r="K452" s="5"/>
+      <c r="G452" s="7"/>
+      <c r="H452" s="7"/>
+      <c r="I452" s="8"/>
+      <c r="K452" s="8"/>
     </row>
     <row r="453">
-      <c r="I453" s="5"/>
-      <c r="K453" s="5"/>
+      <c r="G453" s="7"/>
+      <c r="H453" s="7"/>
+      <c r="I453" s="8"/>
+      <c r="K453" s="8"/>
     </row>
     <row r="454">
-      <c r="I454" s="5"/>
-      <c r="K454" s="5"/>
+      <c r="G454" s="7"/>
+      <c r="H454" s="7"/>
+      <c r="I454" s="8"/>
+      <c r="K454" s="8"/>
     </row>
     <row r="455">
-      <c r="I455" s="5"/>
-      <c r="K455" s="5"/>
+      <c r="G455" s="7"/>
+      <c r="H455" s="7"/>
+      <c r="I455" s="8"/>
+      <c r="K455" s="8"/>
     </row>
     <row r="456">
-      <c r="I456" s="5"/>
-      <c r="K456" s="5"/>
+      <c r="G456" s="7"/>
+      <c r="H456" s="7"/>
+      <c r="I456" s="8"/>
+      <c r="K456" s="8"/>
     </row>
     <row r="457">
-      <c r="I457" s="5"/>
-      <c r="K457" s="5"/>
+      <c r="G457" s="7"/>
+      <c r="H457" s="7"/>
+      <c r="I457" s="8"/>
+      <c r="K457" s="8"/>
     </row>
     <row r="458">
-      <c r="I458" s="5"/>
-      <c r="K458" s="5"/>
+      <c r="G458" s="7"/>
+      <c r="H458" s="7"/>
+      <c r="I458" s="8"/>
+      <c r="K458" s="8"/>
     </row>
     <row r="459">
-      <c r="I459" s="5"/>
-      <c r="K459" s="5"/>
+      <c r="G459" s="7"/>
+      <c r="H459" s="7"/>
+      <c r="I459" s="8"/>
+      <c r="K459" s="8"/>
     </row>
     <row r="460">
-      <c r="I460" s="5"/>
-      <c r="K460" s="5"/>
+      <c r="G460" s="7"/>
+      <c r="H460" s="7"/>
+      <c r="I460" s="8"/>
+      <c r="K460" s="8"/>
     </row>
     <row r="461">
-      <c r="I461" s="5"/>
-      <c r="K461" s="5"/>
+      <c r="G461" s="7"/>
+      <c r="H461" s="7"/>
+      <c r="I461" s="8"/>
+      <c r="K461" s="8"/>
     </row>
     <row r="462">
-      <c r="I462" s="5"/>
-      <c r="K462" s="5"/>
+      <c r="G462" s="7"/>
+      <c r="H462" s="7"/>
+      <c r="I462" s="8"/>
+      <c r="K462" s="8"/>
     </row>
     <row r="463">
-      <c r="I463" s="5"/>
-      <c r="K463" s="5"/>
+      <c r="G463" s="7"/>
+      <c r="H463" s="7"/>
+      <c r="I463" s="8"/>
+      <c r="K463" s="8"/>
     </row>
     <row r="464">
-      <c r="I464" s="5"/>
-      <c r="K464" s="5"/>
+      <c r="G464" s="7"/>
+      <c r="H464" s="7"/>
+      <c r="I464" s="8"/>
+      <c r="K464" s="8"/>
     </row>
     <row r="465">
-      <c r="I465" s="5"/>
-      <c r="K465" s="5"/>
+      <c r="G465" s="7"/>
+      <c r="H465" s="7"/>
+      <c r="I465" s="8"/>
+      <c r="K465" s="8"/>
     </row>
     <row r="466">
-      <c r="I466" s="5"/>
-      <c r="K466" s="5"/>
+      <c r="G466" s="7"/>
+      <c r="H466" s="7"/>
+      <c r="I466" s="8"/>
+      <c r="K466" s="8"/>
     </row>
     <row r="467">
-      <c r="I467" s="5"/>
-      <c r="K467" s="5"/>
+      <c r="G467" s="7"/>
+      <c r="H467" s="7"/>
+      <c r="I467" s="8"/>
+      <c r="K467" s="8"/>
     </row>
     <row r="468">
-      <c r="I468" s="5"/>
-      <c r="K468" s="5"/>
+      <c r="G468" s="7"/>
+      <c r="H468" s="7"/>
+      <c r="I468" s="8"/>
+      <c r="K468" s="8"/>
     </row>
     <row r="469">
-      <c r="I469" s="5"/>
-      <c r="K469" s="5"/>
+      <c r="G469" s="7"/>
+      <c r="H469" s="7"/>
+      <c r="I469" s="8"/>
+      <c r="K469" s="8"/>
     </row>
     <row r="470">
-      <c r="I470" s="5"/>
-      <c r="K470" s="5"/>
+      <c r="G470" s="7"/>
+      <c r="H470" s="7"/>
+      <c r="I470" s="8"/>
+      <c r="K470" s="8"/>
     </row>
     <row r="471">
-      <c r="I471" s="5"/>
-      <c r="K471" s="5"/>
+      <c r="G471" s="7"/>
+      <c r="H471" s="7"/>
+      <c r="I471" s="8"/>
+      <c r="K471" s="8"/>
     </row>
     <row r="472">
-      <c r="I472" s="5"/>
-      <c r="K472" s="5"/>
+      <c r="G472" s="7"/>
+      <c r="H472" s="7"/>
+      <c r="I472" s="8"/>
+      <c r="K472" s="8"/>
     </row>
     <row r="473">
-      <c r="I473" s="5"/>
-      <c r="K473" s="5"/>
+      <c r="G473" s="7"/>
+      <c r="H473" s="7"/>
+      <c r="I473" s="8"/>
+      <c r="K473" s="8"/>
     </row>
     <row r="474">
-      <c r="I474" s="5"/>
-      <c r="K474" s="5"/>
+      <c r="G474" s="7"/>
+      <c r="H474" s="7"/>
+      <c r="I474" s="8"/>
+      <c r="K474" s="8"/>
     </row>
     <row r="475">
-      <c r="I475" s="5"/>
-      <c r="K475" s="5"/>
+      <c r="G475" s="7"/>
+      <c r="H475" s="7"/>
+      <c r="I475" s="8"/>
+      <c r="K475" s="8"/>
     </row>
     <row r="476">
-      <c r="I476" s="5"/>
-      <c r="K476" s="5"/>
+      <c r="G476" s="7"/>
+      <c r="H476" s="7"/>
+      <c r="I476" s="8"/>
+      <c r="K476" s="8"/>
     </row>
     <row r="477">
-      <c r="I477" s="5"/>
-      <c r="K477" s="5"/>
+      <c r="G477" s="7"/>
+      <c r="H477" s="7"/>
+      <c r="I477" s="8"/>
+      <c r="K477" s="8"/>
     </row>
     <row r="478">
-      <c r="I478" s="5"/>
-      <c r="K478" s="5"/>
+      <c r="G478" s="7"/>
+      <c r="H478" s="7"/>
+      <c r="I478" s="8"/>
+      <c r="K478" s="8"/>
     </row>
     <row r="479">
-      <c r="I479" s="5"/>
-      <c r="K479" s="5"/>
+      <c r="G479" s="7"/>
+      <c r="H479" s="7"/>
+      <c r="I479" s="8"/>
+      <c r="K479" s="8"/>
     </row>
     <row r="480">
-      <c r="I480" s="5"/>
-      <c r="K480" s="5"/>
+      <c r="G480" s="7"/>
+      <c r="H480" s="7"/>
+      <c r="I480" s="8"/>
+      <c r="K480" s="8"/>
     </row>
     <row r="481">
-      <c r="I481" s="5"/>
-      <c r="K481" s="5"/>
+      <c r="G481" s="7"/>
+      <c r="H481" s="7"/>
+      <c r="I481" s="8"/>
+      <c r="K481" s="8"/>
     </row>
     <row r="482">
-      <c r="I482" s="5"/>
-      <c r="K482" s="5"/>
+      <c r="G482" s="7"/>
+      <c r="H482" s="7"/>
+      <c r="I482" s="8"/>
+      <c r="K482" s="8"/>
     </row>
     <row r="483">
-      <c r="I483" s="5"/>
-      <c r="K483" s="5"/>
+      <c r="G483" s="7"/>
+      <c r="H483" s="7"/>
+      <c r="I483" s="8"/>
+      <c r="K483" s="8"/>
     </row>
     <row r="484">
-      <c r="I484" s="5"/>
-      <c r="K484" s="5"/>
+      <c r="G484" s="7"/>
+      <c r="H484" s="7"/>
+      <c r="I484" s="8"/>
+      <c r="K484" s="8"/>
     </row>
     <row r="485">
-      <c r="I485" s="5"/>
-      <c r="K485" s="5"/>
+      <c r="G485" s="7"/>
+      <c r="H485" s="7"/>
+      <c r="I485" s="8"/>
+      <c r="K485" s="8"/>
     </row>
     <row r="486">
-      <c r="I486" s="5"/>
-      <c r="K486" s="5"/>
+      <c r="G486" s="7"/>
+      <c r="H486" s="7"/>
+      <c r="I486" s="8"/>
+      <c r="K486" s="8"/>
     </row>
     <row r="487">
-      <c r="I487" s="5"/>
-      <c r="K487" s="5"/>
+      <c r="G487" s="7"/>
+      <c r="H487" s="7"/>
+      <c r="I487" s="8"/>
+      <c r="K487" s="8"/>
     </row>
     <row r="488">
-      <c r="I488" s="5"/>
-      <c r="K488" s="5"/>
+      <c r="G488" s="7"/>
+      <c r="H488" s="7"/>
+      <c r="I488" s="8"/>
+      <c r="K488" s="8"/>
     </row>
     <row r="489">
-      <c r="I489" s="5"/>
-      <c r="K489" s="5"/>
+      <c r="G489" s="7"/>
+      <c r="H489" s="7"/>
+      <c r="I489" s="8"/>
+      <c r="K489" s="8"/>
     </row>
     <row r="490">
-      <c r="I490" s="5"/>
-      <c r="K490" s="5"/>
+      <c r="G490" s="7"/>
+      <c r="H490" s="7"/>
+      <c r="I490" s="8"/>
+      <c r="K490" s="8"/>
     </row>
     <row r="491">
-      <c r="I491" s="5"/>
-      <c r="K491" s="5"/>
+      <c r="G491" s="7"/>
+      <c r="H491" s="7"/>
+      <c r="I491" s="8"/>
+      <c r="K491" s="8"/>
     </row>
     <row r="492">
-      <c r="I492" s="5"/>
-      <c r="K492" s="5"/>
+      <c r="G492" s="7"/>
+      <c r="H492" s="7"/>
+      <c r="I492" s="8"/>
+      <c r="K492" s="8"/>
     </row>
     <row r="493">
-      <c r="I493" s="5"/>
-      <c r="K493" s="5"/>
+      <c r="G493" s="7"/>
+      <c r="H493" s="7"/>
+      <c r="I493" s="8"/>
+      <c r="K493" s="8"/>
     </row>
     <row r="494">
-      <c r="I494" s="5"/>
-      <c r="K494" s="5"/>
+      <c r="G494" s="7"/>
+      <c r="H494" s="7"/>
+      <c r="I494" s="8"/>
+      <c r="K494" s="8"/>
     </row>
     <row r="495">
-      <c r="I495" s="5"/>
-      <c r="K495" s="5"/>
+      <c r="G495" s="7"/>
+      <c r="H495" s="7"/>
+      <c r="I495" s="8"/>
+      <c r="K495" s="8"/>
     </row>
     <row r="496">
-      <c r="I496" s="5"/>
-      <c r="K496" s="5"/>
+      <c r="G496" s="7"/>
+      <c r="H496" s="7"/>
+      <c r="I496" s="8"/>
+      <c r="K496" s="8"/>
     </row>
     <row r="497">
-      <c r="I497" s="5"/>
-      <c r="K497" s="5"/>
+      <c r="G497" s="7"/>
+      <c r="H497" s="7"/>
+      <c r="I497" s="8"/>
+      <c r="K497" s="8"/>
     </row>
     <row r="498">
-      <c r="I498" s="5"/>
-      <c r="K498" s="5"/>
+      <c r="G498" s="7"/>
+      <c r="H498" s="7"/>
+      <c r="I498" s="8"/>
+      <c r="K498" s="8"/>
     </row>
     <row r="499">
-      <c r="I499" s="5"/>
-      <c r="K499" s="5"/>
+      <c r="G499" s="7"/>
+      <c r="H499" s="7"/>
+      <c r="I499" s="8"/>
+      <c r="K499" s="8"/>
     </row>
     <row r="500">
-      <c r="I500" s="5"/>
-      <c r="K500" s="5"/>
+      <c r="G500" s="7"/>
+      <c r="H500" s="7"/>
+      <c r="I500" s="8"/>
+      <c r="K500" s="8"/>
     </row>
     <row r="501">
-      <c r="I501" s="5"/>
-      <c r="K501" s="5"/>
+      <c r="G501" s="7"/>
+      <c r="H501" s="7"/>
+      <c r="I501" s="8"/>
+      <c r="K501" s="8"/>
     </row>
     <row r="502">
-      <c r="I502" s="5"/>
-      <c r="K502" s="5"/>
+      <c r="G502" s="7"/>
+      <c r="H502" s="7"/>
+      <c r="I502" s="8"/>
+      <c r="K502" s="8"/>
     </row>
     <row r="503">
-      <c r="I503" s="5"/>
-      <c r="K503" s="5"/>
+      <c r="G503" s="7"/>
+      <c r="H503" s="7"/>
+      <c r="I503" s="8"/>
+      <c r="K503" s="8"/>
     </row>
     <row r="504">
-      <c r="I504" s="5"/>
-      <c r="K504" s="5"/>
+      <c r="G504" s="7"/>
+      <c r="H504" s="7"/>
+      <c r="I504" s="8"/>
+      <c r="K504" s="8"/>
     </row>
     <row r="505">
-      <c r="I505" s="5"/>
-      <c r="K505" s="5"/>
+      <c r="G505" s="7"/>
+      <c r="H505" s="7"/>
+      <c r="I505" s="8"/>
+      <c r="K505" s="8"/>
     </row>
     <row r="506">
-      <c r="I506" s="5"/>
-      <c r="K506" s="5"/>
+      <c r="G506" s="7"/>
+      <c r="H506" s="7"/>
+      <c r="I506" s="8"/>
+      <c r="K506" s="8"/>
     </row>
     <row r="507">
-      <c r="I507" s="5"/>
-      <c r="K507" s="5"/>
+      <c r="G507" s="7"/>
+      <c r="H507" s="7"/>
+      <c r="I507" s="8"/>
+      <c r="K507" s="8"/>
     </row>
     <row r="508">
-      <c r="I508" s="5"/>
-      <c r="K508" s="5"/>
+      <c r="G508" s="7"/>
+      <c r="H508" s="7"/>
+      <c r="I508" s="8"/>
+      <c r="K508" s="8"/>
     </row>
     <row r="509">
-      <c r="I509" s="5"/>
-      <c r="K509" s="5"/>
+      <c r="G509" s="7"/>
+      <c r="H509" s="7"/>
+      <c r="I509" s="8"/>
+      <c r="K509" s="8"/>
     </row>
     <row r="510">
-      <c r="I510" s="5"/>
-      <c r="K510" s="5"/>
+      <c r="G510" s="7"/>
+      <c r="H510" s="7"/>
+      <c r="I510" s="8"/>
+      <c r="K510" s="8"/>
     </row>
     <row r="511">
-      <c r="I511" s="5"/>
-      <c r="K511" s="5"/>
+      <c r="G511" s="7"/>
+      <c r="H511" s="7"/>
+      <c r="I511" s="8"/>
+      <c r="K511" s="8"/>
     </row>
     <row r="512">
-      <c r="I512" s="5"/>
-      <c r="K512" s="5"/>
+      <c r="G512" s="7"/>
+      <c r="H512" s="7"/>
+      <c r="I512" s="8"/>
+      <c r="K512" s="8"/>
     </row>
     <row r="513">
-      <c r="I513" s="5"/>
-      <c r="K513" s="5"/>
+      <c r="G513" s="7"/>
+      <c r="H513" s="7"/>
+      <c r="I513" s="8"/>
+      <c r="K513" s="8"/>
     </row>
     <row r="514">
-      <c r="I514" s="5"/>
-      <c r="K514" s="5"/>
+      <c r="G514" s="7"/>
+      <c r="H514" s="7"/>
+      <c r="I514" s="8"/>
+      <c r="K514" s="8"/>
     </row>
     <row r="515">
-      <c r="I515" s="5"/>
-      <c r="K515" s="5"/>
+      <c r="G515" s="7"/>
+      <c r="H515" s="7"/>
+      <c r="I515" s="8"/>
+      <c r="K515" s="8"/>
     </row>
     <row r="516">
-      <c r="I516" s="5"/>
-      <c r="K516" s="5"/>
+      <c r="G516" s="7"/>
+      <c r="H516" s="7"/>
+      <c r="I516" s="8"/>
+      <c r="K516" s="8"/>
     </row>
     <row r="517">
-      <c r="I517" s="5"/>
-      <c r="K517" s="5"/>
+      <c r="G517" s="7"/>
+      <c r="H517" s="7"/>
+      <c r="I517" s="8"/>
+      <c r="K517" s="8"/>
     </row>
     <row r="518">
-      <c r="I518" s="5"/>
-      <c r="K518" s="5"/>
+      <c r="G518" s="7"/>
+      <c r="H518" s="7"/>
+      <c r="I518" s="8"/>
+      <c r="K518" s="8"/>
     </row>
     <row r="519">
-      <c r="I519" s="5"/>
-      <c r="K519" s="5"/>
+      <c r="G519" s="7"/>
+      <c r="H519" s="7"/>
+      <c r="I519" s="8"/>
+      <c r="K519" s="8"/>
     </row>
     <row r="520">
-      <c r="I520" s="5"/>
-      <c r="K520" s="5"/>
+      <c r="G520" s="7"/>
+      <c r="H520" s="7"/>
+      <c r="I520" s="8"/>
+      <c r="K520" s="8"/>
     </row>
     <row r="521">
-      <c r="I521" s="5"/>
-      <c r="K521" s="5"/>
+      <c r="G521" s="7"/>
+      <c r="H521" s="7"/>
+      <c r="I521" s="8"/>
+      <c r="K521" s="8"/>
     </row>
     <row r="522">
-      <c r="I522" s="5"/>
-      <c r="K522" s="5"/>
+      <c r="G522" s="7"/>
+      <c r="H522" s="7"/>
+      <c r="I522" s="8"/>
+      <c r="K522" s="8"/>
     </row>
     <row r="523">
-      <c r="I523" s="5"/>
-      <c r="K523" s="5"/>
+      <c r="G523" s="7"/>
+      <c r="H523" s="7"/>
+      <c r="I523" s="8"/>
+      <c r="K523" s="8"/>
     </row>
     <row r="524">
-      <c r="I524" s="5"/>
-      <c r="K524" s="5"/>
+      <c r="G524" s="7"/>
+      <c r="H524" s="7"/>
+      <c r="I524" s="8"/>
+      <c r="K524" s="8"/>
     </row>
     <row r="525">
-      <c r="I525" s="5"/>
-      <c r="K525" s="5"/>
+      <c r="G525" s="7"/>
+      <c r="H525" s="7"/>
+      <c r="I525" s="8"/>
+      <c r="K525" s="8"/>
     </row>
     <row r="526">
-      <c r="I526" s="5"/>
-      <c r="K526" s="5"/>
+      <c r="G526" s="7"/>
+      <c r="H526" s="7"/>
+      <c r="I526" s="8"/>
+      <c r="K526" s="8"/>
     </row>
     <row r="527">
-      <c r="I527" s="5"/>
-      <c r="K527" s="5"/>
+      <c r="G527" s="7"/>
+      <c r="H527" s="7"/>
+      <c r="I527" s="8"/>
+      <c r="K527" s="8"/>
     </row>
     <row r="528">
-      <c r="I528" s="5"/>
-      <c r="K528" s="5"/>
+      <c r="G528" s="7"/>
+      <c r="H528" s="7"/>
+      <c r="I528" s="8"/>
+      <c r="K528" s="8"/>
     </row>
     <row r="529">
-      <c r="I529" s="5"/>
-      <c r="K529" s="5"/>
+      <c r="G529" s="7"/>
+      <c r="H529" s="7"/>
+      <c r="I529" s="8"/>
+      <c r="K529" s="8"/>
     </row>
     <row r="530">
-      <c r="I530" s="5"/>
-      <c r="K530" s="5"/>
+      <c r="G530" s="7"/>
+      <c r="H530" s="7"/>
+      <c r="I530" s="8"/>
+      <c r="K530" s="8"/>
     </row>
     <row r="531">
-      <c r="I531" s="5"/>
-      <c r="K531" s="5"/>
+      <c r="G531" s="7"/>
+      <c r="H531" s="7"/>
+      <c r="I531" s="8"/>
+      <c r="K531" s="8"/>
     </row>
     <row r="532">
-      <c r="I532" s="5"/>
-      <c r="K532" s="5"/>
+      <c r="G532" s="7"/>
+      <c r="H532" s="7"/>
+      <c r="I532" s="8"/>
+      <c r="K532" s="8"/>
     </row>
     <row r="533">
-      <c r="I533" s="5"/>
-      <c r="K533" s="5"/>
+      <c r="G533" s="7"/>
+      <c r="H533" s="7"/>
+      <c r="I533" s="8"/>
+      <c r="K533" s="8"/>
     </row>
     <row r="534">
-      <c r="I534" s="5"/>
-      <c r="K534" s="5"/>
+      <c r="G534" s="7"/>
+      <c r="H534" s="7"/>
+      <c r="I534" s="8"/>
+      <c r="K534" s="8"/>
     </row>
     <row r="535">
-      <c r="I535" s="5"/>
-      <c r="K535" s="5"/>
+      <c r="G535" s="7"/>
+      <c r="H535" s="7"/>
+      <c r="I535" s="8"/>
+      <c r="K535" s="8"/>
     </row>
     <row r="536">
-      <c r="I536" s="5"/>
-      <c r="K536" s="5"/>
+      <c r="G536" s="7"/>
+      <c r="H536" s="7"/>
+      <c r="I536" s="8"/>
+      <c r="K536" s="8"/>
     </row>
     <row r="537">
-      <c r="I537" s="5"/>
-      <c r="K537" s="5"/>
+      <c r="G537" s="7"/>
+      <c r="H537" s="7"/>
+      <c r="I537" s="8"/>
+      <c r="K537" s="8"/>
     </row>
     <row r="538">
-      <c r="I538" s="5"/>
-      <c r="K538" s="5"/>
+      <c r="G538" s="7"/>
+      <c r="H538" s="7"/>
+      <c r="I538" s="8"/>
+      <c r="K538" s="8"/>
     </row>
     <row r="539">
-      <c r="I539" s="5"/>
-      <c r="K539" s="5"/>
+      <c r="G539" s="7"/>
+      <c r="H539" s="7"/>
+      <c r="I539" s="8"/>
+      <c r="K539" s="8"/>
     </row>
     <row r="540">
-      <c r="I540" s="5"/>
-      <c r="K540" s="5"/>
+      <c r="G540" s="7"/>
+      <c r="H540" s="7"/>
+      <c r="I540" s="8"/>
+      <c r="K540" s="8"/>
     </row>
     <row r="541">
-      <c r="I541" s="5"/>
-      <c r="K541" s="5"/>
+      <c r="G541" s="7"/>
+      <c r="H541" s="7"/>
+      <c r="I541" s="8"/>
+      <c r="K541" s="8"/>
     </row>
     <row r="542">
-      <c r="I542" s="5"/>
-      <c r="K542" s="5"/>
+      <c r="G542" s="7"/>
+      <c r="H542" s="7"/>
+      <c r="I542" s="8"/>
+      <c r="K542" s="8"/>
     </row>
     <row r="543">
-      <c r="I543" s="5"/>
-      <c r="K543" s="5"/>
+      <c r="G543" s="7"/>
+      <c r="H543" s="7"/>
+      <c r="I543" s="8"/>
+      <c r="K543" s="8"/>
     </row>
     <row r="544">
-      <c r="I544" s="5"/>
-      <c r="K544" s="5"/>
+      <c r="G544" s="7"/>
+      <c r="H544" s="7"/>
+      <c r="I544" s="8"/>
+      <c r="K544" s="8"/>
     </row>
     <row r="545">
-      <c r="I545" s="5"/>
-      <c r="K545" s="5"/>
+      <c r="G545" s="7"/>
+      <c r="H545" s="7"/>
+      <c r="I545" s="8"/>
+      <c r="K545" s="8"/>
     </row>
     <row r="546">
-      <c r="I546" s="5"/>
-      <c r="K546" s="5"/>
+      <c r="G546" s="7"/>
+      <c r="H546" s="7"/>
+      <c r="I546" s="8"/>
+      <c r="K546" s="8"/>
     </row>
     <row r="547">
-      <c r="I547" s="5"/>
-      <c r="K547" s="5"/>
+      <c r="G547" s="7"/>
+      <c r="H547" s="7"/>
+      <c r="I547" s="8"/>
+      <c r="K547" s="8"/>
     </row>
     <row r="548">
-      <c r="I548" s="5"/>
-      <c r="K548" s="5"/>
+      <c r="G548" s="7"/>
+      <c r="H548" s="7"/>
+      <c r="I548" s="8"/>
+      <c r="K548" s="8"/>
     </row>
     <row r="549">
-      <c r="I549" s="5"/>
-      <c r="K549" s="5"/>
+      <c r="G549" s="7"/>
+      <c r="H549" s="7"/>
+      <c r="I549" s="8"/>
+      <c r="K549" s="8"/>
     </row>
     <row r="550">
-      <c r="I550" s="5"/>
-      <c r="K550" s="5"/>
+      <c r="G550" s="7"/>
+      <c r="H550" s="7"/>
+      <c r="I550" s="8"/>
+      <c r="K550" s="8"/>
     </row>
     <row r="551">
-      <c r="I551" s="5"/>
-      <c r="K551" s="5"/>
+      <c r="G551" s="7"/>
+      <c r="H551" s="7"/>
+      <c r="I551" s="8"/>
+      <c r="K551" s="8"/>
     </row>
     <row r="552">
-      <c r="I552" s="5"/>
-      <c r="K552" s="5"/>
+      <c r="G552" s="7"/>
+      <c r="H552" s="7"/>
+      <c r="I552" s="8"/>
+      <c r="K552" s="8"/>
     </row>
     <row r="553">
-      <c r="I553" s="5"/>
-      <c r="K553" s="5"/>
+      <c r="G553" s="7"/>
+      <c r="H553" s="7"/>
+      <c r="I553" s="8"/>
+      <c r="K553" s="8"/>
     </row>
     <row r="554">
-      <c r="I554" s="5"/>
-      <c r="K554" s="5"/>
+      <c r="G554" s="7"/>
+      <c r="H554" s="7"/>
+      <c r="I554" s="8"/>
+      <c r="K554" s="8"/>
     </row>
     <row r="555">
-      <c r="I555" s="5"/>
-      <c r="K555" s="5"/>
+      <c r="G555" s="7"/>
+      <c r="H555" s="7"/>
+      <c r="I555" s="8"/>
+      <c r="K555" s="8"/>
     </row>
     <row r="556">
-      <c r="I556" s="5"/>
-      <c r="K556" s="5"/>
+      <c r="G556" s="7"/>
+      <c r="H556" s="7"/>
+      <c r="I556" s="8"/>
+      <c r="K556" s="8"/>
     </row>
     <row r="557">
-      <c r="I557" s="5"/>
-      <c r="K557" s="5"/>
+      <c r="G557" s="7"/>
+      <c r="H557" s="7"/>
+      <c r="I557" s="8"/>
+      <c r="K557" s="8"/>
     </row>
     <row r="558">
-      <c r="I558" s="5"/>
-      <c r="K558" s="5"/>
+      <c r="G558" s="7"/>
+      <c r="H558" s="7"/>
+      <c r="I558" s="8"/>
+      <c r="K558" s="8"/>
     </row>
     <row r="559">
-      <c r="I559" s="5"/>
-      <c r="K559" s="5"/>
+      <c r="G559" s="7"/>
+      <c r="H559" s="7"/>
+      <c r="I559" s="8"/>
+      <c r="K559" s="8"/>
     </row>
     <row r="560">
-      <c r="I560" s="5"/>
-      <c r="K560" s="5"/>
+      <c r="G560" s="7"/>
+      <c r="H560" s="7"/>
+      <c r="I560" s="8"/>
+      <c r="K560" s="8"/>
     </row>
     <row r="561">
-      <c r="I561" s="5"/>
-      <c r="K561" s="5"/>
+      <c r="G561" s="7"/>
+      <c r="H561" s="7"/>
+      <c r="I561" s="8"/>
+      <c r="K561" s="8"/>
     </row>
     <row r="562">
-      <c r="I562" s="5"/>
-      <c r="K562" s="5"/>
+      <c r="G562" s="7"/>
+      <c r="H562" s="7"/>
+      <c r="I562" s="8"/>
+      <c r="K562" s="8"/>
     </row>
     <row r="563">
-      <c r="I563" s="5"/>
-      <c r="K563" s="5"/>
+      <c r="G563" s="7"/>
+      <c r="H563" s="7"/>
+      <c r="I563" s="8"/>
+      <c r="K563" s="8"/>
     </row>
     <row r="564">
-      <c r="I564" s="5"/>
-      <c r="K564" s="5"/>
+      <c r="G564" s="7"/>
+      <c r="H564" s="7"/>
+      <c r="I564" s="8"/>
+      <c r="K564" s="8"/>
     </row>
     <row r="565">
-      <c r="I565" s="5"/>
-      <c r="K565" s="5"/>
+      <c r="G565" s="7"/>
+      <c r="H565" s="7"/>
+      <c r="I565" s="8"/>
+      <c r="K565" s="8"/>
     </row>
     <row r="566">
-      <c r="I566" s="5"/>
-      <c r="K566" s="5"/>
+      <c r="G566" s="7"/>
+      <c r="H566" s="7"/>
+      <c r="I566" s="8"/>
+      <c r="K566" s="8"/>
     </row>
     <row r="567">
-      <c r="I567" s="5"/>
-      <c r="K567" s="5"/>
+      <c r="G567" s="7"/>
+      <c r="H567" s="7"/>
+      <c r="I567" s="8"/>
+      <c r="K567" s="8"/>
     </row>
     <row r="568">
-      <c r="I568" s="5"/>
-      <c r="K568" s="5"/>
+      <c r="G568" s="7"/>
+      <c r="H568" s="7"/>
+      <c r="I568" s="8"/>
+      <c r="K568" s="8"/>
     </row>
     <row r="569">
-      <c r="I569" s="5"/>
-      <c r="K569" s="5"/>
+      <c r="G569" s="7"/>
+      <c r="H569" s="7"/>
+      <c r="I569" s="8"/>
+      <c r="K569" s="8"/>
     </row>
     <row r="570">
-      <c r="I570" s="5"/>
-      <c r="K570" s="5"/>
+      <c r="G570" s="7"/>
+      <c r="H570" s="7"/>
+      <c r="I570" s="8"/>
+      <c r="K570" s="8"/>
     </row>
     <row r="571">
-      <c r="I571" s="5"/>
-      <c r="K571" s="5"/>
+      <c r="G571" s="7"/>
+      <c r="H571" s="7"/>
+      <c r="I571" s="8"/>
+      <c r="K571" s="8"/>
     </row>
     <row r="572">
-      <c r="I572" s="5"/>
-      <c r="K572" s="5"/>
+      <c r="G572" s="7"/>
+      <c r="H572" s="7"/>
+      <c r="I572" s="8"/>
+      <c r="K572" s="8"/>
     </row>
     <row r="573">
-      <c r="I573" s="5"/>
-      <c r="K573" s="5"/>
+      <c r="G573" s="7"/>
+      <c r="H573" s="7"/>
+      <c r="I573" s="8"/>
+      <c r="K573" s="8"/>
     </row>
     <row r="574">
-      <c r="I574" s="5"/>
-      <c r="K574" s="5"/>
+      <c r="G574" s="7"/>
+      <c r="H574" s="7"/>
+      <c r="I574" s="8"/>
+      <c r="K574" s="8"/>
     </row>
     <row r="575">
-      <c r="I575" s="5"/>
-      <c r="K575" s="5"/>
+      <c r="G575" s="7"/>
+      <c r="H575" s="7"/>
+      <c r="I575" s="8"/>
+      <c r="K575" s="8"/>
     </row>
     <row r="576">
-      <c r="I576" s="5"/>
-      <c r="K576" s="5"/>
+      <c r="G576" s="7"/>
+      <c r="H576" s="7"/>
+      <c r="I576" s="8"/>
+      <c r="K576" s="8"/>
     </row>
     <row r="577">
-      <c r="I577" s="5"/>
-      <c r="K577" s="5"/>
+      <c r="G577" s="7"/>
+      <c r="H577" s="7"/>
+      <c r="I577" s="8"/>
+      <c r="K577" s="8"/>
     </row>
     <row r="578">
-      <c r="I578" s="5"/>
-      <c r="K578" s="5"/>
+      <c r="G578" s="7"/>
+      <c r="H578" s="7"/>
+      <c r="I578" s="8"/>
+      <c r="K578" s="8"/>
     </row>
     <row r="579">
-      <c r="I579" s="5"/>
-      <c r="K579" s="5"/>
+      <c r="G579" s="7"/>
+      <c r="H579" s="7"/>
+      <c r="I579" s="8"/>
+      <c r="K579" s="8"/>
     </row>
     <row r="580">
-      <c r="I580" s="5"/>
-      <c r="K580" s="5"/>
+      <c r="G580" s="7"/>
+      <c r="H580" s="7"/>
+      <c r="I580" s="8"/>
+      <c r="K580" s="8"/>
     </row>
     <row r="581">
-      <c r="I581" s="5"/>
-      <c r="K581" s="5"/>
+      <c r="G581" s="7"/>
+      <c r="H581" s="7"/>
+      <c r="I581" s="8"/>
+      <c r="K581" s="8"/>
     </row>
     <row r="582">
-      <c r="I582" s="5"/>
-      <c r="K582" s="5"/>
+      <c r="G582" s="7"/>
+      <c r="H582" s="7"/>
+      <c r="I582" s="8"/>
+      <c r="K582" s="8"/>
     </row>
     <row r="583">
-      <c r="I583" s="5"/>
-      <c r="K583" s="5"/>
+      <c r="G583" s="7"/>
+      <c r="H583" s="7"/>
+      <c r="I583" s="8"/>
+      <c r="K583" s="8"/>
     </row>
     <row r="584">
-      <c r="I584" s="5"/>
-      <c r="K584" s="5"/>
+      <c r="G584" s="7"/>
+      <c r="H584" s="7"/>
+      <c r="I584" s="8"/>
+      <c r="K584" s="8"/>
     </row>
     <row r="585">
-      <c r="I585" s="5"/>
-      <c r="K585" s="5"/>
+      <c r="G585" s="7"/>
+      <c r="H585" s="7"/>
+      <c r="I585" s="8"/>
+      <c r="K585" s="8"/>
     </row>
     <row r="586">
-      <c r="I586" s="5"/>
-      <c r="K586" s="5"/>
+      <c r="G586" s="7"/>
+      <c r="H586" s="7"/>
+      <c r="I586" s="8"/>
+      <c r="K586" s="8"/>
     </row>
     <row r="587">
-      <c r="I587" s="5"/>
-      <c r="K587" s="5"/>
+      <c r="G587" s="7"/>
+      <c r="H587" s="7"/>
+      <c r="I587" s="8"/>
+      <c r="K587" s="8"/>
     </row>
     <row r="588">
-      <c r="I588" s="5"/>
-      <c r="K588" s="5"/>
+      <c r="G588" s="7"/>
+      <c r="H588" s="7"/>
+      <c r="I588" s="8"/>
+      <c r="K588" s="8"/>
     </row>
     <row r="589">
-      <c r="I589" s="5"/>
-      <c r="K589" s="5"/>
+      <c r="G589" s="7"/>
+      <c r="H589" s="7"/>
+      <c r="I589" s="8"/>
+      <c r="K589" s="8"/>
     </row>
     <row r="590">
-      <c r="I590" s="5"/>
-      <c r="K590" s="5"/>
+      <c r="G590" s="7"/>
+      <c r="H590" s="7"/>
+      <c r="I590" s="8"/>
+      <c r="K590" s="8"/>
     </row>
     <row r="591">
-      <c r="I591" s="5"/>
-      <c r="K591" s="5"/>
+      <c r="G591" s="7"/>
+      <c r="H591" s="7"/>
+      <c r="I591" s="8"/>
+      <c r="K591" s="8"/>
     </row>
     <row r="592">
-      <c r="I592" s="5"/>
-      <c r="K592" s="5"/>
+      <c r="G592" s="7"/>
+      <c r="H592" s="7"/>
+      <c r="I592" s="8"/>
+      <c r="K592" s="8"/>
     </row>
     <row r="593">
-      <c r="I593" s="5"/>
-      <c r="K593" s="5"/>
+      <c r="G593" s="7"/>
+      <c r="H593" s="7"/>
+      <c r="I593" s="8"/>
+      <c r="K593" s="8"/>
     </row>
     <row r="594">
-      <c r="I594" s="5"/>
-      <c r="K594" s="5"/>
+      <c r="G594" s="7"/>
+      <c r="H594" s="7"/>
+      <c r="I594" s="8"/>
+      <c r="K594" s="8"/>
     </row>
     <row r="595">
-      <c r="I595" s="5"/>
-      <c r="K595" s="5"/>
+      <c r="G595" s="7"/>
+      <c r="H595" s="7"/>
+      <c r="I595" s="8"/>
+      <c r="K595" s="8"/>
     </row>
     <row r="596">
-      <c r="I596" s="5"/>
-      <c r="K596" s="5"/>
+      <c r="G596" s="7"/>
+      <c r="H596" s="7"/>
+      <c r="I596" s="8"/>
+      <c r="K596" s="8"/>
     </row>
     <row r="597">
-      <c r="I597" s="5"/>
-      <c r="K597" s="5"/>
+      <c r="G597" s="7"/>
+      <c r="H597" s="7"/>
+      <c r="I597" s="8"/>
+      <c r="K597" s="8"/>
     </row>
     <row r="598">
-      <c r="I598" s="5"/>
-      <c r="K598" s="5"/>
+      <c r="G598" s="7"/>
+      <c r="H598" s="7"/>
+      <c r="I598" s="8"/>
+      <c r="K598" s="8"/>
     </row>
     <row r="599">
-      <c r="I599" s="5"/>
-      <c r="K599" s="5"/>
+      <c r="G599" s="7"/>
+      <c r="H599" s="7"/>
+      <c r="I599" s="8"/>
+      <c r="K599" s="8"/>
     </row>
     <row r="600">
-      <c r="I600" s="5"/>
-      <c r="K600" s="5"/>
+      <c r="G600" s="7"/>
+      <c r="H600" s="7"/>
+      <c r="I600" s="8"/>
+      <c r="K600" s="8"/>
     </row>
     <row r="601">
-      <c r="I601" s="5"/>
-      <c r="K601" s="5"/>
+      <c r="G601" s="7"/>
+      <c r="H601" s="7"/>
+      <c r="I601" s="8"/>
+      <c r="K601" s="8"/>
     </row>
     <row r="602">
-      <c r="I602" s="5"/>
-      <c r="K602" s="5"/>
+      <c r="G602" s="7"/>
+      <c r="H602" s="7"/>
+      <c r="I602" s="8"/>
+      <c r="K602" s="8"/>
     </row>
     <row r="603">
-      <c r="I603" s="5"/>
-      <c r="K603" s="5"/>
+      <c r="G603" s="7"/>
+      <c r="H603" s="7"/>
+      <c r="I603" s="8"/>
+      <c r="K603" s="8"/>
     </row>
     <row r="604">
-      <c r="I604" s="5"/>
-      <c r="K604" s="5"/>
+      <c r="G604" s="7"/>
+      <c r="H604" s="7"/>
+      <c r="I604" s="8"/>
+      <c r="K604" s="8"/>
     </row>
     <row r="605">
-      <c r="I605" s="5"/>
-      <c r="K605" s="5"/>
+      <c r="G605" s="7"/>
+      <c r="H605" s="7"/>
+      <c r="I605" s="8"/>
+      <c r="K605" s="8"/>
     </row>
     <row r="606">
-      <c r="I606" s="5"/>
-      <c r="K606" s="5"/>
+      <c r="G606" s="7"/>
+      <c r="H606" s="7"/>
+      <c r="I606" s="8"/>
+      <c r="K606" s="8"/>
     </row>
     <row r="607">
-      <c r="I607" s="5"/>
-      <c r="K607" s="5"/>
+      <c r="G607" s="7"/>
+      <c r="H607" s="7"/>
+      <c r="I607" s="8"/>
+      <c r="K607" s="8"/>
     </row>
     <row r="608">
-      <c r="I608" s="5"/>
-      <c r="K608" s="5"/>
+      <c r="G608" s="7"/>
+      <c r="H608" s="7"/>
+      <c r="I608" s="8"/>
+      <c r="K608" s="8"/>
     </row>
     <row r="609">
-      <c r="I609" s="5"/>
-      <c r="K609" s="5"/>
+      <c r="G609" s="7"/>
+      <c r="H609" s="7"/>
+      <c r="I609" s="8"/>
+      <c r="K609" s="8"/>
     </row>
     <row r="610">
-      <c r="I610" s="5"/>
-      <c r="K610" s="5"/>
+      <c r="G610" s="7"/>
+      <c r="H610" s="7"/>
+      <c r="I610" s="8"/>
+      <c r="K610" s="8"/>
     </row>
     <row r="611">
-      <c r="I611" s="5"/>
-      <c r="K611" s="5"/>
+      <c r="G611" s="7"/>
+      <c r="H611" s="7"/>
+      <c r="I611" s="8"/>
+      <c r="K611" s="8"/>
     </row>
     <row r="612">
-      <c r="I612" s="5"/>
-      <c r="K612" s="5"/>
+      <c r="G612" s="7"/>
+      <c r="H612" s="7"/>
+      <c r="I612" s="8"/>
+      <c r="K612" s="8"/>
     </row>
     <row r="613">
-      <c r="I613" s="5"/>
-      <c r="K613" s="5"/>
+      <c r="G613" s="7"/>
+      <c r="H613" s="7"/>
+      <c r="I613" s="8"/>
+      <c r="K613" s="8"/>
     </row>
     <row r="614">
-      <c r="I614" s="5"/>
-      <c r="K614" s="5"/>
+      <c r="G614" s="7"/>
+      <c r="H614" s="7"/>
+      <c r="I614" s="8"/>
+      <c r="K614" s="8"/>
     </row>
     <row r="615">
-      <c r="I615" s="5"/>
-      <c r="K615" s="5"/>
+      <c r="G615" s="7"/>
+      <c r="H615" s="7"/>
+      <c r="I615" s="8"/>
+      <c r="K615" s="8"/>
     </row>
     <row r="616">
-      <c r="I616" s="5"/>
-      <c r="K616" s="5"/>
+      <c r="G616" s="7"/>
+      <c r="H616" s="7"/>
+      <c r="I616" s="8"/>
+      <c r="K616" s="8"/>
     </row>
     <row r="617">
-      <c r="I617" s="5"/>
-      <c r="K617" s="5"/>
+      <c r="G617" s="7"/>
+      <c r="H617" s="7"/>
+      <c r="I617" s="8"/>
+      <c r="K617" s="8"/>
     </row>
     <row r="618">
-      <c r="I618" s="5"/>
-      <c r="K618" s="5"/>
+      <c r="G618" s="7"/>
+      <c r="H618" s="7"/>
+      <c r="I618" s="8"/>
+      <c r="K618" s="8"/>
     </row>
     <row r="619">
-      <c r="I619" s="5"/>
-      <c r="K619" s="5"/>
+      <c r="G619" s="7"/>
+      <c r="H619" s="7"/>
+      <c r="I619" s="8"/>
+      <c r="K619" s="8"/>
     </row>
     <row r="620">
-      <c r="I620" s="5"/>
-      <c r="K620" s="5"/>
+      <c r="G620" s="7"/>
+      <c r="H620" s="7"/>
+      <c r="I620" s="8"/>
+      <c r="K620" s="8"/>
     </row>
     <row r="621">
-      <c r="I621" s="5"/>
-      <c r="K621" s="5"/>
+      <c r="G621" s="7"/>
+      <c r="H621" s="7"/>
+      <c r="I621" s="8"/>
+      <c r="K621" s="8"/>
     </row>
     <row r="622">
-      <c r="I622" s="5"/>
-      <c r="K622" s="5"/>
+      <c r="G622" s="7"/>
+      <c r="H622" s="7"/>
+      <c r="I622" s="8"/>
+      <c r="K622" s="8"/>
     </row>
     <row r="623">
-      <c r="I623" s="5"/>
-      <c r="K623" s="5"/>
+      <c r="G623" s="7"/>
+      <c r="H623" s="7"/>
+      <c r="I623" s="8"/>
+      <c r="K623" s="8"/>
     </row>
     <row r="624">
-      <c r="I624" s="5"/>
-      <c r="K624" s="5"/>
+      <c r="G624" s="7"/>
+      <c r="H624" s="7"/>
+      <c r="I624" s="8"/>
+      <c r="K624" s="8"/>
     </row>
     <row r="625">
-      <c r="I625" s="5"/>
-      <c r="K625" s="5"/>
+      <c r="G625" s="7"/>
+      <c r="H625" s="7"/>
+      <c r="I625" s="8"/>
+      <c r="K625" s="8"/>
     </row>
     <row r="626">
-      <c r="I626" s="5"/>
-      <c r="K626" s="5"/>
+      <c r="G626" s="7"/>
+      <c r="H626" s="7"/>
+      <c r="I626" s="8"/>
+      <c r="K626" s="8"/>
     </row>
     <row r="627">
-      <c r="I627" s="5"/>
-      <c r="K627" s="5"/>
+      <c r="G627" s="7"/>
+      <c r="H627" s="7"/>
+      <c r="I627" s="8"/>
+      <c r="K627" s="8"/>
     </row>
     <row r="628">
-      <c r="I628" s="5"/>
-      <c r="K628" s="5"/>
+      <c r="G628" s="7"/>
+      <c r="H628" s="7"/>
+      <c r="I628" s="8"/>
+      <c r="K628" s="8"/>
     </row>
     <row r="629">
-      <c r="I629" s="5"/>
-      <c r="K629" s="5"/>
+      <c r="G629" s="7"/>
+      <c r="H629" s="7"/>
+      <c r="I629" s="8"/>
+      <c r="K629" s="8"/>
     </row>
     <row r="630">
-      <c r="I630" s="5"/>
-      <c r="K630" s="5"/>
+      <c r="G630" s="7"/>
+      <c r="H630" s="7"/>
+      <c r="I630" s="8"/>
+      <c r="K630" s="8"/>
     </row>
     <row r="631">
-      <c r="I631" s="5"/>
-      <c r="K631" s="5"/>
+      <c r="G631" s="7"/>
+      <c r="H631" s="7"/>
+      <c r="I631" s="8"/>
+      <c r="K631" s="8"/>
     </row>
     <row r="632">
-      <c r="I632" s="5"/>
-      <c r="K632" s="5"/>
+      <c r="G632" s="7"/>
+      <c r="H632" s="7"/>
+      <c r="I632" s="8"/>
+      <c r="K632" s="8"/>
     </row>
     <row r="633">
-      <c r="I633" s="5"/>
-      <c r="K633" s="5"/>
+      <c r="G633" s="7"/>
+      <c r="H633" s="7"/>
+      <c r="I633" s="8"/>
+      <c r="K633" s="8"/>
     </row>
     <row r="634">
-      <c r="I634" s="5"/>
-      <c r="K634" s="5"/>
+      <c r="G634" s="7"/>
+      <c r="H634" s="7"/>
+      <c r="I634" s="8"/>
+      <c r="K634" s="8"/>
     </row>
     <row r="635">
-      <c r="I635" s="5"/>
-      <c r="K635" s="5"/>
+      <c r="G635" s="7"/>
+      <c r="H635" s="7"/>
+      <c r="I635" s="8"/>
+      <c r="K635" s="8"/>
     </row>
     <row r="636">
-      <c r="I636" s="5"/>
-      <c r="K636" s="5"/>
+      <c r="G636" s="7"/>
+      <c r="H636" s="7"/>
+      <c r="I636" s="8"/>
+      <c r="K636" s="8"/>
     </row>
     <row r="637">
-      <c r="I637" s="5"/>
-      <c r="K637" s="5"/>
+      <c r="G637" s="7"/>
+      <c r="H637" s="7"/>
+      <c r="I637" s="8"/>
+      <c r="K637" s="8"/>
     </row>
     <row r="638">
-      <c r="I638" s="5"/>
-      <c r="K638" s="5"/>
+      <c r="G638" s="7"/>
+      <c r="H638" s="7"/>
+      <c r="I638" s="8"/>
+      <c r="K638" s="8"/>
     </row>
     <row r="639">
-      <c r="I639" s="5"/>
-      <c r="K639" s="5"/>
+      <c r="G639" s="7"/>
+      <c r="H639" s="7"/>
+      <c r="I639" s="8"/>
+      <c r="K639" s="8"/>
     </row>
     <row r="640">
-      <c r="I640" s="5"/>
-      <c r="K640" s="5"/>
+      <c r="G640" s="7"/>
+      <c r="H640" s="7"/>
+      <c r="I640" s="8"/>
+      <c r="K640" s="8"/>
     </row>
     <row r="641">
-      <c r="I641" s="5"/>
-      <c r="K641" s="5"/>
+      <c r="G641" s="7"/>
+      <c r="H641" s="7"/>
+      <c r="I641" s="8"/>
+      <c r="K641" s="8"/>
     </row>
     <row r="642">
-      <c r="I642" s="5"/>
-      <c r="K642" s="5"/>
+      <c r="G642" s="7"/>
+      <c r="H642" s="7"/>
+      <c r="I642" s="8"/>
+      <c r="K642" s="8"/>
     </row>
     <row r="643">
-      <c r="I643" s="5"/>
-      <c r="K643" s="5"/>
+      <c r="G643" s="7"/>
+      <c r="H643" s="7"/>
+      <c r="I643" s="8"/>
+      <c r="K643" s="8"/>
     </row>
     <row r="644">
-      <c r="I644" s="5"/>
-      <c r="K644" s="5"/>
+      <c r="G644" s="7"/>
+      <c r="H644" s="7"/>
+      <c r="I644" s="8"/>
+      <c r="K644" s="8"/>
     </row>
     <row r="645">
-      <c r="I645" s="5"/>
-      <c r="K645" s="5"/>
+      <c r="G645" s="7"/>
+      <c r="H645" s="7"/>
+      <c r="I645" s="8"/>
+      <c r="K645" s="8"/>
     </row>
     <row r="646">
-      <c r="I646" s="5"/>
-      <c r="K646" s="5"/>
+      <c r="G646" s="7"/>
+      <c r="H646" s="7"/>
+      <c r="I646" s="8"/>
+      <c r="K646" s="8"/>
     </row>
     <row r="647">
-      <c r="I647" s="5"/>
-      <c r="K647" s="5"/>
+      <c r="G647" s="7"/>
+      <c r="H647" s="7"/>
+      <c r="I647" s="8"/>
+      <c r="K647" s="8"/>
     </row>
     <row r="648">
-      <c r="I648" s="5"/>
-      <c r="K648" s="5"/>
+      <c r="G648" s="7"/>
+      <c r="H648" s="7"/>
+      <c r="I648" s="8"/>
+      <c r="K648" s="8"/>
     </row>
     <row r="649">
-      <c r="I649" s="5"/>
-      <c r="K649" s="5"/>
+      <c r="G649" s="7"/>
+      <c r="H649" s="7"/>
+      <c r="I649" s="8"/>
+      <c r="K649" s="8"/>
     </row>
     <row r="650">
-      <c r="I650" s="5"/>
-      <c r="K650" s="5"/>
+      <c r="G650" s="7"/>
+      <c r="H650" s="7"/>
+      <c r="I650" s="8"/>
+      <c r="K650" s="8"/>
     </row>
     <row r="651">
-      <c r="I651" s="5"/>
-      <c r="K651" s="5"/>
+      <c r="G651" s="7"/>
+      <c r="H651" s="7"/>
+      <c r="I651" s="8"/>
+      <c r="K651" s="8"/>
     </row>
     <row r="652">
-      <c r="I652" s="5"/>
-      <c r="K652" s="5"/>
+      <c r="G652" s="7"/>
+      <c r="H652" s="7"/>
+      <c r="I652" s="8"/>
+      <c r="K652" s="8"/>
     </row>
     <row r="653">
-      <c r="I653" s="5"/>
-      <c r="K653" s="5"/>
+      <c r="G653" s="7"/>
+      <c r="H653" s="7"/>
+      <c r="I653" s="8"/>
+      <c r="K653" s="8"/>
     </row>
     <row r="654">
-      <c r="I654" s="5"/>
-      <c r="K654" s="5"/>
+      <c r="G654" s="7"/>
+      <c r="H654" s="7"/>
+      <c r="I654" s="8"/>
+      <c r="K654" s="8"/>
     </row>
     <row r="655">
-      <c r="I655" s="5"/>
-      <c r="K655" s="5"/>
+      <c r="G655" s="7"/>
+      <c r="H655" s="7"/>
+      <c r="I655" s="8"/>
+      <c r="K655" s="8"/>
     </row>
     <row r="656">
-      <c r="I656" s="5"/>
-      <c r="K656" s="5"/>
+      <c r="G656" s="7"/>
+      <c r="H656" s="7"/>
+      <c r="I656" s="8"/>
+      <c r="K656" s="8"/>
     </row>
     <row r="657">
-      <c r="I657" s="5"/>
-      <c r="K657" s="5"/>
+      <c r="G657" s="7"/>
+      <c r="H657" s="7"/>
+      <c r="I657" s="8"/>
+      <c r="K657" s="8"/>
     </row>
     <row r="658">
-      <c r="I658" s="5"/>
-      <c r="K658" s="5"/>
+      <c r="G658" s="7"/>
+      <c r="H658" s="7"/>
+      <c r="I658" s="8"/>
+      <c r="K658" s="8"/>
     </row>
     <row r="659">
-      <c r="I659" s="5"/>
-      <c r="K659" s="5"/>
+      <c r="G659" s="7"/>
+      <c r="H659" s="7"/>
+      <c r="I659" s="8"/>
+      <c r="K659" s="8"/>
     </row>
     <row r="660">
-      <c r="I660" s="5"/>
-      <c r="K660" s="5"/>
+      <c r="G660" s="7"/>
+      <c r="H660" s="7"/>
+      <c r="I660" s="8"/>
+      <c r="K660" s="8"/>
     </row>
     <row r="661">
-      <c r="I661" s="5"/>
-      <c r="K661" s="5"/>
+      <c r="G661" s="7"/>
+      <c r="H661" s="7"/>
+      <c r="I661" s="8"/>
+      <c r="K661" s="8"/>
     </row>
     <row r="662">
-      <c r="I662" s="5"/>
-      <c r="K662" s="5"/>
+      <c r="G662" s="7"/>
+      <c r="H662" s="7"/>
+      <c r="I662" s="8"/>
+      <c r="K662" s="8"/>
     </row>
     <row r="663">
-      <c r="I663" s="5"/>
-      <c r="K663" s="5"/>
+      <c r="G663" s="7"/>
+      <c r="H663" s="7"/>
+      <c r="I663" s="8"/>
+      <c r="K663" s="8"/>
     </row>
     <row r="664">
-      <c r="I664" s="5"/>
-      <c r="K664" s="5"/>
+      <c r="G664" s="7"/>
+      <c r="H664" s="7"/>
+      <c r="I664" s="8"/>
+      <c r="K664" s="8"/>
     </row>
     <row r="665">
-      <c r="I665" s="5"/>
-      <c r="K665" s="5"/>
+      <c r="G665" s="7"/>
+      <c r="H665" s="7"/>
+      <c r="I665" s="8"/>
+      <c r="K665" s="8"/>
     </row>
     <row r="666">
-      <c r="I666" s="5"/>
-      <c r="K666" s="5"/>
+      <c r="G666" s="7"/>
+      <c r="H666" s="7"/>
+      <c r="I666" s="8"/>
+      <c r="K666" s="8"/>
     </row>
     <row r="667">
-      <c r="I667" s="5"/>
-      <c r="K667" s="5"/>
+      <c r="G667" s="7"/>
+      <c r="H667" s="7"/>
+      <c r="I667" s="8"/>
+      <c r="K667" s="8"/>
     </row>
     <row r="668">
-      <c r="I668" s="5"/>
-      <c r="K668" s="5"/>
+      <c r="G668" s="7"/>
+      <c r="H668" s="7"/>
+      <c r="I668" s="8"/>
+      <c r="K668" s="8"/>
     </row>
     <row r="669">
-      <c r="I669" s="5"/>
-      <c r="K669" s="5"/>
+      <c r="G669" s="7"/>
+      <c r="H669" s="7"/>
+      <c r="I669" s="8"/>
+      <c r="K669" s="8"/>
     </row>
     <row r="670">
-      <c r="I670" s="5"/>
-      <c r="K670" s="5"/>
+      <c r="G670" s="7"/>
+      <c r="H670" s="7"/>
+      <c r="I670" s="8"/>
+      <c r="K670" s="8"/>
     </row>
     <row r="671">
-      <c r="I671" s="5"/>
-      <c r="K671" s="5"/>
+      <c r="G671" s="7"/>
+      <c r="H671" s="7"/>
+      <c r="I671" s="8"/>
+      <c r="K671" s="8"/>
     </row>
     <row r="672">
-      <c r="I672" s="5"/>
-      <c r="K672" s="5"/>
+      <c r="G672" s="7"/>
+      <c r="H672" s="7"/>
+      <c r="I672" s="8"/>
+      <c r="K672" s="8"/>
     </row>
     <row r="673">
-      <c r="I673" s="5"/>
-      <c r="K673" s="5"/>
+      <c r="G673" s="7"/>
+      <c r="H673" s="7"/>
+      <c r="I673" s="8"/>
+      <c r="K673" s="8"/>
     </row>
     <row r="674">
-      <c r="I674" s="5"/>
-      <c r="K674" s="5"/>
+      <c r="G674" s="7"/>
+      <c r="H674" s="7"/>
+      <c r="I674" s="8"/>
+      <c r="K674" s="8"/>
     </row>
     <row r="675">
-      <c r="I675" s="5"/>
-      <c r="K675" s="5"/>
+      <c r="G675" s="7"/>
+      <c r="H675" s="7"/>
+      <c r="I675" s="8"/>
+      <c r="K675" s="8"/>
     </row>
     <row r="676">
-      <c r="I676" s="5"/>
-      <c r="K676" s="5"/>
+      <c r="G676" s="7"/>
+      <c r="H676" s="7"/>
+      <c r="I676" s="8"/>
+      <c r="K676" s="8"/>
     </row>
     <row r="677">
-      <c r="I677" s="5"/>
-      <c r="K677" s="5"/>
+      <c r="G677" s="7"/>
+      <c r="H677" s="7"/>
+      <c r="I677" s="8"/>
+      <c r="K677" s="8"/>
     </row>
     <row r="678">
-      <c r="I678" s="5"/>
-      <c r="K678" s="5"/>
+      <c r="G678" s="7"/>
+      <c r="H678" s="7"/>
+      <c r="I678" s="8"/>
+      <c r="K678" s="8"/>
     </row>
     <row r="679">
-      <c r="I679" s="5"/>
-      <c r="K679" s="5"/>
+      <c r="G679" s="7"/>
+      <c r="H679" s="7"/>
+      <c r="I679" s="8"/>
+      <c r="K679" s="8"/>
     </row>
     <row r="680">
-      <c r="I680" s="5"/>
-      <c r="K680" s="5"/>
+      <c r="G680" s="7"/>
+      <c r="H680" s="7"/>
+      <c r="I680" s="8"/>
+      <c r="K680" s="8"/>
     </row>
     <row r="681">
-      <c r="I681" s="5"/>
-      <c r="K681" s="5"/>
+      <c r="G681" s="7"/>
+      <c r="H681" s="7"/>
+      <c r="I681" s="8"/>
+      <c r="K681" s="8"/>
     </row>
     <row r="682">
-      <c r="I682" s="5"/>
-      <c r="K682" s="5"/>
+      <c r="G682" s="7"/>
+      <c r="H682" s="7"/>
+      <c r="I682" s="8"/>
+      <c r="K682" s="8"/>
     </row>
     <row r="683">
-      <c r="I683" s="5"/>
-      <c r="K683" s="5"/>
+      <c r="G683" s="7"/>
+      <c r="H683" s="7"/>
+      <c r="I683" s="8"/>
+      <c r="K683" s="8"/>
     </row>
     <row r="684">
-      <c r="I684" s="5"/>
-      <c r="K684" s="5"/>
+      <c r="G684" s="7"/>
+      <c r="H684" s="7"/>
+      <c r="I684" s="8"/>
+      <c r="K684" s="8"/>
     </row>
     <row r="685">
-      <c r="I685" s="5"/>
-      <c r="K685" s="5"/>
+      <c r="G685" s="7"/>
+      <c r="H685" s="7"/>
+      <c r="I685" s="8"/>
+      <c r="K685" s="8"/>
     </row>
     <row r="686">
-      <c r="I686" s="5"/>
-      <c r="K686" s="5"/>
+      <c r="G686" s="7"/>
+      <c r="H686" s="7"/>
+      <c r="I686" s="8"/>
+      <c r="K686" s="8"/>
     </row>
     <row r="687">
-      <c r="I687" s="5"/>
-      <c r="K687" s="5"/>
+      <c r="G687" s="7"/>
+      <c r="H687" s="7"/>
+      <c r="I687" s="8"/>
+      <c r="K687" s="8"/>
     </row>
     <row r="688">
-      <c r="I688" s="5"/>
-      <c r="K688" s="5"/>
+      <c r="G688" s="7"/>
+      <c r="H688" s="7"/>
+      <c r="I688" s="8"/>
+      <c r="K688" s="8"/>
     </row>
     <row r="689">
-      <c r="I689" s="5"/>
-      <c r="K689" s="5"/>
+      <c r="G689" s="7"/>
+      <c r="H689" s="7"/>
+      <c r="I689" s="8"/>
+      <c r="K689" s="8"/>
     </row>
     <row r="690">
-      <c r="I690" s="5"/>
-      <c r="K690" s="5"/>
+      <c r="G690" s="7"/>
+      <c r="H690" s="7"/>
+      <c r="I690" s="8"/>
+      <c r="K690" s="8"/>
     </row>
     <row r="691">
-      <c r="I691" s="5"/>
-      <c r="K691" s="5"/>
+      <c r="G691" s="7"/>
+      <c r="H691" s="7"/>
+      <c r="I691" s="8"/>
+      <c r="K691" s="8"/>
     </row>
     <row r="692">
-      <c r="I692" s="5"/>
-      <c r="K692" s="5"/>
+      <c r="G692" s="7"/>
+      <c r="H692" s="7"/>
+      <c r="I692" s="8"/>
+      <c r="K692" s="8"/>
     </row>
     <row r="693">
-      <c r="I693" s="5"/>
-      <c r="K693" s="5"/>
+      <c r="G693" s="7"/>
+      <c r="H693" s="7"/>
+      <c r="I693" s="8"/>
+      <c r="K693" s="8"/>
     </row>
     <row r="694">
-      <c r="I694" s="5"/>
-      <c r="K694" s="5"/>
+      <c r="G694" s="7"/>
+      <c r="H694" s="7"/>
+      <c r="I694" s="8"/>
+      <c r="K694" s="8"/>
     </row>
     <row r="695">
-      <c r="I695" s="5"/>
-      <c r="K695" s="5"/>
+      <c r="G695" s="7"/>
+      <c r="H695" s="7"/>
+      <c r="I695" s="8"/>
+      <c r="K695" s="8"/>
     </row>
     <row r="696">
-      <c r="I696" s="5"/>
-      <c r="K696" s="5"/>
+      <c r="G696" s="7"/>
+      <c r="H696" s="7"/>
+      <c r="I696" s="8"/>
+      <c r="K696" s="8"/>
     </row>
     <row r="697">
-      <c r="I697" s="5"/>
-      <c r="K697" s="5"/>
+      <c r="G697" s="7"/>
+      <c r="H697" s="7"/>
+      <c r="I697" s="8"/>
+      <c r="K697" s="8"/>
     </row>
     <row r="698">
-      <c r="I698" s="5"/>
-      <c r="K698" s="5"/>
+      <c r="G698" s="7"/>
+      <c r="H698" s="7"/>
+      <c r="I698" s="8"/>
+      <c r="K698" s="8"/>
     </row>
     <row r="699">
-      <c r="I699" s="5"/>
-      <c r="K699" s="5"/>
+      <c r="G699" s="7"/>
+      <c r="H699" s="7"/>
+      <c r="I699" s="8"/>
+      <c r="K699" s="8"/>
     </row>
     <row r="700">
-      <c r="I700" s="5"/>
-      <c r="K700" s="5"/>
+      <c r="G700" s="7"/>
+      <c r="H700" s="7"/>
+      <c r="I700" s="8"/>
+      <c r="K700" s="8"/>
     </row>
     <row r="701">
-      <c r="I701" s="5"/>
-      <c r="K701" s="5"/>
+      <c r="G701" s="7"/>
+      <c r="H701" s="7"/>
+      <c r="I701" s="8"/>
+      <c r="K701" s="8"/>
     </row>
     <row r="702">
-      <c r="I702" s="5"/>
-      <c r="K702" s="5"/>
+      <c r="G702" s="7"/>
+      <c r="H702" s="7"/>
+      <c r="I702" s="8"/>
+      <c r="K702" s="8"/>
     </row>
     <row r="703">
-      <c r="I703" s="5"/>
-      <c r="K703" s="5"/>
+      <c r="G703" s="7"/>
+      <c r="H703" s="7"/>
+      <c r="I703" s="8"/>
+      <c r="K703" s="8"/>
     </row>
     <row r="704">
-      <c r="I704" s="5"/>
-      <c r="K704" s="5"/>
+      <c r="G704" s="7"/>
+      <c r="H704" s="7"/>
+      <c r="I704" s="8"/>
+      <c r="K704" s="8"/>
     </row>
     <row r="705">
-      <c r="I705" s="5"/>
-      <c r="K705" s="5"/>
+      <c r="G705" s="7"/>
+      <c r="H705" s="7"/>
+      <c r="I705" s="8"/>
+      <c r="K705" s="8"/>
     </row>
     <row r="706">
-      <c r="I706" s="5"/>
-      <c r="K706" s="5"/>
+      <c r="G706" s="7"/>
+      <c r="H706" s="7"/>
+      <c r="I706" s="8"/>
+      <c r="K706" s="8"/>
     </row>
     <row r="707">
-      <c r="I707" s="5"/>
-      <c r="K707" s="5"/>
+      <c r="G707" s="7"/>
+      <c r="H707" s="7"/>
+      <c r="I707" s="8"/>
+      <c r="K707" s="8"/>
     </row>
     <row r="708">
-      <c r="I708" s="5"/>
-      <c r="K708" s="5"/>
+      <c r="G708" s="7"/>
+      <c r="H708" s="7"/>
+      <c r="I708" s="8"/>
+      <c r="K708" s="8"/>
     </row>
     <row r="709">
-      <c r="I709" s="5"/>
-      <c r="K709" s="5"/>
+      <c r="G709" s="7"/>
+      <c r="H709" s="7"/>
+      <c r="I709" s="8"/>
+      <c r="K709" s="8"/>
     </row>
     <row r="710">
-      <c r="I710" s="5"/>
-      <c r="K710" s="5"/>
+      <c r="G710" s="7"/>
+      <c r="H710" s="7"/>
+      <c r="I710" s="8"/>
+      <c r="K710" s="8"/>
     </row>
     <row r="711">
-      <c r="I711" s="5"/>
-      <c r="K711" s="5"/>
+      <c r="G711" s="7"/>
+      <c r="H711" s="7"/>
+      <c r="I711" s="8"/>
+      <c r="K711" s="8"/>
     </row>
     <row r="712">
-      <c r="I712" s="5"/>
-      <c r="K712" s="5"/>
+      <c r="G712" s="7"/>
+      <c r="H712" s="7"/>
+      <c r="I712" s="8"/>
+      <c r="K712" s="8"/>
     </row>
     <row r="713">
-      <c r="I713" s="5"/>
-      <c r="K713" s="5"/>
+      <c r="G713" s="7"/>
+      <c r="H713" s="7"/>
+      <c r="I713" s="8"/>
+      <c r="K713" s="8"/>
     </row>
     <row r="714">
-      <c r="I714" s="5"/>
-      <c r="K714" s="5"/>
+      <c r="G714" s="7"/>
+      <c r="H714" s="7"/>
+      <c r="I714" s="8"/>
+      <c r="K714" s="8"/>
     </row>
     <row r="715">
-      <c r="I715" s="5"/>
-      <c r="K715" s="5"/>
+      <c r="G715" s="7"/>
+      <c r="H715" s="7"/>
+      <c r="I715" s="8"/>
+      <c r="K715" s="8"/>
     </row>
     <row r="716">
-      <c r="I716" s="5"/>
-      <c r="K716" s="5"/>
+      <c r="G716" s="7"/>
+      <c r="H716" s="7"/>
+      <c r="I716" s="8"/>
+      <c r="K716" s="8"/>
     </row>
     <row r="717">
-      <c r="I717" s="5"/>
-      <c r="K717" s="5"/>
+      <c r="G717" s="7"/>
+      <c r="H717" s="7"/>
+      <c r="I717" s="8"/>
+      <c r="K717" s="8"/>
     </row>
     <row r="718">
-      <c r="I718" s="5"/>
-      <c r="K718" s="5"/>
+      <c r="G718" s="7"/>
+      <c r="H718" s="7"/>
+      <c r="I718" s="8"/>
+      <c r="K718" s="8"/>
     </row>
     <row r="719">
-      <c r="I719" s="5"/>
-      <c r="K719" s="5"/>
+      <c r="G719" s="7"/>
+      <c r="H719" s="7"/>
+      <c r="I719" s="8"/>
+      <c r="K719" s="8"/>
     </row>
     <row r="720">
-      <c r="I720" s="5"/>
-      <c r="K720" s="5"/>
+      <c r="G720" s="7"/>
+      <c r="H720" s="7"/>
+      <c r="I720" s="8"/>
+      <c r="K720" s="8"/>
     </row>
     <row r="721">
-      <c r="I721" s="5"/>
-      <c r="K721" s="5"/>
+      <c r="G721" s="7"/>
+      <c r="H721" s="7"/>
+      <c r="I721" s="8"/>
+      <c r="K721" s="8"/>
     </row>
     <row r="722">
-      <c r="I722" s="5"/>
-      <c r="K722" s="5"/>
+      <c r="G722" s="7"/>
+      <c r="H722" s="7"/>
+      <c r="I722" s="8"/>
+      <c r="K722" s="8"/>
     </row>
     <row r="723">
-      <c r="I723" s="5"/>
-      <c r="K723" s="5"/>
+      <c r="G723" s="7"/>
+      <c r="H723" s="7"/>
+      <c r="I723" s="8"/>
+      <c r="K723" s="8"/>
     </row>
     <row r="724">
-      <c r="I724" s="5"/>
-      <c r="K724" s="5"/>
+      <c r="G724" s="7"/>
+      <c r="H724" s="7"/>
+      <c r="I724" s="8"/>
+      <c r="K724" s="8"/>
     </row>
     <row r="725">
-      <c r="I725" s="5"/>
-      <c r="K725" s="5"/>
+      <c r="G725" s="7"/>
+      <c r="H725" s="7"/>
+      <c r="I725" s="8"/>
+      <c r="K725" s="8"/>
     </row>
     <row r="726">
-      <c r="I726" s="5"/>
-      <c r="K726" s="5"/>
+      <c r="G726" s="7"/>
+      <c r="H726" s="7"/>
+      <c r="I726" s="8"/>
+      <c r="K726" s="8"/>
     </row>
     <row r="727">
-      <c r="I727" s="5"/>
-      <c r="K727" s="5"/>
+      <c r="G727" s="7"/>
+      <c r="H727" s="7"/>
+      <c r="I727" s="8"/>
+      <c r="K727" s="8"/>
     </row>
     <row r="728">
-      <c r="I728" s="5"/>
-      <c r="K728" s="5"/>
+      <c r="G728" s="7"/>
+      <c r="H728" s="7"/>
+      <c r="I728" s="8"/>
+      <c r="K728" s="8"/>
     </row>
     <row r="729">
-      <c r="I729" s="5"/>
-      <c r="K729" s="5"/>
+      <c r="G729" s="7"/>
+      <c r="H729" s="7"/>
+      <c r="I729" s="8"/>
+      <c r="K729" s="8"/>
     </row>
     <row r="730">
-      <c r="I730" s="5"/>
-      <c r="K730" s="5"/>
+      <c r="G730" s="7"/>
+      <c r="H730" s="7"/>
+      <c r="I730" s="8"/>
+      <c r="K730" s="8"/>
     </row>
     <row r="731">
-      <c r="I731" s="5"/>
-      <c r="K731" s="5"/>
+      <c r="G731" s="7"/>
+      <c r="H731" s="7"/>
+      <c r="I731" s="8"/>
+      <c r="K731" s="8"/>
     </row>
     <row r="732">
-      <c r="I732" s="5"/>
-      <c r="K732" s="5"/>
+      <c r="G732" s="7"/>
+      <c r="H732" s="7"/>
+      <c r="I732" s="8"/>
+      <c r="K732" s="8"/>
     </row>
     <row r="733">
-      <c r="I733" s="5"/>
-      <c r="K733" s="5"/>
+      <c r="G733" s="7"/>
+      <c r="H733" s="7"/>
+      <c r="I733" s="8"/>
+      <c r="K733" s="8"/>
     </row>
     <row r="734">
-      <c r="I734" s="5"/>
-      <c r="K734" s="5"/>
+      <c r="G734" s="7"/>
+      <c r="H734" s="7"/>
+      <c r="I734" s="8"/>
+      <c r="K734" s="8"/>
     </row>
     <row r="735">
-      <c r="I735" s="5"/>
-      <c r="K735" s="5"/>
+      <c r="G735" s="7"/>
+      <c r="H735" s="7"/>
+      <c r="I735" s="8"/>
+      <c r="K735" s="8"/>
     </row>
     <row r="736">
-      <c r="I736" s="5"/>
-      <c r="K736" s="5"/>
+      <c r="G736" s="7"/>
+      <c r="H736" s="7"/>
+      <c r="I736" s="8"/>
+      <c r="K736" s="8"/>
     </row>
     <row r="737">
-      <c r="I737" s="5"/>
-      <c r="K737" s="5"/>
+      <c r="G737" s="7"/>
+      <c r="H737" s="7"/>
+      <c r="I737" s="8"/>
+      <c r="K737" s="8"/>
     </row>
     <row r="738">
-      <c r="I738" s="5"/>
-      <c r="K738" s="5"/>
+      <c r="G738" s="7"/>
+      <c r="H738" s="7"/>
+      <c r="I738" s="8"/>
+      <c r="K738" s="8"/>
     </row>
     <row r="739">
-      <c r="I739" s="5"/>
-      <c r="K739" s="5"/>
+      <c r="G739" s="7"/>
+      <c r="H739" s="7"/>
+      <c r="I739" s="8"/>
+      <c r="K739" s="8"/>
     </row>
     <row r="740">
-      <c r="I740" s="5"/>
-      <c r="K740" s="5"/>
+      <c r="G740" s="7"/>
+      <c r="H740" s="7"/>
+      <c r="I740" s="8"/>
+      <c r="K740" s="8"/>
     </row>
     <row r="741">
-      <c r="I741" s="5"/>
-      <c r="K741" s="5"/>
+      <c r="G741" s="7"/>
+      <c r="H741" s="7"/>
+      <c r="I741" s="8"/>
+      <c r="K741" s="8"/>
     </row>
     <row r="742">
-      <c r="I742" s="5"/>
-      <c r="K742" s="5"/>
+      <c r="G742" s="7"/>
+      <c r="H742" s="7"/>
+      <c r="I742" s="8"/>
+      <c r="K742" s="8"/>
     </row>
     <row r="743">
-      <c r="I743" s="5"/>
-      <c r="K743" s="5"/>
+      <c r="G743" s="7"/>
+      <c r="H743" s="7"/>
+      <c r="I743" s="8"/>
+      <c r="K743" s="8"/>
     </row>
     <row r="744">
-      <c r="I744" s="5"/>
-      <c r="K744" s="5"/>
+      <c r="G744" s="7"/>
+      <c r="H744" s="7"/>
+      <c r="I744" s="8"/>
+      <c r="K744" s="8"/>
     </row>
     <row r="745">
-      <c r="I745" s="5"/>
-      <c r="K745" s="5"/>
+      <c r="G745" s="7"/>
+      <c r="H745" s="7"/>
+      <c r="I745" s="8"/>
+      <c r="K745" s="8"/>
     </row>
     <row r="746">
-      <c r="I746" s="5"/>
-      <c r="K746" s="5"/>
+      <c r="G746" s="7"/>
+      <c r="H746" s="7"/>
+      <c r="I746" s="8"/>
+      <c r="K746" s="8"/>
     </row>
     <row r="747">
-      <c r="I747" s="5"/>
-      <c r="K747" s="5"/>
+      <c r="G747" s="7"/>
+      <c r="H747" s="7"/>
+      <c r="I747" s="8"/>
+      <c r="K747" s="8"/>
     </row>
     <row r="748">
-      <c r="I748" s="5"/>
-      <c r="K748" s="5"/>
+      <c r="G748" s="7"/>
+      <c r="H748" s="7"/>
+      <c r="I748" s="8"/>
+      <c r="K748" s="8"/>
     </row>
     <row r="749">
-      <c r="I749" s="5"/>
-      <c r="K749" s="5"/>
+      <c r="G749" s="7"/>
+      <c r="H749" s="7"/>
+      <c r="I749" s="8"/>
+      <c r="K749" s="8"/>
     </row>
     <row r="750">
-      <c r="I750" s="5"/>
-      <c r="K750" s="5"/>
+      <c r="G750" s="7"/>
+      <c r="H750" s="7"/>
+      <c r="I750" s="8"/>
+      <c r="K750" s="8"/>
     </row>
     <row r="751">
-      <c r="I751" s="5"/>
-      <c r="K751" s="5"/>
+      <c r="G751" s="7"/>
+      <c r="H751" s="7"/>
+      <c r="I751" s="8"/>
+      <c r="K751" s="8"/>
     </row>
     <row r="752">
-      <c r="I752" s="5"/>
-      <c r="K752" s="5"/>
+      <c r="G752" s="7"/>
+      <c r="H752" s="7"/>
+      <c r="I752" s="8"/>
+      <c r="K752" s="8"/>
     </row>
     <row r="753">
-      <c r="I753" s="5"/>
-      <c r="K753" s="5"/>
+      <c r="G753" s="7"/>
+      <c r="H753" s="7"/>
+      <c r="I753" s="8"/>
+      <c r="K753" s="8"/>
     </row>
     <row r="754">
-      <c r="I754" s="5"/>
-      <c r="K754" s="5"/>
+      <c r="G754" s="7"/>
+      <c r="H754" s="7"/>
+      <c r="I754" s="8"/>
+      <c r="K754" s="8"/>
     </row>
     <row r="755">
-      <c r="I755" s="5"/>
-      <c r="K755" s="5"/>
+      <c r="G755" s="7"/>
+      <c r="H755" s="7"/>
+      <c r="I755" s="8"/>
+      <c r="K755" s="8"/>
     </row>
     <row r="756">
-      <c r="I756" s="5"/>
-      <c r="K756" s="5"/>
+      <c r="G756" s="7"/>
+      <c r="H756" s="7"/>
+      <c r="I756" s="8"/>
+      <c r="K756" s="8"/>
     </row>
     <row r="757">
-      <c r="I757" s="5"/>
-      <c r="K757" s="5"/>
+      <c r="G757" s="7"/>
+      <c r="H757" s="7"/>
+      <c r="I757" s="8"/>
+      <c r="K757" s="8"/>
     </row>
     <row r="758">
-      <c r="I758" s="5"/>
-      <c r="K758" s="5"/>
+      <c r="G758" s="7"/>
+      <c r="H758" s="7"/>
+      <c r="I758" s="8"/>
+      <c r="K758" s="8"/>
     </row>
     <row r="759">
-      <c r="I759" s="5"/>
-      <c r="K759" s="5"/>
+      <c r="G759" s="7"/>
+      <c r="H759" s="7"/>
+      <c r="I759" s="8"/>
+      <c r="K759" s="8"/>
     </row>
     <row r="760">
-      <c r="I760" s="5"/>
-      <c r="K760" s="5"/>
+      <c r="G760" s="7"/>
+      <c r="H760" s="7"/>
+      <c r="I760" s="8"/>
+      <c r="K760" s="8"/>
     </row>
     <row r="761">
-      <c r="I761" s="5"/>
-      <c r="K761" s="5"/>
+      <c r="G761" s="7"/>
+      <c r="H761" s="7"/>
+      <c r="I761" s="8"/>
+      <c r="K761" s="8"/>
     </row>
     <row r="762">
-      <c r="I762" s="5"/>
-      <c r="K762" s="5"/>
+      <c r="G762" s="7"/>
+      <c r="H762" s="7"/>
+      <c r="I762" s="8"/>
+      <c r="K762" s="8"/>
     </row>
     <row r="763">
-      <c r="I763" s="5"/>
-      <c r="K763" s="5"/>
+      <c r="G763" s="7"/>
+      <c r="H763" s="7"/>
+      <c r="I763" s="8"/>
+      <c r="K763" s="8"/>
     </row>
     <row r="764">
-      <c r="I764" s="5"/>
-      <c r="K764" s="5"/>
+      <c r="G764" s="7"/>
+      <c r="H764" s="7"/>
+      <c r="I764" s="8"/>
+      <c r="K764" s="8"/>
     </row>
     <row r="765">
-      <c r="I765" s="5"/>
-      <c r="K765" s="5"/>
+      <c r="G765" s="7"/>
+      <c r="H765" s="7"/>
+      <c r="I765" s="8"/>
+      <c r="K765" s="8"/>
     </row>
     <row r="766">
-      <c r="I766" s="5"/>
-      <c r="K766" s="5"/>
+      <c r="G766" s="7"/>
+      <c r="H766" s="7"/>
+      <c r="I766" s="8"/>
+      <c r="K766" s="8"/>
     </row>
     <row r="767">
-      <c r="I767" s="5"/>
-      <c r="K767" s="5"/>
+      <c r="G767" s="7"/>
+      <c r="H767" s="7"/>
+      <c r="I767" s="8"/>
+      <c r="K767" s="8"/>
     </row>
     <row r="768">
-      <c r="I768" s="5"/>
-      <c r="K768" s="5"/>
+      <c r="G768" s="7"/>
+      <c r="H768" s="7"/>
+      <c r="I768" s="8"/>
+      <c r="K768" s="8"/>
     </row>
     <row r="769">
-      <c r="I769" s="5"/>
-      <c r="K769" s="5"/>
+      <c r="G769" s="7"/>
+      <c r="H769" s="7"/>
+      <c r="I769" s="8"/>
+      <c r="K769" s="8"/>
     </row>
     <row r="770">
-      <c r="I770" s="5"/>
-      <c r="K770" s="5"/>
+      <c r="G770" s="7"/>
+      <c r="H770" s="7"/>
+      <c r="I770" s="8"/>
+      <c r="K770" s="8"/>
     </row>
     <row r="771">
-      <c r="I771" s="5"/>
-      <c r="K771" s="5"/>
+      <c r="G771" s="7"/>
+      <c r="H771" s="7"/>
+      <c r="I771" s="8"/>
+      <c r="K771" s="8"/>
     </row>
     <row r="772">
-      <c r="I772" s="5"/>
-      <c r="K772" s="5"/>
+      <c r="G772" s="7"/>
+      <c r="H772" s="7"/>
+      <c r="I772" s="8"/>
+      <c r="K772" s="8"/>
     </row>
     <row r="773">
-      <c r="I773" s="5"/>
-      <c r="K773" s="5"/>
+      <c r="G773" s="7"/>
+      <c r="H773" s="7"/>
+      <c r="I773" s="8"/>
+      <c r="K773" s="8"/>
     </row>
     <row r="774">
-      <c r="I774" s="5"/>
-      <c r="K774" s="5"/>
+      <c r="G774" s="7"/>
+      <c r="H774" s="7"/>
+      <c r="I774" s="8"/>
+      <c r="K774" s="8"/>
     </row>
     <row r="775">
-      <c r="I775" s="5"/>
-      <c r="K775" s="5"/>
+      <c r="G775" s="7"/>
+      <c r="H775" s="7"/>
+      <c r="I775" s="8"/>
+      <c r="K775" s="8"/>
     </row>
     <row r="776">
-      <c r="I776" s="5"/>
-      <c r="K776" s="5"/>
+      <c r="G776" s="7"/>
+      <c r="H776" s="7"/>
+      <c r="I776" s="8"/>
+      <c r="K776" s="8"/>
     </row>
     <row r="777">
-      <c r="I777" s="5"/>
-      <c r="K777" s="5"/>
+      <c r="G777" s="7"/>
+      <c r="H777" s="7"/>
+      <c r="I777" s="8"/>
+      <c r="K777" s="8"/>
     </row>
     <row r="778">
-      <c r="I778" s="5"/>
-      <c r="K778" s="5"/>
+      <c r="G778" s="7"/>
+      <c r="H778" s="7"/>
+      <c r="I778" s="8"/>
+      <c r="K778" s="8"/>
     </row>
     <row r="779">
-      <c r="I779" s="5"/>
-      <c r="K779" s="5"/>
+      <c r="G779" s="7"/>
+      <c r="H779" s="7"/>
+      <c r="I779" s="8"/>
+      <c r="K779" s="8"/>
     </row>
     <row r="780">
-      <c r="I780" s="5"/>
-      <c r="K780" s="5"/>
+      <c r="G780" s="7"/>
+      <c r="H780" s="7"/>
+      <c r="I780" s="8"/>
+      <c r="K780" s="8"/>
     </row>
     <row r="781">
-      <c r="I781" s="5"/>
-      <c r="K781" s="5"/>
+      <c r="G781" s="7"/>
+      <c r="H781" s="7"/>
+      <c r="I781" s="8"/>
+      <c r="K781" s="8"/>
     </row>
     <row r="782">
-      <c r="I782" s="5"/>
-      <c r="K782" s="5"/>
+      <c r="G782" s="7"/>
+      <c r="H782" s="7"/>
+      <c r="I782" s="8"/>
+      <c r="K782" s="8"/>
     </row>
     <row r="783">
-      <c r="I783" s="5"/>
-      <c r="K783" s="5"/>
+      <c r="G783" s="7"/>
+      <c r="H783" s="7"/>
+      <c r="I783" s="8"/>
+      <c r="K783" s="8"/>
     </row>
     <row r="784">
-      <c r="I784" s="5"/>
-      <c r="K784" s="5"/>
+      <c r="G784" s="7"/>
+      <c r="H784" s="7"/>
+      <c r="I784" s="8"/>
+      <c r="K784" s="8"/>
     </row>
     <row r="785">
-      <c r="I785" s="5"/>
-      <c r="K785" s="5"/>
+      <c r="G785" s="7"/>
+      <c r="H785" s="7"/>
+      <c r="I785" s="8"/>
+      <c r="K785" s="8"/>
     </row>
     <row r="786">
-      <c r="I786" s="5"/>
-      <c r="K786" s="5"/>
+      <c r="G786" s="7"/>
+      <c r="H786" s="7"/>
+      <c r="I786" s="8"/>
+      <c r="K786" s="8"/>
     </row>
     <row r="787">
-      <c r="I787" s="5"/>
-      <c r="K787" s="5"/>
+      <c r="G787" s="7"/>
+      <c r="H787" s="7"/>
+      <c r="I787" s="8"/>
+      <c r="K787" s="8"/>
     </row>
     <row r="788">
-      <c r="I788" s="5"/>
-      <c r="K788" s="5"/>
+      <c r="G788" s="7"/>
+      <c r="H788" s="7"/>
+      <c r="I788" s="8"/>
+      <c r="K788" s="8"/>
     </row>
     <row r="789">
-      <c r="I789" s="5"/>
-      <c r="K789" s="5"/>
+      <c r="G789" s="7"/>
+      <c r="H789" s="7"/>
+      <c r="I789" s="8"/>
+      <c r="K789" s="8"/>
     </row>
     <row r="790">
-      <c r="I790" s="5"/>
-      <c r="K790" s="5"/>
+      <c r="G790" s="7"/>
+      <c r="H790" s="7"/>
+      <c r="I790" s="8"/>
+      <c r="K790" s="8"/>
     </row>
     <row r="791">
-      <c r="I791" s="5"/>
-      <c r="K791" s="5"/>
+      <c r="G791" s="7"/>
+      <c r="H791" s="7"/>
+      <c r="I791" s="8"/>
+      <c r="K791" s="8"/>
     </row>
     <row r="792">
-      <c r="I792" s="5"/>
-      <c r="K792" s="5"/>
+      <c r="G792" s="7"/>
+      <c r="H792" s="7"/>
+      <c r="I792" s="8"/>
+      <c r="K792" s="8"/>
     </row>
     <row r="793">
-      <c r="I793" s="5"/>
-      <c r="K793" s="5"/>
+      <c r="G793" s="7"/>
+      <c r="H793" s="7"/>
+      <c r="I793" s="8"/>
+      <c r="K793" s="8"/>
     </row>
     <row r="794">
-      <c r="I794" s="5"/>
-      <c r="K794" s="5"/>
+      <c r="G794" s="7"/>
+      <c r="H794" s="7"/>
+      <c r="I794" s="8"/>
+      <c r="K794" s="8"/>
     </row>
     <row r="795">
-      <c r="I795" s="5"/>
-      <c r="K795" s="5"/>
+      <c r="G795" s="7"/>
+      <c r="H795" s="7"/>
+      <c r="I795" s="8"/>
+      <c r="K795" s="8"/>
     </row>
     <row r="796">
-      <c r="I796" s="5"/>
-      <c r="K796" s="5"/>
+      <c r="G796" s="7"/>
+      <c r="H796" s="7"/>
+      <c r="I796" s="8"/>
+      <c r="K796" s="8"/>
     </row>
     <row r="797">
-      <c r="I797" s="5"/>
-      <c r="K797" s="5"/>
+      <c r="G797" s="7"/>
+      <c r="H797" s="7"/>
+      <c r="I797" s="8"/>
+      <c r="K797" s="8"/>
     </row>
     <row r="798">
-      <c r="I798" s="5"/>
-      <c r="K798" s="5"/>
+      <c r="G798" s="7"/>
+      <c r="H798" s="7"/>
+      <c r="I798" s="8"/>
+      <c r="K798" s="8"/>
     </row>
     <row r="799">
-      <c r="I799" s="5"/>
-      <c r="K799" s="5"/>
+      <c r="G799" s="7"/>
+      <c r="H799" s="7"/>
+      <c r="I799" s="8"/>
+      <c r="K799" s="8"/>
     </row>
     <row r="800">
-      <c r="I800" s="5"/>
-      <c r="K800" s="5"/>
+      <c r="G800" s="7"/>
+      <c r="H800" s="7"/>
+      <c r="I800" s="8"/>
+      <c r="K800" s="8"/>
     </row>
     <row r="801">
-      <c r="I801" s="5"/>
-      <c r="K801" s="5"/>
+      <c r="G801" s="7"/>
+      <c r="H801" s="7"/>
+      <c r="I801" s="8"/>
+      <c r="K801" s="8"/>
     </row>
     <row r="802">
-      <c r="I802" s="5"/>
-      <c r="K802" s="5"/>
+      <c r="G802" s="7"/>
+      <c r="H802" s="7"/>
+      <c r="I802" s="8"/>
+      <c r="K802" s="8"/>
     </row>
     <row r="803">
-      <c r="I803" s="5"/>
-      <c r="K803" s="5"/>
+      <c r="G803" s="7"/>
+      <c r="H803" s="7"/>
+      <c r="I803" s="8"/>
+      <c r="K803" s="8"/>
     </row>
     <row r="804">
-      <c r="I804" s="5"/>
-      <c r="K804" s="5"/>
+      <c r="G804" s="7"/>
+      <c r="H804" s="7"/>
+      <c r="I804" s="8"/>
+      <c r="K804" s="8"/>
     </row>
     <row r="805">
-      <c r="I805" s="5"/>
-      <c r="K805" s="5"/>
+      <c r="G805" s="7"/>
+      <c r="H805" s="7"/>
+      <c r="I805" s="8"/>
+      <c r="K805" s="8"/>
     </row>
     <row r="806">
-      <c r="I806" s="5"/>
-      <c r="K806" s="5"/>
+      <c r="G806" s="7"/>
+      <c r="H806" s="7"/>
+      <c r="I806" s="8"/>
+      <c r="K806" s="8"/>
     </row>
     <row r="807">
-      <c r="I807" s="5"/>
-      <c r="K807" s="5"/>
+      <c r="G807" s="7"/>
+      <c r="H807" s="7"/>
+      <c r="I807" s="8"/>
+      <c r="K807" s="8"/>
     </row>
     <row r="808">
-      <c r="I808" s="5"/>
-      <c r="K808" s="5"/>
+      <c r="G808" s="7"/>
+      <c r="H808" s="7"/>
+      <c r="I808" s="8"/>
+      <c r="K808" s="8"/>
     </row>
     <row r="809">
-      <c r="I809" s="5"/>
-      <c r="K809" s="5"/>
+      <c r="G809" s="7"/>
+      <c r="H809" s="7"/>
+      <c r="I809" s="8"/>
+      <c r="K809" s="8"/>
     </row>
     <row r="810">
-      <c r="I810" s="5"/>
-      <c r="K810" s="5"/>
+      <c r="G810" s="7"/>
+      <c r="H810" s="7"/>
+      <c r="I810" s="8"/>
+      <c r="K810" s="8"/>
     </row>
     <row r="811">
-      <c r="I811" s="5"/>
-      <c r="K811" s="5"/>
+      <c r="G811" s="7"/>
+      <c r="H811" s="7"/>
+      <c r="I811" s="8"/>
+      <c r="K811" s="8"/>
     </row>
     <row r="812">
-      <c r="I812" s="5"/>
-      <c r="K812" s="5"/>
+      <c r="G812" s="7"/>
+      <c r="H812" s="7"/>
+      <c r="I812" s="8"/>
+      <c r="K812" s="8"/>
     </row>
     <row r="813">
-      <c r="I813" s="5"/>
-      <c r="K813" s="5"/>
+      <c r="G813" s="7"/>
+      <c r="H813" s="7"/>
+      <c r="I813" s="8"/>
+      <c r="K813" s="8"/>
     </row>
     <row r="814">
-      <c r="I814" s="5"/>
-      <c r="K814" s="5"/>
+      <c r="G814" s="7"/>
+      <c r="H814" s="7"/>
+      <c r="I814" s="8"/>
+      <c r="K814" s="8"/>
     </row>
     <row r="815">
-      <c r="I815" s="5"/>
-      <c r="K815" s="5"/>
+      <c r="G815" s="7"/>
+      <c r="H815" s="7"/>
+      <c r="I815" s="8"/>
+      <c r="K815" s="8"/>
     </row>
     <row r="816">
-      <c r="I816" s="5"/>
-      <c r="K816" s="5"/>
+      <c r="G816" s="7"/>
+      <c r="H816" s="7"/>
+      <c r="I816" s="8"/>
+      <c r="K816" s="8"/>
     </row>
     <row r="817">
-      <c r="I817" s="5"/>
-      <c r="K817" s="5"/>
+      <c r="G817" s="7"/>
+      <c r="H817" s="7"/>
+      <c r="I817" s="8"/>
+      <c r="K817" s="8"/>
     </row>
     <row r="818">
-      <c r="I818" s="5"/>
-      <c r="K818" s="5"/>
+      <c r="G818" s="7"/>
+      <c r="H818" s="7"/>
+      <c r="I818" s="8"/>
+      <c r="K818" s="8"/>
     </row>
     <row r="819">
-      <c r="I819" s="5"/>
-      <c r="K819" s="5"/>
+      <c r="G819" s="7"/>
+      <c r="H819" s="7"/>
+      <c r="I819" s="8"/>
+      <c r="K819" s="8"/>
     </row>
     <row r="820">
-      <c r="I820" s="5"/>
-      <c r="K820" s="5"/>
+      <c r="G820" s="7"/>
+      <c r="H820" s="7"/>
+      <c r="I820" s="8"/>
+      <c r="K820" s="8"/>
     </row>
     <row r="821">
-      <c r="I821" s="5"/>
-      <c r="K821" s="5"/>
+      <c r="G821" s="7"/>
+      <c r="H821" s="7"/>
+      <c r="I821" s="8"/>
+      <c r="K821" s="8"/>
     </row>
     <row r="822">
-      <c r="I822" s="5"/>
-      <c r="K822" s="5"/>
+      <c r="G822" s="7"/>
+      <c r="H822" s="7"/>
+      <c r="I822" s="8"/>
+      <c r="K822" s="8"/>
     </row>
     <row r="823">
-      <c r="I823" s="5"/>
-      <c r="K823" s="5"/>
+      <c r="G823" s="7"/>
+      <c r="H823" s="7"/>
+      <c r="I823" s="8"/>
+      <c r="K823" s="8"/>
     </row>
     <row r="824">
-      <c r="I824" s="5"/>
-      <c r="K824" s="5"/>
+      <c r="G824" s="7"/>
+      <c r="H824" s="7"/>
+      <c r="I824" s="8"/>
+      <c r="K824" s="8"/>
     </row>
     <row r="825">
-      <c r="I825" s="5"/>
-      <c r="K825" s="5"/>
+      <c r="G825" s="7"/>
+      <c r="H825" s="7"/>
+      <c r="I825" s="8"/>
+      <c r="K825" s="8"/>
     </row>
     <row r="826">
-      <c r="I826" s="5"/>
-      <c r="K826" s="5"/>
+      <c r="G826" s="7"/>
+      <c r="H826" s="7"/>
+      <c r="I826" s="8"/>
+      <c r="K826" s="8"/>
     </row>
     <row r="827">
-      <c r="I827" s="5"/>
-      <c r="K827" s="5"/>
+      <c r="G827" s="7"/>
+      <c r="H827" s="7"/>
+      <c r="I827" s="8"/>
+      <c r="K827" s="8"/>
     </row>
     <row r="828">
-      <c r="I828" s="5"/>
-      <c r="K828" s="5"/>
+      <c r="G828" s="7"/>
+      <c r="H828" s="7"/>
+      <c r="I828" s="8"/>
+      <c r="K828" s="8"/>
     </row>
     <row r="829">
-      <c r="I829" s="5"/>
-      <c r="K829" s="5"/>
+      <c r="G829" s="7"/>
+      <c r="H829" s="7"/>
+      <c r="I829" s="8"/>
+      <c r="K829" s="8"/>
     </row>
     <row r="830">
-      <c r="I830" s="5"/>
-      <c r="K830" s="5"/>
+      <c r="G830" s="7"/>
+      <c r="H830" s="7"/>
+      <c r="I830" s="8"/>
+      <c r="K830" s="8"/>
     </row>
     <row r="831">
-      <c r="I831" s="5"/>
-      <c r="K831" s="5"/>
+      <c r="G831" s="7"/>
+      <c r="H831" s="7"/>
+      <c r="I831" s="8"/>
+      <c r="K831" s="8"/>
     </row>
     <row r="832">
-      <c r="I832" s="5"/>
-      <c r="K832" s="5"/>
+      <c r="G832" s="7"/>
+      <c r="H832" s="7"/>
+      <c r="I832" s="8"/>
+      <c r="K832" s="8"/>
     </row>
     <row r="833">
-      <c r="I833" s="5"/>
-      <c r="K833" s="5"/>
+      <c r="G833" s="7"/>
+      <c r="H833" s="7"/>
+      <c r="I833" s="8"/>
+      <c r="K833" s="8"/>
     </row>
     <row r="834">
-      <c r="I834" s="5"/>
-      <c r="K834" s="5"/>
+      <c r="G834" s="7"/>
+      <c r="H834" s="7"/>
+      <c r="I834" s="8"/>
+      <c r="K834" s="8"/>
     </row>
     <row r="835">
-      <c r="I835" s="5"/>
-      <c r="K835" s="5"/>
+      <c r="G835" s="7"/>
+      <c r="H835" s="7"/>
+      <c r="I835" s="8"/>
+      <c r="K835" s="8"/>
     </row>
     <row r="836">
-      <c r="I836" s="5"/>
-      <c r="K836" s="5"/>
+      <c r="G836" s="7"/>
+      <c r="H836" s="7"/>
+      <c r="I836" s="8"/>
+      <c r="K836" s="8"/>
     </row>
     <row r="837">
-      <c r="I837" s="5"/>
-      <c r="K837" s="5"/>
+      <c r="G837" s="7"/>
+      <c r="H837" s="7"/>
+      <c r="I837" s="8"/>
+      <c r="K837" s="8"/>
     </row>
     <row r="838">
-      <c r="I838" s="5"/>
-      <c r="K838" s="5"/>
+      <c r="G838" s="7"/>
+      <c r="H838" s="7"/>
+      <c r="I838" s="8"/>
+      <c r="K838" s="8"/>
     </row>
     <row r="839">
-      <c r="I839" s="5"/>
-      <c r="K839" s="5"/>
+      <c r="G839" s="7"/>
+      <c r="H839" s="7"/>
+      <c r="I839" s="8"/>
+      <c r="K839" s="8"/>
     </row>
     <row r="840">
-      <c r="I840" s="5"/>
-      <c r="K840" s="5"/>
+      <c r="G840" s="7"/>
+      <c r="H840" s="7"/>
+      <c r="I840" s="8"/>
+      <c r="K840" s="8"/>
     </row>
     <row r="841">
-      <c r="I841" s="5"/>
-      <c r="K841" s="5"/>
+      <c r="G841" s="7"/>
+      <c r="H841" s="7"/>
+      <c r="I841" s="8"/>
+      <c r="K841" s="8"/>
     </row>
     <row r="842">
-      <c r="I842" s="5"/>
-      <c r="K842" s="5"/>
+      <c r="G842" s="7"/>
+      <c r="H842" s="7"/>
+      <c r="I842" s="8"/>
+      <c r="K842" s="8"/>
     </row>
     <row r="843">
-      <c r="I843" s="5"/>
-      <c r="K843" s="5"/>
+      <c r="G843" s="7"/>
+      <c r="H843" s="7"/>
+      <c r="I843" s="8"/>
+      <c r="K843" s="8"/>
     </row>
     <row r="844">
-      <c r="I844" s="5"/>
-      <c r="K844" s="5"/>
+      <c r="G844" s="7"/>
+      <c r="H844" s="7"/>
+      <c r="I844" s="8"/>
+      <c r="K844" s="8"/>
     </row>
     <row r="845">
-      <c r="I845" s="5"/>
-      <c r="K845" s="5"/>
+      <c r="G845" s="7"/>
+      <c r="H845" s="7"/>
+      <c r="I845" s="8"/>
+      <c r="K845" s="8"/>
     </row>
     <row r="846">
-      <c r="I846" s="5"/>
-      <c r="K846" s="5"/>
+      <c r="G846" s="7"/>
+      <c r="H846" s="7"/>
+      <c r="I846" s="8"/>
+      <c r="K846" s="8"/>
     </row>
     <row r="847">
-      <c r="I847" s="5"/>
-      <c r="K847" s="5"/>
+      <c r="G847" s="7"/>
+      <c r="H847" s="7"/>
+      <c r="I847" s="8"/>
+      <c r="K847" s="8"/>
     </row>
     <row r="848">
-      <c r="I848" s="5"/>
-      <c r="K848" s="5"/>
+      <c r="G848" s="7"/>
+      <c r="H848" s="7"/>
+      <c r="I848" s="8"/>
+      <c r="K848" s="8"/>
     </row>
     <row r="849">
-      <c r="I849" s="5"/>
-      <c r="K849" s="5"/>
+      <c r="G849" s="7"/>
+      <c r="H849" s="7"/>
+      <c r="I849" s="8"/>
+      <c r="K849" s="8"/>
     </row>
     <row r="850">
-      <c r="I850" s="5"/>
-      <c r="K850" s="5"/>
+      <c r="G850" s="7"/>
+      <c r="H850" s="7"/>
+      <c r="I850" s="8"/>
+      <c r="K850" s="8"/>
     </row>
     <row r="851">
-      <c r="I851" s="5"/>
-      <c r="K851" s="5"/>
+      <c r="G851" s="7"/>
+      <c r="H851" s="7"/>
+      <c r="I851" s="8"/>
+      <c r="K851" s="8"/>
     </row>
     <row r="852">
-      <c r="I852" s="5"/>
-      <c r="K852" s="5"/>
+      <c r="G852" s="7"/>
+      <c r="H852" s="7"/>
+      <c r="I852" s="8"/>
+      <c r="K852" s="8"/>
     </row>
     <row r="853">
-      <c r="I853" s="5"/>
-      <c r="K853" s="5"/>
+      <c r="G853" s="7"/>
+      <c r="H853" s="7"/>
+      <c r="I853" s="8"/>
+      <c r="K853" s="8"/>
     </row>
     <row r="854">
-      <c r="I854" s="5"/>
-      <c r="K854" s="5"/>
+      <c r="G854" s="7"/>
+      <c r="H854" s="7"/>
+      <c r="I854" s="8"/>
+      <c r="K854" s="8"/>
     </row>
     <row r="855">
-      <c r="I855" s="5"/>
-      <c r="K855" s="5"/>
+      <c r="G855" s="7"/>
+      <c r="H855" s="7"/>
+      <c r="I855" s="8"/>
+      <c r="K855" s="8"/>
     </row>
     <row r="856">
-      <c r="I856" s="5"/>
-      <c r="K856" s="5"/>
+      <c r="G856" s="7"/>
+      <c r="H856" s="7"/>
+      <c r="I856" s="8"/>
+      <c r="K856" s="8"/>
     </row>
     <row r="857">
-      <c r="I857" s="5"/>
-      <c r="K857" s="5"/>
+      <c r="G857" s="7"/>
+      <c r="H857" s="7"/>
+      <c r="I857" s="8"/>
+      <c r="K857" s="8"/>
     </row>
     <row r="858">
-      <c r="I858" s="5"/>
-      <c r="K858" s="5"/>
+      <c r="G858" s="7"/>
+      <c r="H858" s="7"/>
+      <c r="I858" s="8"/>
+      <c r="K858" s="8"/>
     </row>
     <row r="859">
-      <c r="I859" s="5"/>
-      <c r="K859" s="5"/>
+      <c r="G859" s="7"/>
+      <c r="H859" s="7"/>
+      <c r="I859" s="8"/>
+      <c r="K859" s="8"/>
     </row>
     <row r="860">
-      <c r="I860" s="5"/>
-      <c r="K860" s="5"/>
+      <c r="G860" s="7"/>
+      <c r="H860" s="7"/>
+      <c r="I860" s="8"/>
+      <c r="K860" s="8"/>
     </row>
     <row r="861">
-      <c r="I861" s="5"/>
-      <c r="K861" s="5"/>
+      <c r="G861" s="7"/>
+      <c r="H861" s="7"/>
+      <c r="I861" s="8"/>
+      <c r="K861" s="8"/>
     </row>
     <row r="862">
-      <c r="I862" s="5"/>
-      <c r="K862" s="5"/>
+      <c r="G862" s="7"/>
+      <c r="H862" s="7"/>
+      <c r="I862" s="8"/>
+      <c r="K862" s="8"/>
     </row>
     <row r="863">
-      <c r="I863" s="5"/>
-      <c r="K863" s="5"/>
+      <c r="G863" s="7"/>
+      <c r="H863" s="7"/>
+      <c r="I863" s="8"/>
+      <c r="K863" s="8"/>
     </row>
     <row r="864">
-      <c r="I864" s="5"/>
-      <c r="K864" s="5"/>
+      <c r="G864" s="7"/>
+      <c r="H864" s="7"/>
+      <c r="I864" s="8"/>
+      <c r="K864" s="8"/>
     </row>
     <row r="865">
-      <c r="I865" s="5"/>
-      <c r="K865" s="5"/>
+      <c r="G865" s="7"/>
+      <c r="H865" s="7"/>
+      <c r="I865" s="8"/>
+      <c r="K865" s="8"/>
     </row>
     <row r="866">
-      <c r="I866" s="5"/>
-      <c r="K866" s="5"/>
+      <c r="G866" s="7"/>
+      <c r="H866" s="7"/>
+      <c r="I866" s="8"/>
+      <c r="K866" s="8"/>
     </row>
     <row r="867">
-      <c r="I867" s="5"/>
-      <c r="K867" s="5"/>
+      <c r="G867" s="7"/>
+      <c r="H867" s="7"/>
+      <c r="I867" s="8"/>
+      <c r="K867" s="8"/>
     </row>
     <row r="868">
-      <c r="I868" s="5"/>
-      <c r="K868" s="5"/>
+      <c r="G868" s="7"/>
+      <c r="H868" s="7"/>
+      <c r="I868" s="8"/>
+      <c r="K868" s="8"/>
     </row>
     <row r="869">
-      <c r="I869" s="5"/>
-      <c r="K869" s="5"/>
+      <c r="G869" s="7"/>
+      <c r="H869" s="7"/>
+      <c r="I869" s="8"/>
+      <c r="K869" s="8"/>
     </row>
     <row r="870">
-      <c r="I870" s="5"/>
-      <c r="K870" s="5"/>
+      <c r="G870" s="7"/>
+      <c r="H870" s="7"/>
+      <c r="I870" s="8"/>
+      <c r="K870" s="8"/>
     </row>
     <row r="871">
-      <c r="I871" s="5"/>
-      <c r="K871" s="5"/>
+      <c r="G871" s="7"/>
+      <c r="H871" s="7"/>
+      <c r="I871" s="8"/>
+      <c r="K871" s="8"/>
     </row>
     <row r="872">
-      <c r="I872" s="5"/>
-      <c r="K872" s="5"/>
+      <c r="G872" s="7"/>
+      <c r="H872" s="7"/>
+      <c r="I872" s="8"/>
+      <c r="K872" s="8"/>
     </row>
     <row r="873">
-      <c r="I873" s="5"/>
-      <c r="K873" s="5"/>
+      <c r="G873" s="7"/>
+      <c r="H873" s="7"/>
+      <c r="I873" s="8"/>
+      <c r="K873" s="8"/>
     </row>
     <row r="874">
-      <c r="I874" s="5"/>
-      <c r="K874" s="5"/>
+      <c r="G874" s="7"/>
+      <c r="H874" s="7"/>
+      <c r="I874" s="8"/>
+      <c r="K874" s="8"/>
     </row>
     <row r="875">
-      <c r="I875" s="5"/>
-      <c r="K875" s="5"/>
+      <c r="G875" s="7"/>
+      <c r="H875" s="7"/>
+      <c r="I875" s="8"/>
+      <c r="K875" s="8"/>
     </row>
     <row r="876">
-      <c r="I876" s="5"/>
-      <c r="K876" s="5"/>
+      <c r="G876" s="7"/>
+      <c r="H876" s="7"/>
+      <c r="I876" s="8"/>
+      <c r="K876" s="8"/>
     </row>
     <row r="877">
-      <c r="I877" s="5"/>
-      <c r="K877" s="5"/>
+      <c r="G877" s="7"/>
+      <c r="H877" s="7"/>
+      <c r="I877" s="8"/>
+      <c r="K877" s="8"/>
     </row>
     <row r="878">
-      <c r="I878" s="5"/>
-      <c r="K878" s="5"/>
+      <c r="G878" s="7"/>
+      <c r="H878" s="7"/>
+      <c r="I878" s="8"/>
+      <c r="K878" s="8"/>
     </row>
     <row r="879">
-      <c r="I879" s="5"/>
-      <c r="K879" s="5"/>
+      <c r="G879" s="7"/>
+      <c r="H879" s="7"/>
+      <c r="I879" s="8"/>
+      <c r="K879" s="8"/>
     </row>
     <row r="880">
-      <c r="I880" s="5"/>
-      <c r="K880" s="5"/>
+      <c r="G880" s="7"/>
+      <c r="H880" s="7"/>
+      <c r="I880" s="8"/>
+      <c r="K880" s="8"/>
     </row>
     <row r="881">
-      <c r="I881" s="5"/>
-      <c r="K881" s="5"/>
+      <c r="G881" s="7"/>
+      <c r="H881" s="7"/>
+      <c r="I881" s="8"/>
+      <c r="K881" s="8"/>
     </row>
     <row r="882">
-      <c r="I882" s="5"/>
-      <c r="K882" s="5"/>
+      <c r="G882" s="7"/>
+      <c r="H882" s="7"/>
+      <c r="I882" s="8"/>
+      <c r="K882" s="8"/>
     </row>
     <row r="883">
-      <c r="I883" s="5"/>
-      <c r="K883" s="5"/>
+      <c r="G883" s="7"/>
+      <c r="H883" s="7"/>
+      <c r="I883" s="8"/>
+      <c r="K883" s="8"/>
     </row>
     <row r="884">
-      <c r="I884" s="5"/>
-      <c r="K884" s="5"/>
+      <c r="G884" s="7"/>
+      <c r="H884" s="7"/>
+      <c r="I884" s="8"/>
+      <c r="K884" s="8"/>
     </row>
     <row r="885">
-      <c r="I885" s="5"/>
-      <c r="K885" s="5"/>
+      <c r="G885" s="7"/>
+      <c r="H885" s="7"/>
+      <c r="I885" s="8"/>
+      <c r="K885" s="8"/>
     </row>
     <row r="886">
-      <c r="I886" s="5"/>
-      <c r="K886" s="5"/>
+      <c r="G886" s="7"/>
+      <c r="H886" s="7"/>
+      <c r="I886" s="8"/>
+      <c r="K886" s="8"/>
     </row>
     <row r="887">
-      <c r="I887" s="5"/>
-      <c r="K887" s="5"/>
+      <c r="G887" s="7"/>
+      <c r="H887" s="7"/>
+      <c r="I887" s="8"/>
+      <c r="K887" s="8"/>
     </row>
     <row r="888">
-      <c r="I888" s="5"/>
-      <c r="K888" s="5"/>
+      <c r="G888" s="7"/>
+      <c r="H888" s="7"/>
+      <c r="I888" s="8"/>
+      <c r="K888" s="8"/>
     </row>
     <row r="889">
-      <c r="I889" s="5"/>
-      <c r="K889" s="5"/>
+      <c r="G889" s="7"/>
+      <c r="H889" s="7"/>
+      <c r="I889" s="8"/>
+      <c r="K889" s="8"/>
     </row>
     <row r="890">
-      <c r="I890" s="5"/>
-      <c r="K890" s="5"/>
+      <c r="G890" s="7"/>
+      <c r="H890" s="7"/>
+      <c r="I890" s="8"/>
+      <c r="K890" s="8"/>
     </row>
     <row r="891">
-      <c r="I891" s="5"/>
-      <c r="K891" s="5"/>
+      <c r="G891" s="7"/>
+      <c r="H891" s="7"/>
+      <c r="I891" s="8"/>
+      <c r="K891" s="8"/>
     </row>
     <row r="892">
-      <c r="I892" s="5"/>
-      <c r="K892" s="5"/>
+      <c r="G892" s="7"/>
+      <c r="H892" s="7"/>
+      <c r="I892" s="8"/>
+      <c r="K892" s="8"/>
     </row>
     <row r="893">
-      <c r="I893" s="5"/>
-      <c r="K893" s="5"/>
+      <c r="G893" s="7"/>
+      <c r="H893" s="7"/>
+      <c r="I893" s="8"/>
+      <c r="K893" s="8"/>
     </row>
     <row r="894">
-      <c r="I894" s="5"/>
-      <c r="K894" s="5"/>
+      <c r="G894" s="7"/>
+      <c r="H894" s="7"/>
+      <c r="I894" s="8"/>
+      <c r="K894" s="8"/>
     </row>
     <row r="895">
-      <c r="I895" s="5"/>
-      <c r="K895" s="5"/>
+      <c r="G895" s="7"/>
+      <c r="H895" s="7"/>
+      <c r="I895" s="8"/>
+      <c r="K895" s="8"/>
     </row>
     <row r="896">
-      <c r="I896" s="5"/>
-      <c r="K896" s="5"/>
+      <c r="G896" s="7"/>
+      <c r="H896" s="7"/>
+      <c r="I896" s="8"/>
+      <c r="K896" s="8"/>
     </row>
     <row r="897">
-      <c r="I897" s="5"/>
-      <c r="K897" s="5"/>
+      <c r="G897" s="7"/>
+      <c r="H897" s="7"/>
+      <c r="I897" s="8"/>
+      <c r="K897" s="8"/>
     </row>
     <row r="898">
-      <c r="I898" s="5"/>
-      <c r="K898" s="5"/>
+      <c r="G898" s="7"/>
+      <c r="H898" s="7"/>
+      <c r="I898" s="8"/>
+      <c r="K898" s="8"/>
     </row>
     <row r="899">
-      <c r="I899" s="5"/>
-      <c r="K899" s="5"/>
+      <c r="G899" s="7"/>
+      <c r="H899" s="7"/>
+      <c r="I899" s="8"/>
+      <c r="K899" s="8"/>
     </row>
     <row r="900">
-      <c r="I900" s="5"/>
-      <c r="K900" s="5"/>
+      <c r="G900" s="7"/>
+      <c r="H900" s="7"/>
+      <c r="I900" s="8"/>
+      <c r="K900" s="8"/>
     </row>
     <row r="901">
-      <c r="I901" s="5"/>
-      <c r="K901" s="5"/>
+      <c r="G901" s="7"/>
+      <c r="H901" s="7"/>
+      <c r="I901" s="8"/>
+      <c r="K901" s="8"/>
     </row>
     <row r="902">
-      <c r="I902" s="5"/>
-      <c r="K902" s="5"/>
+      <c r="G902" s="7"/>
+      <c r="H902" s="7"/>
+      <c r="I902" s="8"/>
+      <c r="K902" s="8"/>
     </row>
     <row r="903">
-      <c r="I903" s="5"/>
-      <c r="K903" s="5"/>
+      <c r="G903" s="7"/>
+      <c r="H903" s="7"/>
+      <c r="I903" s="8"/>
+      <c r="K903" s="8"/>
     </row>
     <row r="904">
-      <c r="I904" s="5"/>
-      <c r="K904" s="5"/>
+      <c r="G904" s="7"/>
+      <c r="H904" s="7"/>
+      <c r="I904" s="8"/>
+      <c r="K904" s="8"/>
     </row>
     <row r="905">
-      <c r="I905" s="5"/>
-      <c r="K905" s="5"/>
+      <c r="G905" s="7"/>
+      <c r="H905" s="7"/>
+      <c r="I905" s="8"/>
+      <c r="K905" s="8"/>
     </row>
     <row r="906">
-      <c r="I906" s="5"/>
-      <c r="K906" s="5"/>
+      <c r="G906" s="7"/>
+      <c r="H906" s="7"/>
+      <c r="I906" s="8"/>
+      <c r="K906" s="8"/>
     </row>
     <row r="907">
-      <c r="I907" s="5"/>
-      <c r="K907" s="5"/>
+      <c r="G907" s="7"/>
+      <c r="H907" s="7"/>
+      <c r="I907" s="8"/>
+      <c r="K907" s="8"/>
     </row>
     <row r="908">
-      <c r="I908" s="5"/>
-      <c r="K908" s="5"/>
+      <c r="G908" s="7"/>
+      <c r="H908" s="7"/>
+      <c r="I908" s="8"/>
+      <c r="K908" s="8"/>
     </row>
     <row r="909">
-      <c r="I909" s="5"/>
-      <c r="K909" s="5"/>
+      <c r="G909" s="7"/>
+      <c r="H909" s="7"/>
+      <c r="I909" s="8"/>
+      <c r="K909" s="8"/>
     </row>
     <row r="910">
-      <c r="I910" s="5"/>
-      <c r="K910" s="5"/>
+      <c r="G910" s="7"/>
+      <c r="H910" s="7"/>
+      <c r="I910" s="8"/>
+      <c r="K910" s="8"/>
     </row>
     <row r="911">
-      <c r="I911" s="5"/>
-      <c r="K911" s="5"/>
+      <c r="G911" s="7"/>
+      <c r="H911" s="7"/>
+      <c r="I911" s="8"/>
+      <c r="K911" s="8"/>
     </row>
     <row r="912">
-      <c r="I912" s="5"/>
-      <c r="K912" s="5"/>
+      <c r="G912" s="7"/>
+      <c r="H912" s="7"/>
+      <c r="I912" s="8"/>
+      <c r="K912" s="8"/>
     </row>
     <row r="913">
-      <c r="I913" s="5"/>
-      <c r="K913" s="5"/>
+      <c r="G913" s="7"/>
+      <c r="H913" s="7"/>
+      <c r="I913" s="8"/>
+      <c r="K913" s="8"/>
     </row>
     <row r="914">
-      <c r="I914" s="5"/>
-      <c r="K914" s="5"/>
+      <c r="G914" s="7"/>
+      <c r="H914" s="7"/>
+      <c r="I914" s="8"/>
+      <c r="K914" s="8"/>
     </row>
     <row r="915">
-      <c r="I915" s="5"/>
-      <c r="K915" s="5"/>
+      <c r="G915" s="7"/>
+      <c r="H915" s="7"/>
+      <c r="I915" s="8"/>
+      <c r="K915" s="8"/>
     </row>
     <row r="916">
-      <c r="I916" s="5"/>
-      <c r="K916" s="5"/>
+      <c r="G916" s="7"/>
+      <c r="H916" s="7"/>
+      <c r="I916" s="8"/>
+      <c r="K916" s="8"/>
     </row>
     <row r="917">
-      <c r="I917" s="5"/>
-      <c r="K917" s="5"/>
+      <c r="G917" s="7"/>
+      <c r="H917" s="7"/>
+      <c r="I917" s="8"/>
+      <c r="K917" s="8"/>
     </row>
     <row r="918">
-      <c r="I918" s="5"/>
-      <c r="K918" s="5"/>
+      <c r="G918" s="7"/>
+      <c r="H918" s="7"/>
+      <c r="I918" s="8"/>
+      <c r="K918" s="8"/>
     </row>
     <row r="919">
-      <c r="I919" s="5"/>
-      <c r="K919" s="5"/>
+      <c r="G919" s="7"/>
+      <c r="H919" s="7"/>
+      <c r="I919" s="8"/>
+      <c r="K919" s="8"/>
     </row>
     <row r="920">
-      <c r="I920" s="5"/>
-      <c r="K920" s="5"/>
+      <c r="G920" s="7"/>
+      <c r="H920" s="7"/>
+      <c r="I920" s="8"/>
+      <c r="K920" s="8"/>
     </row>
     <row r="921">
-      <c r="I921" s="5"/>
-      <c r="K921" s="5"/>
+      <c r="G921" s="7"/>
+      <c r="H921" s="7"/>
+      <c r="I921" s="8"/>
+      <c r="K921" s="8"/>
     </row>
     <row r="922">
-      <c r="I922" s="5"/>
-      <c r="K922" s="5"/>
+      <c r="G922" s="7"/>
+      <c r="H922" s="7"/>
+      <c r="I922" s="8"/>
+      <c r="K922" s="8"/>
     </row>
     <row r="923">
-      <c r="I923" s="5"/>
-      <c r="K923" s="5"/>
+      <c r="G923" s="7"/>
+      <c r="H923" s="7"/>
+      <c r="I923" s="8"/>
+      <c r="K923" s="8"/>
     </row>
     <row r="924">
-      <c r="I924" s="5"/>
-      <c r="K924" s="5"/>
+      <c r="G924" s="7"/>
+      <c r="H924" s="7"/>
+      <c r="I924" s="8"/>
+      <c r="K924" s="8"/>
     </row>
     <row r="925">
-      <c r="I925" s="5"/>
-      <c r="K925" s="5"/>
+      <c r="G925" s="7"/>
+      <c r="H925" s="7"/>
+      <c r="I925" s="8"/>
+      <c r="K925" s="8"/>
     </row>
     <row r="926">
-      <c r="I926" s="5"/>
-      <c r="K926" s="5"/>
+      <c r="G926" s="7"/>
+      <c r="H926" s="7"/>
+      <c r="I926" s="8"/>
+      <c r="K926" s="8"/>
     </row>
     <row r="927">
-      <c r="I927" s="5"/>
-      <c r="K927" s="5"/>
+      <c r="G927" s="7"/>
+      <c r="H927" s="7"/>
+      <c r="I927" s="8"/>
+      <c r="K927" s="8"/>
     </row>
     <row r="928">
-      <c r="I928" s="5"/>
-      <c r="K928" s="5"/>
+      <c r="G928" s="7"/>
+      <c r="H928" s="7"/>
+      <c r="I928" s="8"/>
+      <c r="K928" s="8"/>
     </row>
     <row r="929">
-      <c r="I929" s="5"/>
-      <c r="K929" s="5"/>
+      <c r="G929" s="7"/>
+      <c r="H929" s="7"/>
+      <c r="I929" s="8"/>
+      <c r="K929" s="8"/>
     </row>
     <row r="930">
-      <c r="I930" s="5"/>
-      <c r="K930" s="5"/>
+      <c r="G930" s="7"/>
+      <c r="H930" s="7"/>
+      <c r="I930" s="8"/>
+      <c r="K930" s="8"/>
     </row>
     <row r="931">
-      <c r="I931" s="5"/>
-      <c r="K931" s="5"/>
+      <c r="G931" s="7"/>
+      <c r="H931" s="7"/>
+      <c r="I931" s="8"/>
+      <c r="K931" s="8"/>
     </row>
     <row r="932">
-      <c r="I932" s="5"/>
-      <c r="K932" s="5"/>
+      <c r="G932" s="7"/>
+      <c r="H932" s="7"/>
+      <c r="I932" s="8"/>
+      <c r="K932" s="8"/>
     </row>
     <row r="933">
-      <c r="I933" s="5"/>
-      <c r="K933" s="5"/>
+      <c r="G933" s="7"/>
+      <c r="H933" s="7"/>
+      <c r="I933" s="8"/>
+      <c r="K933" s="8"/>
     </row>
     <row r="934">
-      <c r="I934" s="5"/>
-      <c r="K934" s="5"/>
+      <c r="G934" s="7"/>
+      <c r="H934" s="7"/>
+      <c r="I934" s="8"/>
+      <c r="K934" s="8"/>
     </row>
     <row r="935">
-      <c r="I935" s="5"/>
-      <c r="K935" s="5"/>
+      <c r="G935" s="7"/>
+      <c r="H935" s="7"/>
+      <c r="I935" s="8"/>
+      <c r="K935" s="8"/>
     </row>
     <row r="936">
-      <c r="I936" s="5"/>
-      <c r="K936" s="5"/>
+      <c r="G936" s="7"/>
+      <c r="H936" s="7"/>
+      <c r="I936" s="8"/>
+      <c r="K936" s="8"/>
     </row>
     <row r="937">
-      <c r="I937" s="5"/>
-      <c r="K937" s="5"/>
+      <c r="G937" s="7"/>
+      <c r="H937" s="7"/>
+      <c r="I937" s="8"/>
+      <c r="K937" s="8"/>
     </row>
     <row r="938">
-      <c r="I938" s="5"/>
-      <c r="K938" s="5"/>
+      <c r="G938" s="7"/>
+      <c r="H938" s="7"/>
+      <c r="I938" s="8"/>
+      <c r="K938" s="8"/>
     </row>
     <row r="939">
-      <c r="I939" s="5"/>
-      <c r="K939" s="5"/>
+      <c r="G939" s="7"/>
+      <c r="H939" s="7"/>
+      <c r="I939" s="8"/>
+      <c r="K939" s="8"/>
     </row>
     <row r="940">
-      <c r="I940" s="5"/>
-      <c r="K940" s="5"/>
+      <c r="G940" s="7"/>
+      <c r="H940" s="7"/>
+      <c r="I940" s="8"/>
+      <c r="K940" s="8"/>
     </row>
     <row r="941">
-      <c r="I941" s="5"/>
-      <c r="K941" s="5"/>
+      <c r="G941" s="7"/>
+      <c r="H941" s="7"/>
+      <c r="I941" s="8"/>
+      <c r="K941" s="8"/>
     </row>
     <row r="942">
-      <c r="I942" s="5"/>
-      <c r="K942" s="5"/>
+      <c r="G942" s="7"/>
+      <c r="H942" s="7"/>
+      <c r="I942" s="8"/>
+      <c r="K942" s="8"/>
     </row>
     <row r="943">
-      <c r="I943" s="5"/>
-      <c r="K943" s="5"/>
+      <c r="G943" s="7"/>
+      <c r="H943" s="7"/>
+      <c r="I943" s="8"/>
+      <c r="K943" s="8"/>
     </row>
     <row r="944">
-      <c r="I944" s="5"/>
-      <c r="K944" s="5"/>
+      <c r="G944" s="7"/>
+      <c r="H944" s="7"/>
+      <c r="I944" s="8"/>
+      <c r="K944" s="8"/>
     </row>
     <row r="945">
-      <c r="I945" s="5"/>
-      <c r="K945" s="5"/>
+      <c r="G945" s="7"/>
+      <c r="H945" s="7"/>
+      <c r="I945" s="8"/>
+      <c r="K945" s="8"/>
     </row>
     <row r="946">
-      <c r="I946" s="5"/>
-      <c r="K946" s="5"/>
+      <c r="G946" s="7"/>
+      <c r="H946" s="7"/>
+      <c r="I946" s="8"/>
+      <c r="K946" s="8"/>
     </row>
     <row r="947">
-      <c r="I947" s="5"/>
-      <c r="K947" s="5"/>
+      <c r="G947" s="7"/>
+      <c r="H947" s="7"/>
+      <c r="I947" s="8"/>
+      <c r="K947" s="8"/>
     </row>
     <row r="948">
-      <c r="I948" s="5"/>
-      <c r="K948" s="5"/>
+      <c r="G948" s="7"/>
+      <c r="H948" s="7"/>
+      <c r="I948" s="8"/>
+      <c r="K948" s="8"/>
     </row>
     <row r="949">
-      <c r="I949" s="5"/>
-      <c r="K949" s="5"/>
+      <c r="G949" s="7"/>
+      <c r="H949" s="7"/>
+      <c r="I949" s="8"/>
+      <c r="K949" s="8"/>
     </row>
     <row r="950">
-      <c r="I950" s="5"/>
-      <c r="K950" s="5"/>
+      <c r="G950" s="7"/>
+      <c r="H950" s="7"/>
+      <c r="I950" s="8"/>
+      <c r="K950" s="8"/>
     </row>
     <row r="951">
-      <c r="I951" s="5"/>
-      <c r="K951" s="5"/>
+      <c r="G951" s="7"/>
+      <c r="H951" s="7"/>
+      <c r="I951" s="8"/>
+      <c r="K951" s="8"/>
     </row>
     <row r="952">
-      <c r="I952" s="5"/>
-      <c r="K952" s="5"/>
+      <c r="G952" s="7"/>
+      <c r="H952" s="7"/>
+      <c r="I952" s="8"/>
+      <c r="K952" s="8"/>
     </row>
     <row r="953">
-      <c r="I953" s="5"/>
-      <c r="K953" s="5"/>
+      <c r="G953" s="7"/>
+      <c r="H953" s="7"/>
+      <c r="I953" s="8"/>
+      <c r="K953" s="8"/>
     </row>
     <row r="954">
-      <c r="I954" s="5"/>
-      <c r="K954" s="5"/>
+      <c r="G954" s="7"/>
+      <c r="H954" s="7"/>
+      <c r="I954" s="8"/>
+      <c r="K954" s="8"/>
     </row>
     <row r="955">
-      <c r="I955" s="5"/>
-      <c r="K955" s="5"/>
+      <c r="G955" s="7"/>
+      <c r="H955" s="7"/>
+      <c r="I955" s="8"/>
+      <c r="K955" s="8"/>
     </row>
     <row r="956">
-      <c r="I956" s="5"/>
-      <c r="K956" s="5"/>
+      <c r="G956" s="7"/>
+      <c r="H956" s="7"/>
+      <c r="I956" s="8"/>
+      <c r="K956" s="8"/>
     </row>
     <row r="957">
-      <c r="I957" s="5"/>
-      <c r="K957" s="5"/>
+      <c r="G957" s="7"/>
+      <c r="H957" s="7"/>
+      <c r="I957" s="8"/>
+      <c r="K957" s="8"/>
     </row>
     <row r="958">
-      <c r="I958" s="5"/>
-      <c r="K958" s="5"/>
+      <c r="G958" s="7"/>
+      <c r="H958" s="7"/>
+      <c r="I958" s="8"/>
+      <c r="K958" s="8"/>
     </row>
     <row r="959">
-      <c r="I959" s="5"/>
-      <c r="K959" s="5"/>
+      <c r="G959" s="7"/>
+      <c r="H959" s="7"/>
+      <c r="I959" s="8"/>
+      <c r="K959" s="8"/>
     </row>
     <row r="960">
-      <c r="I960" s="5"/>
-      <c r="K960" s="5"/>
+      <c r="G960" s="7"/>
+      <c r="H960" s="7"/>
+      <c r="I960" s="8"/>
+      <c r="K960" s="8"/>
     </row>
     <row r="961">
-      <c r="I961" s="5"/>
-      <c r="K961" s="5"/>
+      <c r="G961" s="7"/>
+      <c r="H961" s="7"/>
+      <c r="I961" s="8"/>
+      <c r="K961" s="8"/>
     </row>
     <row r="962">
-      <c r="I962" s="5"/>
-      <c r="K962" s="5"/>
+      <c r="G962" s="7"/>
+      <c r="H962" s="7"/>
+      <c r="I962" s="8"/>
+      <c r="K962" s="8"/>
     </row>
     <row r="963">
-      <c r="I963" s="5"/>
-      <c r="K963" s="5"/>
+      <c r="G963" s="7"/>
+      <c r="H963" s="7"/>
+      <c r="I963" s="8"/>
+      <c r="K963" s="8"/>
     </row>
     <row r="964">
-      <c r="I964" s="5"/>
-      <c r="K964" s="5"/>
+      <c r="G964" s="7"/>
+      <c r="H964" s="7"/>
+      <c r="I964" s="8"/>
+      <c r="K964" s="8"/>
     </row>
     <row r="965">
-      <c r="I965" s="5"/>
-      <c r="K965" s="5"/>
+      <c r="G965" s="7"/>
+      <c r="H965" s="7"/>
+      <c r="I965" s="8"/>
+      <c r="K965" s="8"/>
     </row>
     <row r="966">
-      <c r="I966" s="5"/>
-      <c r="K966" s="5"/>
+      <c r="G966" s="7"/>
+      <c r="H966" s="7"/>
+      <c r="I966" s="8"/>
+      <c r="K966" s="8"/>
     </row>
     <row r="967">
-      <c r="I967" s="5"/>
-      <c r="K967" s="5"/>
+      <c r="G967" s="7"/>
+      <c r="H967" s="7"/>
+      <c r="I967" s="8"/>
+      <c r="K967" s="8"/>
     </row>
     <row r="968">
-      <c r="I968" s="5"/>
-      <c r="K968" s="5"/>
+      <c r="G968" s="7"/>
+      <c r="H968" s="7"/>
+      <c r="I968" s="8"/>
+      <c r="K968" s="8"/>
     </row>
     <row r="969">
-      <c r="I969" s="5"/>
-      <c r="K969" s="5"/>
+      <c r="G969" s="7"/>
+      <c r="H969" s="7"/>
+      <c r="I969" s="8"/>
+      <c r="K969" s="8"/>
     </row>
     <row r="970">
-      <c r="I970" s="5"/>
-      <c r="K970" s="5"/>
+      <c r="G970" s="7"/>
+      <c r="H970" s="7"/>
+      <c r="I970" s="8"/>
+      <c r="K970" s="8"/>
     </row>
     <row r="971">
-      <c r="I971" s="5"/>
-      <c r="K971" s="5"/>
+      <c r="G971" s="7"/>
+      <c r="H971" s="7"/>
+      <c r="I971" s="8"/>
+      <c r="K971" s="8"/>
     </row>
     <row r="972">
-      <c r="I972" s="5"/>
-      <c r="K972" s="5"/>
+      <c r="G972" s="7"/>
+      <c r="H972" s="7"/>
+      <c r="I972" s="8"/>
+      <c r="K972" s="8"/>
     </row>
     <row r="973">
-      <c r="I973" s="5"/>
-      <c r="K973" s="5"/>
+      <c r="G973" s="7"/>
+      <c r="H973" s="7"/>
+      <c r="I973" s="8"/>
+      <c r="K973" s="8"/>
     </row>
     <row r="974">
-      <c r="I974" s="5"/>
-      <c r="K974" s="5"/>
+      <c r="G974" s="7"/>
+      <c r="H974" s="7"/>
+      <c r="I974" s="8"/>
+      <c r="K974" s="8"/>
     </row>
     <row r="975">
-      <c r="I975" s="5"/>
-      <c r="K975" s="5"/>
+      <c r="G975" s="7"/>
+      <c r="H975" s="7"/>
+      <c r="I975" s="8"/>
+      <c r="K975" s="8"/>
     </row>
     <row r="976">
-      <c r="I976" s="5"/>
-      <c r="K976" s="5"/>
+      <c r="G976" s="7"/>
+      <c r="H976" s="7"/>
+      <c r="I976" s="8"/>
+      <c r="K976" s="8"/>
     </row>
     <row r="977">
-      <c r="I977" s="5"/>
-      <c r="K977" s="5"/>
+      <c r="G977" s="7"/>
+      <c r="H977" s="7"/>
+      <c r="I977" s="8"/>
+      <c r="K977" s="8"/>
     </row>
     <row r="978">
-      <c r="I978" s="5"/>
-      <c r="K978" s="5"/>
+      <c r="G978" s="7"/>
+      <c r="H978" s="7"/>
+      <c r="I978" s="8"/>
+      <c r="K978" s="8"/>
     </row>
     <row r="979">
-      <c r="I979" s="5"/>
-      <c r="K979" s="5"/>
+      <c r="G979" s="7"/>
+      <c r="H979" s="7"/>
+      <c r="I979" s="8"/>
+      <c r="K979" s="8"/>
     </row>
     <row r="980">
-      <c r="I980" s="5"/>
-      <c r="K980" s="5"/>
+      <c r="G980" s="7"/>
+      <c r="H980" s="7"/>
+      <c r="I980" s="8"/>
+      <c r="K980" s="8"/>
     </row>
     <row r="981">
-      <c r="I981" s="5"/>
-      <c r="K981" s="5"/>
+      <c r="G981" s="7"/>
+      <c r="H981" s="7"/>
+      <c r="I981" s="8"/>
+      <c r="K981" s="8"/>
     </row>
     <row r="982">
-      <c r="I982" s="5"/>
-      <c r="K982" s="5"/>
+      <c r="G982" s="7"/>
+      <c r="H982" s="7"/>
+      <c r="I982" s="8"/>
+      <c r="K982" s="8"/>
     </row>
     <row r="983">
-      <c r="I983" s="5"/>
-      <c r="K983" s="5"/>
+      <c r="G983" s="7"/>
+      <c r="H983" s="7"/>
+      <c r="I983" s="8"/>
+      <c r="K983" s="8"/>
     </row>
     <row r="984">
-      <c r="I984" s="5"/>
-      <c r="K984" s="5"/>
+      <c r="G984" s="7"/>
+      <c r="H984" s="7"/>
+      <c r="I984" s="8"/>
+      <c r="K984" s="8"/>
     </row>
     <row r="985">
-      <c r="I985" s="5"/>
-      <c r="K985" s="5"/>
+      <c r="G985" s="7"/>
+      <c r="H985" s="7"/>
+      <c r="I985" s="8"/>
+      <c r="K985" s="8"/>
     </row>
     <row r="986">
-      <c r="I986" s="5"/>
-      <c r="K986" s="5"/>
+      <c r="G986" s="7"/>
+      <c r="H986" s="7"/>
+      <c r="I986" s="8"/>
+      <c r="K986" s="8"/>
     </row>
     <row r="987">
-      <c r="I987" s="5"/>
-      <c r="K987" s="5"/>
+      <c r="G987" s="7"/>
+      <c r="H987" s="7"/>
+      <c r="I987" s="8"/>
+      <c r="K987" s="8"/>
     </row>
     <row r="988">
-      <c r="I988" s="5"/>
-      <c r="K988" s="5"/>
+      <c r="G988" s="7"/>
+      <c r="H988" s="7"/>
+      <c r="I988" s="8"/>
+      <c r="K988" s="8"/>
     </row>
     <row r="989">
-      <c r="I989" s="5"/>
-      <c r="K989" s="5"/>
+      <c r="G989" s="7"/>
+      <c r="H989" s="7"/>
+      <c r="I989" s="8"/>
+      <c r="K989" s="8"/>
     </row>
     <row r="990">
-      <c r="I990" s="5"/>
-      <c r="K990" s="5"/>
+      <c r="G990" s="7"/>
+      <c r="H990" s="7"/>
+      <c r="I990" s="8"/>
+      <c r="K990" s="8"/>
     </row>
     <row r="991">
-      <c r="I991" s="5"/>
-      <c r="K991" s="5"/>
+      <c r="G991" s="7"/>
+      <c r="H991" s="7"/>
+      <c r="I991" s="8"/>
+      <c r="K991" s="8"/>
     </row>
     <row r="992">
-      <c r="I992" s="5"/>
-      <c r="K992" s="5"/>
+      <c r="G992" s="7"/>
+      <c r="H992" s="7"/>
+      <c r="I992" s="8"/>
+      <c r="K992" s="8"/>
     </row>
     <row r="993">
-      <c r="I993" s="5"/>
-      <c r="K993" s="5"/>
+      <c r="G993" s="7"/>
+      <c r="H993" s="7"/>
+      <c r="I993" s="8"/>
+      <c r="K993" s="8"/>
     </row>
     <row r="994">
-      <c r="I994" s="5"/>
-      <c r="K994" s="5"/>
+      <c r="G994" s="7"/>
+      <c r="H994" s="7"/>
+      <c r="I994" s="8"/>
+      <c r="K994" s="8"/>
     </row>
     <row r="995">
-      <c r="I995" s="5"/>
-      <c r="K995" s="5"/>
+      <c r="G995" s="7"/>
+      <c r="H995" s="7"/>
+      <c r="I995" s="8"/>
+      <c r="K995" s="8"/>
     </row>
     <row r="996">
-      <c r="I996" s="5"/>
-      <c r="K996" s="5"/>
+      <c r="G996" s="7"/>
+      <c r="H996" s="7"/>
+      <c r="I996" s="8"/>
+      <c r="K996" s="8"/>
     </row>
     <row r="997">
-      <c r="I997" s="5"/>
-      <c r="K997" s="5"/>
+      <c r="G997" s="7"/>
+      <c r="H997" s="7"/>
+      <c r="I997" s="8"/>
+      <c r="K997" s="8"/>
     </row>
     <row r="998">
-      <c r="I998" s="5"/>
-      <c r="K998" s="5"/>
+      <c r="G998" s="7"/>
+      <c r="H998" s="7"/>
+      <c r="I998" s="8"/>
+      <c r="K998" s="8"/>
     </row>
     <row r="999">
-      <c r="I999" s="5"/>
-      <c r="K999" s="5"/>
+      <c r="G999" s="7"/>
+      <c r="H999" s="7"/>
+      <c r="I999" s="8"/>
+      <c r="K999" s="8"/>
     </row>
     <row r="1000">
-      <c r="I1000" s="5"/>
-      <c r="K1000" s="5"/>
+      <c r="G1000" s="7"/>
+      <c r="H1000" s="7"/>
+      <c r="I1000" s="8"/>
+      <c r="K1000" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/literature review/lit review.xlsx
+++ b/literature review/lit review.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
   <si>
     <t>INDEX</t>
   </si>
@@ -43,7 +43,7 @@
     <t>SIGNATURE DIAGRAM</t>
   </si>
   <si>
-    <t>SENSORS</t>
+    <t>SENSORS/ HW</t>
   </si>
   <si>
     <t>TECH STACK</t>
@@ -298,13 +298,100 @@
     <t>009</t>
   </si>
   <si>
+    <t>Maciej M. Nowak, Katarzyna Dziȩob, Łukasz Ludwisiak, Julian Chmiel</t>
+  </si>
+  <si>
+    <t>Mobile GIS Applications for Environmental Field Surveys: A State of the Art</t>
+  </si>
+  <si>
+    <t>Mobile GIS applications exist but are underutilized and rarely documented in research methodology.No comprehensive review of mobile GIS applications for environmental field surveys exists</t>
+  </si>
+  <si>
+    <t>Provides a global review of mobile GIS applications for environmental fieldwork.Analyzes the capabilities of different mobile GIS tools like ArcGIS Collector, QField, Mapit Spatial, etc.Presents real-world case studies, including biodiversity mapping at a limestone mining site in Poland.Highlights the advantages of mobile GIS for field data collection compared to traditional methods</t>
+  </si>
+  <si>
+    <t>Review existing mobile GIS applications for environmental field surveys.</t>
+  </si>
+  <si>
+    <t>More widespread adoption of mobile GIS in research.Better documentation of GIS tools in academic papers.Integration with emerging technologies like UAVs (drones) for spatial mapping.</t>
+  </si>
+  <si>
     <t>010</t>
   </si>
   <si>
+    <t>Bernard Akindade Adaramola,Ayodeji Olalekan Salau , Favour Oluwatobi Adetunji , Olatomide Gbenga Fadodun , Adebayo Tunbosun Ogundipe</t>
+  </si>
+  <si>
+    <t>Development and Performance analysis of a GPS GSM Guided System for Vehicle Tracking</t>
+  </si>
+  <si>
+    <t>preventing car theft by creating an app that sends the car coordinates to the owner</t>
+  </si>
+  <si>
+    <t>created a fully functional app that sends an sms notification when recieving a message from the user and sends coordinates to authorities/user when theft is detected</t>
+  </si>
+  <si>
+    <t>to create an app that prevents theft and sends an sms to the users phone upon detection of theft (detected with a vibration detection module). the app will use gps and gms modules to send the coordinates.</t>
+  </si>
+  <si>
+    <t>NEO 6M GPS Module,  Piezoelectric Transducer, LM2940CT Voltage Regulator , MCP 602 Op Amp, arduino uno,  SIM 800l Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proteus Software to test and model the circuit.</t>
+  </si>
+  <si>
+    <t>compared battery life, time to first fix (TTFF) (time to connect the module to the satellites), and accuracy of coordinates of the gps module.</t>
+  </si>
+  <si>
+    <t>the app was created and tested.</t>
+  </si>
+  <si>
     <t>011</t>
   </si>
   <si>
+    <t>Ugwu Nnaemeka Virginus1, Okafor, Loveth Ijeoma2, Ikechukwu Onyekachukwu3, Agbo, Jonathan Chukwunwike4, Uzoigwe Charles Ikechukwu5, Anyaorah Chukwuka Charles6, Udechukwu Precious Emeka7, Jonah Jane8, Obi Adaobi Maria9</t>
+  </si>
+  <si>
+    <t>Design and Implementation Vehicle Tracking System Using GSM and GPS</t>
+  </si>
+  <si>
+    <t>This paper presents a Vehicle Theft Alert and area ID arrangement utilizing GSM and GPS innovations.</t>
+  </si>
+  <si>
+    <t>a finished framework which sends an sms message to the authorities and user when the car starts and the mystery confirmation button isnt clicked within 40 seconds</t>
+  </si>
+  <si>
+    <t>. The point is to plan a framework that can trigger a SMS ready capacity that can make mindfulness for vehicle proprietors to assist them with checkmating unapproved faculty exercises on the vehicle and an area ID highlight utilizing GSM and GPS is additionally accessible to distinguish unapproved drivers and tos recover lost or taken vehicles.</t>
+  </si>
+  <si>
+    <t>Gsm module, GPS module</t>
+  </si>
+  <si>
+    <t>JAVA programming language, while PHP and MySQL were utilized for the web application capacities.</t>
+  </si>
+  <si>
     <t>012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rezowana Akter, Md Jahid Hasan Khandaker,Shakil Ahmed,Muhtasim Munem Mugdho,A K M Bahalul Haque </t>
+  </si>
+  <si>
+    <t>RFID based Smart Transportation System with Android Application</t>
+  </si>
+  <si>
+    <t>introducing a smart transportation system for public buses</t>
+  </si>
+  <si>
+    <t>2 applications, A user application has been developed which provides real-time information (bus location and fare) to the passenger that ensures an efficient public transportation system. and a driver application to keep count of passengers.</t>
+  </si>
+  <si>
+    <t>The main of this research work is to offer an effortless transportation facility by minimizing the problems faced by passengers, drivers and the concerned authorities with the help of a handy android application.</t>
+  </si>
+  <si>
+    <t>RFID, GPS module</t>
+  </si>
+  <si>
+    <t>firebase, and google maps</t>
   </si>
   <si>
     <t>013</t>
@@ -433,7 +520,7 @@
     <xdr:ext cx="3924300" cy="2514600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image8.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -461,7 +548,7 @@
     <xdr:ext cx="676275" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg"/>
+        <xdr:cNvPr id="0" name="image9.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -489,7 +576,7 @@
     <xdr:ext cx="3924300" cy="2438400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image5.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -517,7 +604,7 @@
     <xdr:ext cx="295275" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -545,7 +632,7 @@
     <xdr:ext cx="3829050" cy="1704975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -573,7 +660,7 @@
     <xdr:ext cx="152400" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image10.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -601,11 +688,95 @@
     <xdr:ext cx="428625" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image7.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419100" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="714375" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="323850" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1284,85 +1455,213 @@
       <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="O10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="D11" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="K11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="D12" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="P12" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="D13" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="K13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1382,7 +1681,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1402,7 +1701,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1422,7 +1721,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1442,7 +1741,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1462,7 +1761,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1482,7 +1781,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1502,7 +1801,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1522,7 +1821,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1542,7 +1841,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1562,7 +1861,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
